--- a/BARU/2023/02 FEB/KELUAR.xlsx
+++ b/BARU/2023/02 FEB/KELUAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId8"/>
+    <pivotCache cacheId="35" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="308">
   <si>
     <t>Column1</t>
   </si>
@@ -869,6 +869,93 @@
   </si>
   <si>
     <t>ISI PENSIL 2B 0.5 MM JOYKO PL-05GRS176400</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>CLIKEN1</t>
+  </si>
+  <si>
+    <t>LEMKEN8GR</t>
+  </si>
+  <si>
+    <t>LEM STICK KENKO 8 GR (KECIL) isi 30 pc</t>
+  </si>
+  <si>
+    <t>LEMKEN15GR</t>
+  </si>
+  <si>
+    <t>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</t>
+  </si>
+  <si>
+    <t>TIPKENKE107</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-107M</t>
+  </si>
+  <si>
+    <t>CLIKEN3</t>
+  </si>
+  <si>
+    <t>CLIKEN5</t>
+  </si>
+  <si>
+    <t>TIPKENKE301</t>
+  </si>
+  <si>
+    <t>PAPER TRIGONAL CLIP KENKO NO. 1</t>
+  </si>
+  <si>
+    <t>PAPER TRIGONAL CLIP KENKO NO. 3</t>
+  </si>
+  <si>
+    <t>PAPER JUMBO CLIP KENKO NO. 5</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-301</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-107MLSN55800</t>
+  </si>
+  <si>
+    <t>CORRECTION FLUID KENKO KE-301LSN53400</t>
+  </si>
+  <si>
+    <t>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcBOX72000</t>
+  </si>
+  <si>
+    <t>LEM STICK KENKO 8 GR (KECIL) isi 30 pcBOX66000</t>
+  </si>
+  <si>
+    <t>PAPER JUMBO CLIP KENKO NO. 5PCS4300</t>
+  </si>
+  <si>
+    <t>PAPER TRIGONAL CLIP KENKO NO. 1PCS1700</t>
+  </si>
+  <si>
+    <t>PAPER TRIGONAL CLIP KENKO NO. 3PCS1600</t>
+  </si>
+  <si>
+    <t>STAPLER KENKO HD-10LSN93000</t>
+  </si>
+  <si>
+    <t>STAPLER KENKO HD-50LSN228000</t>
+  </si>
+  <si>
+    <t>09/02/203</t>
+  </si>
+  <si>
+    <t>0910</t>
+  </si>
+  <si>
+    <t>CUTKENL500</t>
+  </si>
+  <si>
+    <t>CUTTER 18 MM KENKO L-500 (BESAR)</t>
+  </si>
+  <si>
+    <t>CUTTER 18 MM KENKO L-500 (BESAR)LSN147600</t>
   </si>
 </sst>
 </file>
@@ -10342,6 +10429,16 @@
             <v>AM</v>
           </cell>
         </row>
+        <row r="1714">
+          <cell r="D1714">
+            <v>44966</v>
+          </cell>
+        </row>
+        <row r="1716">
+          <cell r="D1716" t="str">
+            <v>KO 0908</v>
+          </cell>
+        </row>
         <row r="1718">
           <cell r="D1718" t="str">
             <v>C</v>
@@ -10351,48 +10448,75 @@
           </cell>
         </row>
         <row r="1720">
+          <cell r="D1720">
+            <v>2</v>
+          </cell>
           <cell r="K1720">
-            <v>0</v>
+            <v>1470500</v>
           </cell>
         </row>
         <row r="1721">
+          <cell r="D1721">
+            <v>2</v>
+          </cell>
           <cell r="K1721">
-            <v>0</v>
+            <v>1384000</v>
           </cell>
         </row>
         <row r="1722">
+          <cell r="D1722">
+            <v>2</v>
+          </cell>
           <cell r="K1722">
-            <v>0</v>
+            <v>1487800</v>
           </cell>
         </row>
         <row r="1723">
+          <cell r="D1723">
+            <v>1</v>
+          </cell>
           <cell r="K1723">
-            <v>0</v>
+            <v>2055240</v>
           </cell>
         </row>
         <row r="1724">
+          <cell r="D1724">
+            <v>1</v>
+          </cell>
           <cell r="K1724">
-            <v>0</v>
+            <v>2242080</v>
           </cell>
         </row>
         <row r="1725">
+          <cell r="D1725">
+            <v>1</v>
+          </cell>
           <cell r="K1725">
-            <v>0</v>
+            <v>3325752</v>
           </cell>
         </row>
         <row r="1726">
+          <cell r="D1726">
+            <v>1</v>
+          </cell>
           <cell r="K1726">
-            <v>0</v>
+            <v>3475224</v>
           </cell>
         </row>
         <row r="1727">
+          <cell r="D1727">
+            <v>1</v>
+          </cell>
           <cell r="K1727">
-            <v>0</v>
+            <v>1608900</v>
           </cell>
         </row>
         <row r="1728">
+          <cell r="D1728">
+            <v>1</v>
+          </cell>
           <cell r="K1728">
-            <v>0</v>
+            <v>1972200</v>
           </cell>
         </row>
         <row r="1729">
@@ -10437,7 +10561,7 @@
         </row>
         <row r="1744">
           <cell r="K1744">
-            <v>0</v>
+            <v>19021696</v>
           </cell>
         </row>
         <row r="1750">
@@ -10447,12 +10571,12 @@
         </row>
         <row r="1752">
           <cell r="D1752">
-            <v>0</v>
+            <v>44966</v>
           </cell>
         </row>
         <row r="1754">
-          <cell r="D1754">
-            <v>0</v>
+          <cell r="D1754" t="str">
+            <v>KO 0908</v>
           </cell>
         </row>
         <row r="1756">
@@ -10465,74 +10589,74 @@
         </row>
         <row r="1758">
           <cell r="D1758">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K1758">
-            <v>0</v>
+            <v>1470500</v>
           </cell>
         </row>
         <row r="1759">
           <cell r="D1759">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K1759">
-            <v>0</v>
+            <v>1384000</v>
           </cell>
         </row>
         <row r="1760">
           <cell r="D1760">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K1760">
-            <v>0</v>
+            <v>1487800</v>
           </cell>
         </row>
         <row r="1761">
           <cell r="D1761">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1761">
-            <v>0</v>
+            <v>2055240</v>
           </cell>
         </row>
         <row r="1762">
           <cell r="D1762">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1762">
-            <v>0</v>
+            <v>2242080</v>
           </cell>
         </row>
         <row r="1763">
           <cell r="D1763">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1763">
-            <v>0</v>
+            <v>3325752</v>
           </cell>
         </row>
         <row r="1764">
           <cell r="D1764">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1764">
-            <v>0</v>
+            <v>3475224</v>
           </cell>
         </row>
         <row r="1765">
           <cell r="D1765">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1765">
-            <v>0</v>
+            <v>1608900</v>
           </cell>
         </row>
         <row r="1766">
           <cell r="D1766">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1766">
-            <v>0</v>
+            <v>1972200</v>
           </cell>
         </row>
         <row r="1767">
@@ -10598,7 +10722,7 @@
         </row>
         <row r="1782">
           <cell r="K1782">
-            <v>0</v>
+            <v>19021696</v>
           </cell>
         </row>
         <row r="1788">
@@ -10608,12 +10732,12 @@
         </row>
         <row r="1790">
           <cell r="D1790">
-            <v>0</v>
+            <v>44966</v>
           </cell>
         </row>
         <row r="1792">
-          <cell r="D1792">
-            <v>0</v>
+          <cell r="D1792" t="str">
+            <v>KO 0908</v>
           </cell>
         </row>
         <row r="1794">
@@ -10626,74 +10750,74 @@
         </row>
         <row r="1796">
           <cell r="D1796">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K1796">
-            <v>0</v>
+            <v>1470500</v>
           </cell>
         </row>
         <row r="1797">
           <cell r="D1797">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K1797">
-            <v>0</v>
+            <v>1384000</v>
           </cell>
         </row>
         <row r="1798">
           <cell r="D1798">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K1798">
-            <v>0</v>
+            <v>1487800</v>
           </cell>
         </row>
         <row r="1799">
           <cell r="D1799">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1799">
-            <v>0</v>
+            <v>2055240</v>
           </cell>
         </row>
         <row r="1800">
           <cell r="D1800">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1800">
-            <v>0</v>
+            <v>2242080</v>
           </cell>
         </row>
         <row r="1801">
           <cell r="D1801">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1801">
-            <v>0</v>
+            <v>3325752</v>
           </cell>
         </row>
         <row r="1802">
           <cell r="D1802">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1802">
-            <v>0</v>
+            <v>3475224</v>
           </cell>
         </row>
         <row r="1803">
           <cell r="D1803">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1803">
-            <v>0</v>
+            <v>1608900</v>
           </cell>
         </row>
         <row r="1804">
           <cell r="D1804">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1804">
-            <v>0</v>
+            <v>1972200</v>
           </cell>
         </row>
         <row r="1805">
@@ -10759,7 +10883,7 @@
         </row>
         <row r="1820">
           <cell r="K1820">
-            <v>0</v>
+            <v>19021696</v>
           </cell>
         </row>
         <row r="1826">
@@ -10767,6 +10891,16 @@
             <v>AM</v>
           </cell>
         </row>
+        <row r="1828">
+          <cell r="D1828" t="str">
+            <v>09/02/203</v>
+          </cell>
+        </row>
+        <row r="1830">
+          <cell r="D1830" t="str">
+            <v>KO 0910</v>
+          </cell>
+        </row>
         <row r="1832">
           <cell r="D1832" t="str">
             <v>C</v>
@@ -10776,8 +10910,11 @@
           </cell>
         </row>
         <row r="1834">
+          <cell r="D1834">
+            <v>1</v>
+          </cell>
           <cell r="K1834">
-            <v>0</v>
+            <v>2538720</v>
           </cell>
         </row>
         <row r="1835">
@@ -10862,7 +10999,7 @@
         </row>
         <row r="1858">
           <cell r="K1858">
-            <v>0</v>
+            <v>2538720</v>
           </cell>
         </row>
         <row r="1864">
@@ -10871,13 +11008,13 @@
           </cell>
         </row>
         <row r="1866">
-          <cell r="D1866">
-            <v>0</v>
+          <cell r="D1866" t="str">
+            <v>09/02/203</v>
           </cell>
         </row>
         <row r="1868">
-          <cell r="D1868">
-            <v>0</v>
+          <cell r="D1868" t="str">
+            <v>KO 0910</v>
           </cell>
         </row>
         <row r="1870">
@@ -10890,10 +11027,10 @@
         </row>
         <row r="1872">
           <cell r="D1872">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1872">
-            <v>0</v>
+            <v>2538720</v>
           </cell>
         </row>
         <row r="1873">
@@ -11023,7 +11160,7 @@
         </row>
         <row r="1896">
           <cell r="K1896">
-            <v>0</v>
+            <v>2538720</v>
           </cell>
         </row>
         <row r="1902">
@@ -11032,13 +11169,13 @@
           </cell>
         </row>
         <row r="1904">
-          <cell r="D1904">
-            <v>0</v>
+          <cell r="D1904" t="str">
+            <v>09/02/203</v>
           </cell>
         </row>
         <row r="1906">
-          <cell r="D1906">
-            <v>0</v>
+          <cell r="D1906" t="str">
+            <v>KO 0910</v>
           </cell>
         </row>
         <row r="1908">
@@ -11051,10 +11188,10 @@
         </row>
         <row r="1910">
           <cell r="D1910">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1910">
-            <v>0</v>
+            <v>2538720</v>
           </cell>
         </row>
         <row r="1911">
@@ -11184,7 +11321,7 @@
         </row>
         <row r="1934">
           <cell r="K1934">
-            <v>0</v>
+            <v>2538720</v>
           </cell>
         </row>
         <row r="1940">
@@ -25220,13 +25357,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44965.56534050926" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="104">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44966.682105902779" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="104">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="29">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="60" count="16">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="81" count="18">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -25243,13 +25380,15 @@
         <n v="56"/>
         <n v="58"/>
         <n v="60"/>
+        <n v="71"/>
+        <n v="81"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23020001" maxValue="23020015"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23020001" maxValue="23020017"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-02-02T00:00:00" maxDate="2023-02-09T00:00:00"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2023-02-02T00:00:00" maxDate="2023-02-10T00:00:00"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -25288,7 +25427,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Unit Price" numFmtId="43">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2050" maxValue="522000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1600" maxValue="522000"/>
     </cacheField>
     <cacheField name="Disc 1" numFmtId="10">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.14499999999999999"/>
@@ -25306,7 +25445,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="60"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="81"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
@@ -25327,7 +25466,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="H_A1" numFmtId="43">
-      <sharedItems count="53">
+      <sharedItems count="63">
         <s v="GUNTING JOYKO SC-828 SGLSN6100"/>
         <s v="GUNTING JOYKO SC-838 SGLSN7700"/>
         <s v=""/>
@@ -25373,6 +25512,16 @@
         <s v="CORRECTION FLUID JOYKO JK-101LSN36000"/>
         <s v="CORRECTION FLUID KENKO KE-108LSN47100"/>
         <s v="CORRECTION FLUID KENKO KE-01LSN54300"/>
+        <s v="PAPER TRIGONAL CLIP KENKO NO. 1PCS1700"/>
+        <s v="PAPER TRIGONAL CLIP KENKO NO. 3PCS1600"/>
+        <s v="PAPER JUMBO CLIP KENKO NO. 5PCS4300"/>
+        <s v="LEM STICK KENKO 8 GR (KECIL) isi 30 pcBOX66000"/>
+        <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcBOX72000"/>
+        <s v="CORRECTION FLUID KENKO KE-301LSN53400"/>
+        <s v="CORRECTION FLUID KENKO KE-107MLSN55800"/>
+        <s v="STAPLER KENKO HD-10LSN93000"/>
+        <s v="STAPLER KENKO HD-50LSN228000"/>
+        <s v="CUTTER 18 MM KENKO L-500 (BESAR)LSN147600"/>
         <s v="ISI PENSIL 2B 0.5 MM JOYKO PL-05GRS146400" u="1"/>
         <s v="LS93000" u="1"/>
         <s v="LS117600" u="1"/>
@@ -27503,6 +27652,285 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="16"/>
+    <n v="23020016"/>
+    <d v="2023-02-09T00:00:00"/>
+    <s v="ko"/>
+    <s v="0908"/>
+    <s v="ANUGERAH"/>
+    <s v="AM 23020016"/>
+    <s v="KO 0908"/>
+    <s v="CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO"/>
+    <n v="1000"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="CLIKEN1"/>
+    <s v="PAPER TRIGONAL CLIP KENKO NO. 1"/>
+    <s v="PAPER TRIGONAL CLIP KENKO NO. 1"/>
+    <n v="1700"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="1470500"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="1700000"/>
+    <n v="229500.00000000003"/>
+    <n v="1470500"/>
+    <n v="19021696"/>
+    <m/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="1000"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="CLIKEN3"/>
+    <s v="PAPER TRIGONAL CLIP KENKO NO. 3"/>
+    <s v="PAPER TRIGONAL CLIP KENKO NO. 3"/>
+    <n v="1600"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="1384000"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="1600000"/>
+    <n v="216000"/>
+    <n v="1384000"/>
+    <s v=""/>
+    <m/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="400"/>
+    <s v="PCS"/>
+    <n v="2"/>
+    <s v="CLIKEN5"/>
+    <s v="PAPER JUMBO CLIP KENKO NO. 5"/>
+    <s v="PAPER JUMBO CLIP KENKO NO. 5"/>
+    <n v="4300"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="1487800"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="1720000"/>
+    <n v="232200.00000000003"/>
+    <n v="1487800"/>
+    <s v=""/>
+    <m/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="36"/>
+    <s v="BOX"/>
+    <n v="1"/>
+    <s v="LEMKEN8GR"/>
+    <s v="LEM STICK KENKO 8 GR (KECIL) isi 30 pc"/>
+    <s v="LEM STICK KENKO 8 GR (KECIL) isi 30 pc"/>
+    <n v="66000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="2055240"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="2376000"/>
+    <n v="320760"/>
+    <n v="2055240"/>
+    <s v=""/>
+    <m/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="36"/>
+    <s v="BOX"/>
+    <n v="1"/>
+    <s v="LEMKEN15GR"/>
+    <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc"/>
+    <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc"/>
+    <n v="72000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="2242080"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="2592000"/>
+    <n v="349920"/>
+    <n v="2242080"/>
+    <s v=""/>
+    <m/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE301"/>
+    <s v="CORRECTION FLUID KENKO KE-301"/>
+    <s v="CORRECTION FLUID KENKO KE-301"/>
+    <n v="53400"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3325752"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="3844800"/>
+    <n v="519048.00000000006"/>
+    <n v="3325752"/>
+    <s v=""/>
+    <m/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="72"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="TIPKENKE107"/>
+    <s v="CORRECTION FLUID KENKO KE-107M"/>
+    <s v="CORRECTION FLUID KENKO KE-107M"/>
+    <n v="55800"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="3475224"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="4017600"/>
+    <n v="542376"/>
+    <n v="3475224"/>
+    <s v=""/>
+    <m/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="20"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="STAKENHD10"/>
+    <s v="STAPLER KENKO HD-10"/>
+    <s v="STAPLER KENKO HD-10"/>
+    <n v="93000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="1608900"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="1860000"/>
+    <n v="251100.00000000003"/>
+    <n v="1608900"/>
+    <s v=""/>
+    <m/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v=""/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <s v=" "/>
+    <s v=""/>
+    <n v="10"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="STAKENHD50"/>
+    <s v="STAPLER KENKO HD-50"/>
+    <s v="STAPLER KENKO HD-50"/>
+    <n v="228000"/>
+    <n v="0.13500000000000001"/>
+    <m/>
+    <n v="1972200"/>
+    <m/>
+    <m/>
+    <n v="71"/>
+    <n v="9"/>
+    <n v="2280000"/>
+    <n v="307800"/>
+    <n v="1972200"/>
+    <s v=""/>
+    <m/>
+    <x v="53"/>
+  </r>
+  <r>
     <x v="1"/>
     <s v=""/>
     <m/>
@@ -27534,314 +27962,35 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
+    <x v="17"/>
+    <n v="23020017"/>
+    <s v="09/02/203"/>
+    <s v="ko"/>
+    <s v="0910"/>
+    <s v="bendan"/>
+    <s v="AM 23020017"/>
+    <s v="KO 0910"/>
+    <s v="HARNOYO (BENDAN) PEKALONGAN"/>
+    <n v="20"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="CUTKENL500"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <s v="CUTTER 18 MM KENKO L-500 (BESAR)"/>
+    <n v="147600"/>
+    <n v="0.14000000000000001"/>
+    <m/>
+    <n v="2538720"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="81"/>
+    <n v="1"/>
+    <n v="2952000"/>
+    <n v="413280.00000000006"/>
+    <n v="2538720"/>
+    <n v="2538720"/>
+    <m/>
+    <x v="54"/>
   </r>
   <r>
     <x v="1"/>
@@ -28622,11 +28771,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A2:A19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:A21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="17">
+      <items count="19">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -28642,6 +28791,8 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -28678,7 +28829,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
@@ -28727,6 +28878,12 @@
     <i>
       <x v="15"/>
     </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -28744,8 +28901,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:A47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -28776,20 +28933,23 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="53">
+      <items count="63">
         <item x="2"/>
         <item x="34"/>
         <item x="4"/>
         <item x="3"/>
         <item x="40"/>
-        <item m="1" x="49"/>
+        <item m="1" x="59"/>
         <item x="42"/>
         <item x="5"/>
         <item x="44"/>
+        <item x="51"/>
         <item x="43"/>
+        <item x="50"/>
         <item x="39"/>
         <item x="12"/>
         <item x="11"/>
+        <item x="54"/>
         <item x="26"/>
         <item x="15"/>
         <item x="28"/>
@@ -28798,10 +28958,10 @@
         <item x="33"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="50"/>
+        <item m="1" x="60"/>
         <item x="37"/>
         <item x="31"/>
-        <item m="1" x="45"/>
+        <item m="1" x="55"/>
         <item x="38"/>
         <item x="9"/>
         <item x="17"/>
@@ -28809,25 +28969,32 @@
         <item x="10"/>
         <item x="41"/>
         <item x="36"/>
-        <item m="1" x="47"/>
-        <item m="1" x="52"/>
-        <item m="1" x="51"/>
-        <item m="1" x="46"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item m="1" x="57"/>
+        <item m="1" x="62"/>
+        <item m="1" x="61"/>
+        <item m="1" x="56"/>
         <item x="14"/>
         <item x="21"/>
+        <item x="47"/>
+        <item x="45"/>
+        <item x="46"/>
         <item x="35"/>
         <item x="13"/>
         <item x="27"/>
         <item x="29"/>
         <item x="30"/>
         <item x="23"/>
-        <item m="1" x="48"/>
+        <item m="1" x="58"/>
         <item x="32"/>
         <item x="24"/>
         <item x="25"/>
         <item x="8"/>
         <item x="7"/>
+        <item x="52"/>
         <item x="6"/>
+        <item x="53"/>
         <item x="19"/>
         <item x="18"/>
       </items>
@@ -28836,7 +29003,7 @@
   <rowFields count="1">
     <field x="28"/>
   </rowFields>
-  <rowItems count="46">
+  <rowItems count="56">
     <i>
       <x/>
     </i>
@@ -28898,6 +29065,9 @@
       <x v="20"/>
     </i>
     <i>
+      <x v="21"/>
+    </i>
+    <i>
       <x v="22"/>
     </i>
     <i>
@@ -28908,9 +29078,6 @@
     </i>
     <i>
       <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
     </i>
     <i>
       <x v="28"/>
@@ -28925,19 +29092,19 @@
       <x v="31"/>
     </i>
     <i>
-      <x v="36"/>
+      <x v="32"/>
     </i>
     <i>
-      <x v="37"/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="38"/>
+      <x v="34"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="36"/>
     </i>
     <i>
       <x v="41"/>
@@ -28947,6 +29114,9 @@
     </i>
     <i>
       <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
     </i>
     <i>
       <x v="45"/>
@@ -28970,7 +29140,34 @@
       <x v="51"/>
     </i>
     <i>
-      <x v="52"/>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
     </i>
     <i t="grand">
       <x/>
@@ -29466,8 +29663,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView topLeftCell="H43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35093,68 +35290,98 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="95" t="str">
+      <c r="A71" s="95">
         <f>IF(Table1[No. Invoice :]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B71" s="196" t="str">
+        <v>71</v>
+      </c>
+      <c r="B71" s="196">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B70))</f>
-        <v/>
-      </c>
-      <c r="D71" s="197"/>
-      <c r="E71" s="198"/>
-      <c r="F71" s="197"/>
+        <v>23020016</v>
+      </c>
+      <c r="C71" s="98">
+        <v>44966</v>
+      </c>
+      <c r="D71" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71" s="92" t="s">
+        <v>94</v>
+      </c>
       <c r="G71" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23020016</v>
       </c>
       <c r="H71" s="96" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 0908</v>
       </c>
       <c r="I71" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
-      </c>
-      <c r="M71" s="197"/>
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="J71" s="92">
+        <v>1000</v>
+      </c>
+      <c r="K71" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="L71" s="92">
+        <v>2</v>
+      </c>
+      <c r="M71" s="92" t="s">
+        <v>280</v>
+      </c>
       <c r="N71" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="94"/>
-      <c r="S71" s="199" t="str">
+        <v>PAPER TRIGONAL CLIP KENKO NO. 1</v>
+      </c>
+      <c r="O71" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="P71" s="93">
+        <v>1700</v>
+      </c>
+      <c r="Q71" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S71" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V71" s="95" t="str">
+        <v>1470500</v>
+      </c>
+      <c r="T71" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="V71" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V70,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W71" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W71" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X71" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X71" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y71" s="93" t="str">
+        <v>1700000</v>
+      </c>
+      <c r="Y71" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z71" s="93" t="str">
+        <v>229500.00000000003</v>
+      </c>
+      <c r="Z71" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AA71" s="93" t="str">
+        <v>1470500</v>
+      </c>
+      <c r="AA71" s="93">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>19021696</v>
       </c>
       <c r="AB71" s="93"/>
       <c r="AC71" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PAPER TRIGONAL CLIP KENKO NO. 1PCS1700</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -35181,36 +35408,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M72" s="197"/>
+      <c r="J72" s="92">
+        <v>1000</v>
+      </c>
+      <c r="K72" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72" s="92">
+        <v>2</v>
+      </c>
+      <c r="M72" s="92" t="s">
+        <v>287</v>
+      </c>
       <c r="N72" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="94"/>
-      <c r="S72" s="199" t="str">
+        <v>PAPER TRIGONAL CLIP KENKO NO. 3</v>
+      </c>
+      <c r="O72" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="P72" s="93">
+        <v>1600</v>
+      </c>
+      <c r="Q72" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S72" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V72" s="95" t="str">
+        <v>1384000</v>
+      </c>
+      <c r="V72" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V71,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W72" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W72" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X72" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X72" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y72" s="93" t="str">
+        <v>1600000</v>
+      </c>
+      <c r="Y72" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z72" s="93" t="str">
+        <v>216000</v>
+      </c>
+      <c r="Z72" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1384000</v>
       </c>
       <c r="AA72" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35219,7 +35464,7 @@
       <c r="AB72" s="93"/>
       <c r="AC72" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PAPER TRIGONAL CLIP KENKO NO. 3PCS1600</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
@@ -35246,36 +35491,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M73" s="197"/>
+      <c r="J73" s="92">
+        <v>400</v>
+      </c>
+      <c r="K73" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="L73" s="92">
+        <v>2</v>
+      </c>
+      <c r="M73" s="92" t="s">
+        <v>288</v>
+      </c>
       <c r="N73" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="94"/>
-      <c r="S73" s="199" t="str">
+        <v>PAPER JUMBO CLIP KENKO NO. 5</v>
+      </c>
+      <c r="O73" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="P73" s="93">
+        <v>4300</v>
+      </c>
+      <c r="Q73" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S73" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V73" s="95" t="str">
+        <v>1487800</v>
+      </c>
+      <c r="V73" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V72,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W73" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W73" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X73" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X73" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y73" s="93" t="str">
+        <v>1720000</v>
+      </c>
+      <c r="Y73" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z73" s="93" t="str">
+        <v>232200.00000000003</v>
+      </c>
+      <c r="Z73" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1487800</v>
       </c>
       <c r="AA73" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35284,7 +35547,7 @@
       <c r="AB73" s="93"/>
       <c r="AC73" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>PAPER JUMBO CLIP KENKO NO. 5PCS4300</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -35311,36 +35574,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M74" s="197"/>
+      <c r="J74" s="92">
+        <v>36</v>
+      </c>
+      <c r="K74" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="L74" s="92">
+        <v>1</v>
+      </c>
+      <c r="M74" s="92" t="s">
+        <v>281</v>
+      </c>
       <c r="N74" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P74" s="93"/>
-      <c r="Q74" s="94"/>
-      <c r="S74" s="199" t="str">
+        <v>LEM STICK KENKO 8 GR (KECIL) isi 30 pc</v>
+      </c>
+      <c r="O74" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="P74" s="93">
+        <v>66000</v>
+      </c>
+      <c r="Q74" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S74" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V74" s="95" t="str">
+        <v>2055240</v>
+      </c>
+      <c r="V74" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V73,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W74" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W74" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X74" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X74" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y74" s="93" t="str">
+        <v>2376000</v>
+      </c>
+      <c r="Y74" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z74" s="93" t="str">
+        <v>320760</v>
+      </c>
+      <c r="Z74" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2055240</v>
       </c>
       <c r="AA74" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35349,7 +35630,7 @@
       <c r="AB74" s="93"/>
       <c r="AC74" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LEM STICK KENKO 8 GR (KECIL) isi 30 pcBOX66000</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
@@ -35376,36 +35657,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M75" s="197"/>
+      <c r="J75" s="92">
+        <v>36</v>
+      </c>
+      <c r="K75" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="L75" s="92">
+        <v>1</v>
+      </c>
+      <c r="M75" s="92" t="s">
+        <v>283</v>
+      </c>
       <c r="N75" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="94"/>
-      <c r="S75" s="199" t="str">
+        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+      </c>
+      <c r="O75" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="P75" s="93">
+        <v>72000</v>
+      </c>
+      <c r="Q75" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S75" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V75" s="95" t="str">
+        <v>2242080</v>
+      </c>
+      <c r="V75" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V74,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W75" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W75" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X75" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X75" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y75" s="93" t="str">
+        <v>2592000</v>
+      </c>
+      <c r="Y75" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z75" s="93" t="str">
+        <v>349920</v>
+      </c>
+      <c r="Z75" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>2242080</v>
       </c>
       <c r="AA75" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35414,7 +35713,7 @@
       <c r="AB75" s="93"/>
       <c r="AC75" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcBOX72000</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
@@ -35441,36 +35740,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M76" s="197"/>
+      <c r="J76" s="92">
+        <v>72</v>
+      </c>
+      <c r="K76" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L76" s="92">
+        <v>1</v>
+      </c>
+      <c r="M76" s="92" t="s">
+        <v>289</v>
+      </c>
       <c r="N76" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P76" s="93"/>
-      <c r="Q76" s="94"/>
-      <c r="S76" s="199" t="str">
+        <v>CORRECTION FLUID KENKO KE-301</v>
+      </c>
+      <c r="O76" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="P76" s="93">
+        <v>53400</v>
+      </c>
+      <c r="Q76" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S76" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V76" s="95" t="str">
+        <v>3325752</v>
+      </c>
+      <c r="V76" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V75,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W76" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W76" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X76" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X76" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y76" s="93" t="str">
+        <v>3844800</v>
+      </c>
+      <c r="Y76" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z76" s="93" t="str">
+        <v>519048.00000000006</v>
+      </c>
+      <c r="Z76" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>3325752</v>
       </c>
       <c r="AA76" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35479,7 +35796,7 @@
       <c r="AB76" s="93"/>
       <c r="AC76" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-301LSN53400</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
@@ -35506,36 +35823,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M77" s="197"/>
+      <c r="J77" s="92">
+        <v>72</v>
+      </c>
+      <c r="K77" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L77" s="92">
+        <v>1</v>
+      </c>
+      <c r="M77" s="197" t="s">
+        <v>285</v>
+      </c>
       <c r="N77" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="94"/>
-      <c r="S77" s="199" t="str">
+        <v>CORRECTION FLUID KENKO KE-107M</v>
+      </c>
+      <c r="O77" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="P77" s="93">
+        <v>55800</v>
+      </c>
+      <c r="Q77" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S77" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V77" s="95" t="str">
+        <v>3475224</v>
+      </c>
+      <c r="V77" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V76,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W77" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W77" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X77" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X77" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y77" s="93" t="str">
+        <v>4017600</v>
+      </c>
+      <c r="Y77" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z77" s="93" t="str">
+        <v>542376</v>
+      </c>
+      <c r="Z77" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>3475224</v>
       </c>
       <c r="AA77" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35544,7 +35879,7 @@
       <c r="AB77" s="93"/>
       <c r="AC77" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CORRECTION FLUID KENKO KE-107MLSN55800</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -35571,36 +35906,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M78" s="197"/>
+      <c r="J78" s="92">
+        <v>20</v>
+      </c>
+      <c r="K78" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L78" s="92">
+        <v>1</v>
+      </c>
+      <c r="M78" s="92" t="s">
+        <v>178</v>
+      </c>
       <c r="N78" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="94"/>
-      <c r="S78" s="199" t="str">
+        <v>STAPLER KENKO HD-10</v>
+      </c>
+      <c r="O78" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" s="93">
+        <v>93000</v>
+      </c>
+      <c r="Q78" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S78" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V78" s="95" t="str">
+        <v>1608900</v>
+      </c>
+      <c r="V78" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V77,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W78" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W78" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X78" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X78" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y78" s="93" t="str">
+        <v>1860000</v>
+      </c>
+      <c r="Y78" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z78" s="93" t="str">
+        <v>251100.00000000003</v>
+      </c>
+      <c r="Z78" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1608900</v>
       </c>
       <c r="AA78" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35609,7 +35962,7 @@
       <c r="AB78" s="93"/>
       <c r="AC78" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER KENKO HD-10LSN93000</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -35636,36 +35989,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M79" s="197"/>
+      <c r="J79" s="92">
+        <v>10</v>
+      </c>
+      <c r="K79" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" s="92">
+        <v>1</v>
+      </c>
+      <c r="M79" s="92" t="s">
+        <v>177</v>
+      </c>
       <c r="N79" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P79" s="93"/>
-      <c r="Q79" s="94"/>
-      <c r="S79" s="199" t="str">
+        <v>STAPLER KENKO HD-50</v>
+      </c>
+      <c r="O79" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="P79" s="93">
+        <v>228000</v>
+      </c>
+      <c r="Q79" s="94">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S79" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V79" s="95" t="str">
+        <v>1972200</v>
+      </c>
+      <c r="V79" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V78,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W79" s="95" t="str">
+        <v>71</v>
+      </c>
+      <c r="W79" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X79" s="93" t="str">
+        <v>9</v>
+      </c>
+      <c r="X79" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y79" s="93" t="str">
+        <v>2280000</v>
+      </c>
+      <c r="Y79" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z79" s="93" t="str">
+        <v>307800</v>
+      </c>
+      <c r="Z79" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>1972200</v>
       </c>
       <c r="AA79" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -35674,7 +36045,7 @@
       <c r="AB79" s="93"/>
       <c r="AC79" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER KENKO HD-50LSN228000</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
@@ -35743,68 +36114,98 @@
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="95" t="str">
+      <c r="A81" s="95">
         <f>IF(Table1[No. Invoice :]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B81" s="196" t="str">
+        <v>81</v>
+      </c>
+      <c r="B81" s="196">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B80))</f>
-        <v/>
-      </c>
-      <c r="D81" s="197"/>
-      <c r="E81" s="198"/>
-      <c r="F81" s="197"/>
+        <v>23020017</v>
+      </c>
+      <c r="C81" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="F81" s="92" t="s">
+        <v>129</v>
+      </c>
       <c r="G81" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23020017</v>
       </c>
       <c r="H81" s="96" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 0910</v>
       </c>
       <c r="I81" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
-      </c>
-      <c r="M81" s="197"/>
+        <v>HARNOYO (BENDAN) PEKALONGAN</v>
+      </c>
+      <c r="J81" s="92">
+        <v>20</v>
+      </c>
+      <c r="K81" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L81" s="92">
+        <v>1</v>
+      </c>
+      <c r="M81" s="92" t="s">
+        <v>305</v>
+      </c>
       <c r="N81" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P81" s="93"/>
-      <c r="Q81" s="94"/>
-      <c r="S81" s="199" t="str">
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+      </c>
+      <c r="O81" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="P81" s="93">
+        <v>147600</v>
+      </c>
+      <c r="Q81" s="94">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S81" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V81" s="95" t="str">
+        <v>2538720</v>
+      </c>
+      <c r="T81" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="V81" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V80,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W81" s="95" t="str">
+        <v>81</v>
+      </c>
+      <c r="W81" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X81" s="93" t="str">
+        <v>1</v>
+      </c>
+      <c r="X81" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y81" s="93" t="str">
+        <v>2952000</v>
+      </c>
+      <c r="Y81" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z81" s="93" t="str">
+        <v>413280.00000000006</v>
+      </c>
+      <c r="Z81" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AA81" s="93" t="str">
+        <v>2538720</v>
+      </c>
+      <c r="AA81" s="93">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>2538720</v>
       </c>
       <c r="AB81" s="93"/>
       <c r="AC81" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)LSN147600</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -37447,7 +37848,7 @@
   <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37477,7 +37878,7 @@
       </c>
       <c r="E1">
         <f>COUNT(Table1[//])</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -37534,7 +37935,7 @@
       </c>
       <c r="W2" s="89">
         <f>SUM(pajak[Total Invoice])</f>
-        <v>158881344</v>
+        <v>180441760</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -37606,7 +38007,7 @@
       </c>
       <c r="W3" s="89">
         <f>SUM(pajak[PPN 11%])</f>
-        <v>15744998.054054052</v>
+        <v>17881615.855855852</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -37675,7 +38076,7 @@
       </c>
       <c r="W4" s="89">
         <f>(W2/1.11)*11%</f>
-        <v>15744998.054054052</v>
+        <v>17881615.855855852</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -38524,134 +38925,137 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="D18" s="86" t="str">
+      <c r="A18" s="88">
+        <v>71</v>
+      </c>
+      <c r="D18" s="86">
         <f t="shared" si="1"/>
-        <v/>
+        <v>71</v>
       </c>
       <c r="E18" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F18" s="90" t="str">
+        <v>AM 23020016</v>
+      </c>
+      <c r="F18" s="90">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>44966</v>
       </c>
       <c r="G18" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 0908</v>
       </c>
       <c r="H18" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I18" s="89" t="str">
+        <v>CV PELITA JAYA (ANUGERAH SEJAHTERA) PURWOKERTO</v>
+      </c>
+      <c r="I18" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J18" s="89" t="str">
+        <v>21990400</v>
+      </c>
+      <c r="J18" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K18" s="89" t="str">
+        <v>2968704</v>
+      </c>
+      <c r="K18" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L18" s="89" t="str">
+        <v>19021696</v>
+      </c>
+      <c r="L18" s="89">
         <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M18" s="89" t="str">
+        <v>1885032.9369369368</v>
+      </c>
+      <c r="M18" s="89">
         <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>19021696</v>
       </c>
       <c r="N18" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O18" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
         <v/>
       </c>
-      <c r="R18" t="str">
+      <c r="R18">
         <f>IF(pajak[[#This Row],[Kode Sales :]]="","",MATCH(pajak[[#This Row],[Kode Sales :]],[2]Invoice!$D:$D,0))</f>
-        <v/>
-      </c>
-      <c r="S18" t="e">
+        <v>1716</v>
+      </c>
+      <c r="S18">
         <f>Table4[[#This Row],[cek_ppn]]+28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T18" s="86" t="e">
+        <v>1744</v>
+      </c>
+      <c r="T18" s="86" t="str">
         <f>IF(INDEX([2]Invoice!$K:$K,Table4[[#This Row],[cek_rekap(share)]])=pajak[[#This Row],[Total Invoice]],"-",FALSE)</f>
-        <v>#VALUE!</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="86" t="str">
+      <c r="A19" s="88">
+        <v>81</v>
+      </c>
+      <c r="D19" s="86">
         <f t="shared" si="1"/>
-        <v/>
+        <v>81</v>
       </c>
       <c r="E19" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>AM 23020017</v>
       </c>
       <c r="F19" s="90" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>09/02/203</v>
       </c>
       <c r="G19" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 0910</v>
       </c>
       <c r="H19" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I19" s="89" t="str">
+        <v>HARNOYO (BENDAN) PEKALONGAN</v>
+      </c>
+      <c r="I19" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J19" s="89" t="str">
+        <v>2952000</v>
+      </c>
+      <c r="J19" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K19" s="89" t="str">
+        <v>413280.00000000006</v>
+      </c>
+      <c r="K19" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L19" s="89" t="str">
+        <v>2538720</v>
+      </c>
+      <c r="L19" s="89">
         <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M19" s="89" t="str">
+        <v>251584.86486486488</v>
+      </c>
+      <c r="M19" s="89">
         <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>2538720</v>
       </c>
       <c r="N19" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O19" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
         <v/>
       </c>
-      <c r="R19" t="str">
+      <c r="R19">
         <f>IF(pajak[[#This Row],[Kode Sales :]]="","",MATCH(pajak[[#This Row],[Kode Sales :]],[2]Invoice!$D:$D,0))</f>
-        <v/>
-      </c>
-      <c r="S19" t="e">
+        <v>1830</v>
+      </c>
+      <c r="S19">
         <f>Table4[[#This Row],[cek_ppn]]+28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T19" s="86" t="e">
+        <v>1858</v>
+      </c>
+      <c r="T19" s="86" t="str">
         <f>IF(INDEX([2]Invoice!$K:$K,Table4[[#This Row],[cek_rekap(share)]])=pajak[[#This Row],[Total Invoice]],"-",FALSE)</f>
-        <v>#VALUE!</v>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
       <c r="B20" s="88"/>
       <c r="D20" s="86" t="str">
         <f t="shared" si="1"/>
@@ -38715,6 +39119,9 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>55</v>
+      </c>
       <c r="B21" s="88"/>
       <c r="D21" s="86" t="str">
         <f t="shared" si="1"/>
@@ -40898,23 +41305,23 @@
       <c r="F56"/>
       <c r="I56" s="89">
         <f>SUBTOTAL(109,pajak[Total])</f>
-        <v>182662800</v>
+        <v>207605200</v>
       </c>
       <c r="J56" s="89">
         <f>SUBTOTAL(109,pajak[Diskon])</f>
-        <v>23781456</v>
+        <v>27163440</v>
       </c>
       <c r="K56" s="89">
         <f>SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>158881344</v>
+        <v>180441760</v>
       </c>
       <c r="L56" s="89">
         <f>SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>15744998.054054052</v>
+        <v>17881615.855855852</v>
       </c>
       <c r="M56" s="89">
         <f>SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>158881344</v>
+        <v>180441760</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -40937,7 +41344,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J37" sqref="J37:K37"/>
     </sheetView>
   </sheetViews>
@@ -40958,7 +41365,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -40972,14 +41379,14 @@
       </c>
       <c r="E1" t="str">
         <f>INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>REJOAGUNG</v>
+        <v>bendan</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
       </c>
       <c r="G1">
         <f>INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I1" s="290" t="s">
         <v>77</v>
@@ -41006,14 +41413,14 @@
       </c>
       <c r="E3" s="9">
         <f>INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23020015</v>
+        <v>23020017</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="297" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>LILY JULIAWATI</v>
+        <v>HARNOYO</v>
       </c>
       <c r="I3" s="297"/>
       <c r="J3" s="297"/>
@@ -41042,16 +41449,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="302">
+      <c r="D5" s="302" t="str">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>44965</v>
+        <v>09/02/203</v>
       </c>
       <c r="E5" s="303"/>
       <c r="F5" s="301"/>
       <c r="G5" s="18"/>
       <c r="H5" s="304" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(REJO AGUNG)</v>
+        <v>(BENDAN)</v>
       </c>
       <c r="I5" s="304"/>
       <c r="J5" s="304"/>
@@ -41068,7 +41475,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="306" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>JOMBANG</v>
+        <v>PEKALONGAN</v>
       </c>
       <c r="I6" s="306"/>
       <c r="J6" s="306"/>
@@ -41083,7 +41490,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="20" t="str">
         <f>INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>G 0877</v>
+        <v>KO 0910</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
@@ -41154,7 +41561,7 @@
       </c>
       <c r="B11" s="46">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="46" t="str">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
@@ -41166,17 +41573,17 @@
       </c>
       <c r="E11" s="48" t="str">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>JANGKA (MATH SET) JOYKO MS-55</v>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
       <c r="H11" s="51">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>88200</v>
+        <v>147600</v>
       </c>
       <c r="I11" s="52">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1))</f>
-        <v>0.125</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="52" t="str">
         <f>IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -41184,7 +41591,7 @@
       </c>
       <c r="K11" s="53">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>1852200</v>
+        <v>2538720</v>
       </c>
       <c r="L11" s="36"/>
     </row>
@@ -41192,39 +41599,39 @@
       <c r="A12" s="45">
         <v>2</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="46" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v>720</v>
+        <v/>
       </c>
       <c r="C12" s="46" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A12-1))</f>
-        <v>PCS</v>
-      </c>
-      <c r="D12" s="47">
+        <v/>
+      </c>
+      <c r="D12" s="47" t="str">
         <f>IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E12" s="48" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
+        <v/>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="51">
+      <c r="H12" s="51" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v>3700</v>
-      </c>
-      <c r="I12" s="52">
+        <v/>
+      </c>
+      <c r="I12" s="52" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J12" s="52" t="str">
         <f>IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="53" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v>2331000</v>
+        <v/>
       </c>
       <c r="L12" s="36"/>
     </row>
@@ -41232,39 +41639,39 @@
       <c r="A13" s="45">
         <v>3</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="46" t="str">
         <f>IF(A13&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A13-1))</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="C13" s="46" t="str">
         <f>IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A13-1))</f>
-        <v>GRS</v>
-      </c>
-      <c r="D13" s="47">
+        <v/>
+      </c>
+      <c r="D13" s="47" t="str">
         <f>IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A13-1)="","",INDEX(Table1[C],newestIdRow-offset+A13-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E13" s="48" t="str">
         <f>IF(A13&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A13-1))</f>
-        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
+        <v/>
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="51">
+      <c r="H13" s="51" t="str">
         <f>IF(A13&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A13-1))</f>
-        <v>176400</v>
-      </c>
-      <c r="I13" s="52">
+        <v/>
+      </c>
+      <c r="I13" s="52" t="str">
         <f>IF(A13&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A13-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J13" s="52" t="str">
         <f>IF(A13&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A13-1)))</f>
         <v/>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="53" t="str">
         <f>IF(A13&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A13-1))</f>
-        <v>1852200</v>
+        <v/>
       </c>
       <c r="L13" s="36"/>
     </row>
@@ -41272,39 +41679,39 @@
       <c r="A14" s="45">
         <v>4</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="46" t="str">
         <f>IF(A14&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A14-1))</f>
-        <v>420</v>
+        <v/>
       </c>
       <c r="C14" s="46" t="str">
         <f>IF(A14&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A14-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D14" s="47">
+        <v/>
+      </c>
+      <c r="D14" s="47" t="str">
         <f>IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A14-1)="","",INDEX(Table1[C],newestIdRow-offset+A14-1)))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="E14" s="48" t="str">
         <f>IF(A14&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A14-1))</f>
-        <v>CORRECTION TAPE JOYKO CT-522</v>
+        <v/>
       </c>
       <c r="F14" s="49"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="51">
+      <c r="H14" s="51" t="str">
         <f>IF(A14&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A14-1))</f>
-        <v>57600</v>
-      </c>
-      <c r="I14" s="52">
+        <v/>
+      </c>
+      <c r="I14" s="52" t="str">
         <f>IF(A14&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A14-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J14" s="52" t="str">
         <f>IF(A14&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A14-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A14-1)))</f>
         <v/>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="53" t="str">
         <f>IF(A14&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A14-1))</f>
-        <v>21168000</v>
+        <v/>
       </c>
       <c r="L14" s="36"/>
     </row>
@@ -41312,39 +41719,39 @@
       <c r="A15" s="45">
         <v>5</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="46" t="str">
         <f>IF(A15&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A15-1))</f>
-        <v>288</v>
+        <v/>
       </c>
       <c r="C15" s="46" t="str">
         <f>IF(A15&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A15-1))</f>
-        <v>PCS</v>
-      </c>
-      <c r="D15" s="47">
+        <v/>
+      </c>
+      <c r="D15" s="47" t="str">
         <f>IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A15-1)="","",INDEX(Table1[C],newestIdRow-offset+A15-1)))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="E15" s="48" t="str">
         <f>IF(A15&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A15-1))</f>
-        <v>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC) MIX</v>
+        <v/>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="51">
+      <c r="H15" s="51" t="str">
         <f>IF(A15&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A15-1))</f>
-        <v>15800</v>
-      </c>
-      <c r="I15" s="52">
+        <v/>
+      </c>
+      <c r="I15" s="52" t="str">
         <f>IF(A15&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A15-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J15" s="52" t="str">
         <f>IF(A15&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A15-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A15-1)))</f>
         <v/>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="53" t="str">
         <f>IF(A15&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A15-1))</f>
-        <v>3981600</v>
+        <v/>
       </c>
       <c r="L15" s="36"/>
     </row>
@@ -41352,39 +41759,39 @@
       <c r="A16" s="45">
         <v>6</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="46" t="str">
         <f>IF(A16&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A16-1))</f>
-        <v>144</v>
+        <v/>
       </c>
       <c r="C16" s="46" t="str">
         <f>IF(A16&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A16-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D16" s="47">
+        <v/>
+      </c>
+      <c r="D16" s="47" t="str">
         <f>IF(A16&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A16-1)="","",INDEX(Table1[C],newestIdRow-offset+A16-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E16" s="48" t="str">
         <f>IF(A16&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A16-1))</f>
-        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
+        <v/>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="51">
+      <c r="H16" s="51" t="str">
         <f>IF(A16&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A16-1))</f>
-        <v>39000</v>
-      </c>
-      <c r="I16" s="52">
+        <v/>
+      </c>
+      <c r="I16" s="52" t="str">
         <f>IF(A16&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A16-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J16" s="52" t="str">
         <f>IF(A16&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A16-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A16-1)))</f>
         <v/>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="53" t="str">
         <f>IF(A16&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A16-1))</f>
-        <v>4914000</v>
+        <v/>
       </c>
       <c r="L16" s="36"/>
     </row>
@@ -41392,39 +41799,39 @@
       <c r="A17" s="45">
         <v>7</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="46" t="str">
         <f>IF(A17&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A17-1))</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="C17" s="46" t="str">
         <f>IF(A17&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A17-1))</f>
-        <v>SLOP</v>
-      </c>
-      <c r="D17" s="47">
+        <v/>
+      </c>
+      <c r="D17" s="47" t="str">
         <f>IF(A17&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A17-1)="","",INDEX(Table1[C],newestIdRow-offset+A17-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E17" s="48" t="str">
         <f>IF(A17&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A17-1))</f>
-        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+        <v/>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="51">
+      <c r="H17" s="51" t="str">
         <f>IF(A17&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A17-1))</f>
-        <v>20500</v>
-      </c>
-      <c r="I17" s="52">
+        <v/>
+      </c>
+      <c r="I17" s="52" t="str">
         <f>IF(A17&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A17-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J17" s="52" t="str">
         <f>IF(A17&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A17-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A17-1)))</f>
         <v/>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="53" t="str">
         <f>IF(A17&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A17-1))</f>
-        <v>1793750</v>
+        <v/>
       </c>
       <c r="L17" s="36"/>
     </row>
@@ -41432,39 +41839,39 @@
       <c r="A18" s="45">
         <v>8</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="46" t="str">
         <f>IF(A18&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A18-1))</f>
-        <v>144</v>
+        <v/>
       </c>
       <c r="C18" s="46" t="str">
         <f>IF(A18&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A18-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D18" s="47">
+        <v/>
+      </c>
+      <c r="D18" s="47" t="str">
         <f>IF(A18&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A18-1)="","",INDEX(Table1[C],newestIdRow-offset+A18-1)))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E18" s="48" t="str">
         <f>IF(A18&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A18-1))</f>
-        <v>CORRECTION FLUID JOYKO JK-101</v>
+        <v/>
       </c>
       <c r="F18" s="49"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="51">
+      <c r="H18" s="51" t="str">
         <f>IF(A18&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A18-1))</f>
-        <v>36000</v>
-      </c>
-      <c r="I18" s="52">
+        <v/>
+      </c>
+      <c r="I18" s="52" t="str">
         <f>IF(A18&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A18-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J18" s="52" t="str">
         <f>IF(A18&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A18-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A18-1)))</f>
         <v/>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="53" t="str">
         <f>IF(A18&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A18-1))</f>
-        <v>4536000</v>
+        <v/>
       </c>
       <c r="L18" s="36"/>
     </row>
@@ -41472,39 +41879,39 @@
       <c r="A19" s="45">
         <v>9</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="46" t="str">
         <f>IF(A19&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A19-1))</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C19" s="46" t="str">
         <f>IF(A19&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A19-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D19" s="47">
+        <v/>
+      </c>
+      <c r="D19" s="47" t="str">
         <f>IF(A19&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A19-1)="","",INDEX(Table1[C],newestIdRow-offset+A19-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E19" s="48" t="str">
         <f>IF(A19&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A19-1))</f>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v/>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="51">
+      <c r="H19" s="51" t="str">
         <f>IF(A19&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A19-1))</f>
-        <v>47100</v>
-      </c>
-      <c r="I19" s="52">
+        <v/>
+      </c>
+      <c r="I19" s="52" t="str">
         <f>IF(A19&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A19-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J19" s="52" t="str">
         <f>IF(A19&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A19-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A19-1)))</f>
         <v/>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="53" t="str">
         <f>IF(A19&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A19-1))</f>
-        <v>2967300</v>
+        <v/>
       </c>
       <c r="L19" s="36"/>
     </row>
@@ -41512,39 +41919,39 @@
       <c r="A20" s="45">
         <v>10</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="46" t="str">
         <f>IF(A20&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A20-1))</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C20" s="46" t="str">
         <f>IF(A20&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A20-1))</f>
-        <v>LSN</v>
-      </c>
-      <c r="D20" s="47">
+        <v/>
+      </c>
+      <c r="D20" s="47" t="str">
         <f>IF(A20&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A20-1)="","",INDEX(Table1[C],newestIdRow-offset+A20-1)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E20" s="48" t="str">
         <f>IF(A20&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A20-1))</f>
-        <v>CORRECTION FLUID KENKO KE-01</v>
+        <v/>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="51">
+      <c r="H20" s="51" t="str">
         <f>IF(A20&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A20-1))</f>
-        <v>54300</v>
-      </c>
-      <c r="I20" s="52">
+        <v/>
+      </c>
+      <c r="I20" s="52" t="str">
         <f>IF(A20&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A20-1))</f>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J20" s="52" t="str">
         <f>IF(A20&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A20-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A20-1)))</f>
         <v/>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="53" t="str">
         <f>IF(A20&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A20-1))</f>
-        <v>3420900</v>
+        <v/>
       </c>
       <c r="L20" s="36"/>
     </row>
@@ -41825,7 +42232,7 @@
       </c>
       <c r="J29" s="293">
         <f>INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>48816950</v>
+        <v>2538720</v>
       </c>
       <c r="K29" s="294"/>
       <c r="L29" s="36"/>
@@ -41878,7 +42285,7 @@
       </c>
       <c r="J33" s="293">
         <f>INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>4837715.7657657648</v>
+        <v>251584.86486486488</v>
       </c>
       <c r="K33" s="294"/>
       <c r="L33" s="73"/>
@@ -41904,7 +42311,7 @@
       <c r="J35" s="76"/>
       <c r="K35" s="77">
         <f>INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>48816950</v>
+        <v>2538720</v>
       </c>
       <c r="L35" s="73"/>
     </row>
@@ -41988,7 +42395,7 @@
       </c>
       <c r="E41" s="209">
         <f>E3</f>
-        <v>23020015</v>
+        <v>23020017</v>
       </c>
       <c r="F41" s="210"/>
       <c r="G41" s="211" t="s">
@@ -41996,7 +42403,7 @@
       </c>
       <c r="H41" s="310" t="str">
         <f>H3</f>
-        <v>LILY JULIAWATI</v>
+        <v>HARNOYO</v>
       </c>
       <c r="I41" s="310"/>
       <c r="J41" s="310"/>
@@ -42025,16 +42432,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="207"/>
-      <c r="D43" s="315">
+      <c r="D43" s="315" t="str">
         <f>D5</f>
-        <v>44965</v>
+        <v>09/02/203</v>
       </c>
       <c r="E43" s="316"/>
       <c r="F43" s="314"/>
       <c r="G43" s="218"/>
       <c r="H43" s="317" t="str">
         <f>H5</f>
-        <v>(REJO AGUNG)</v>
+        <v>(BENDAN)</v>
       </c>
       <c r="I43" s="317"/>
       <c r="J43" s="317"/>
@@ -42051,7 +42458,7 @@
       <c r="G44" s="218"/>
       <c r="H44" s="319" t="str">
         <f>H6</f>
-        <v>JOMBANG</v>
+        <v>PEKALONGAN</v>
       </c>
       <c r="I44" s="319"/>
       <c r="J44" s="319"/>
@@ -42066,7 +42473,7 @@
       <c r="C45" s="207"/>
       <c r="D45" s="221" t="str">
         <f>D7</f>
-        <v>G 0877</v>
+        <v>KO 0910</v>
       </c>
       <c r="E45" s="209"/>
       <c r="F45" s="222"/>
@@ -42141,7 +42548,7 @@
       </c>
       <c r="B49" s="248">
         <f>B11</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C49" s="249" t="str">
         <f>C11</f>
@@ -42153,17 +42560,17 @@
       </c>
       <c r="E49" s="251" t="str">
         <f>E11</f>
-        <v>JANGKA (MATH SET) JOYKO MS-55</v>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
       </c>
       <c r="F49" s="252"/>
       <c r="G49" s="253"/>
       <c r="H49" s="254">
         <f>H11</f>
-        <v>88200</v>
+        <v>147600</v>
       </c>
       <c r="I49" s="255">
         <f>I11</f>
-        <v>0.125</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J49" s="255" t="str">
         <f>J11</f>
@@ -42171,7 +42578,7 @@
       </c>
       <c r="K49" s="256">
         <f>K11</f>
-        <v>1852200</v>
+        <v>2538720</v>
       </c>
       <c r="L49" s="238"/>
     </row>
@@ -42179,39 +42586,39 @@
       <c r="A50" s="247">
         <v>2</v>
       </c>
-      <c r="B50" s="248">
+      <c r="B50" s="248" t="str">
         <f t="shared" ref="B50:E50" si="0">B12</f>
-        <v>720</v>
+        <v/>
       </c>
       <c r="C50" s="249" t="str">
         <f t="shared" si="0"/>
-        <v>PCS</v>
-      </c>
-      <c r="D50" s="250">
+        <v/>
+      </c>
+      <c r="D50" s="250" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E50" s="251" t="str">
         <f t="shared" si="0"/>
-        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
+        <v/>
       </c>
       <c r="F50" s="252"/>
       <c r="G50" s="253"/>
-      <c r="H50" s="254">
+      <c r="H50" s="254" t="str">
         <f t="shared" ref="H50:K50" si="1">H12</f>
-        <v>3700</v>
-      </c>
-      <c r="I50" s="255">
+        <v/>
+      </c>
+      <c r="I50" s="255" t="str">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J50" s="255" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="256">
+      <c r="K50" s="256" t="str">
         <f t="shared" si="1"/>
-        <v>2331000</v>
+        <v/>
       </c>
       <c r="L50" s="238"/>
     </row>
@@ -42219,39 +42626,39 @@
       <c r="A51" s="247">
         <v>3</v>
       </c>
-      <c r="B51" s="248">
+      <c r="B51" s="248" t="str">
         <f t="shared" ref="B51:E51" si="2">B13</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="C51" s="249" t="str">
         <f t="shared" si="2"/>
-        <v>GRS</v>
-      </c>
-      <c r="D51" s="250">
+        <v/>
+      </c>
+      <c r="D51" s="250" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E51" s="251" t="str">
         <f t="shared" si="2"/>
-        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
+        <v/>
       </c>
       <c r="F51" s="252"/>
       <c r="G51" s="253"/>
-      <c r="H51" s="254">
+      <c r="H51" s="254" t="str">
         <f t="shared" ref="H51:K51" si="3">H13</f>
-        <v>176400</v>
-      </c>
-      <c r="I51" s="255">
+        <v/>
+      </c>
+      <c r="I51" s="255" t="str">
         <f t="shared" si="3"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J51" s="255" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K51" s="256">
+      <c r="K51" s="256" t="str">
         <f t="shared" si="3"/>
-        <v>1852200</v>
+        <v/>
       </c>
       <c r="L51" s="238"/>
     </row>
@@ -42259,39 +42666,39 @@
       <c r="A52" s="247">
         <v>4</v>
       </c>
-      <c r="B52" s="248">
+      <c r="B52" s="248" t="str">
         <f t="shared" ref="B52:E52" si="4">B14</f>
-        <v>420</v>
+        <v/>
       </c>
       <c r="C52" s="249" t="str">
         <f t="shared" si="4"/>
-        <v>LSN</v>
-      </c>
-      <c r="D52" s="250">
+        <v/>
+      </c>
+      <c r="D52" s="250" t="str">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="E52" s="251" t="str">
         <f t="shared" si="4"/>
-        <v>CORRECTION TAPE JOYKO CT-522</v>
+        <v/>
       </c>
       <c r="F52" s="252"/>
       <c r="G52" s="253"/>
-      <c r="H52" s="254">
+      <c r="H52" s="254" t="str">
         <f t="shared" ref="H52:K52" si="5">H14</f>
-        <v>57600</v>
-      </c>
-      <c r="I52" s="255">
+        <v/>
+      </c>
+      <c r="I52" s="255" t="str">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J52" s="255" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K52" s="256">
+      <c r="K52" s="256" t="str">
         <f t="shared" si="5"/>
-        <v>21168000</v>
+        <v/>
       </c>
       <c r="L52" s="238"/>
     </row>
@@ -42299,39 +42706,39 @@
       <c r="A53" s="247">
         <v>5</v>
       </c>
-      <c r="B53" s="248">
+      <c r="B53" s="248" t="str">
         <f t="shared" ref="B53:E53" si="6">B15</f>
-        <v>288</v>
+        <v/>
       </c>
       <c r="C53" s="249" t="str">
         <f t="shared" si="6"/>
-        <v>PCS</v>
-      </c>
-      <c r="D53" s="250">
+        <v/>
+      </c>
+      <c r="D53" s="250" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="E53" s="251" t="str">
         <f t="shared" si="6"/>
-        <v>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC) MIX</v>
+        <v/>
       </c>
       <c r="F53" s="252"/>
       <c r="G53" s="253"/>
-      <c r="H53" s="254">
+      <c r="H53" s="254" t="str">
         <f t="shared" ref="H53:K53" si="7">H15</f>
-        <v>15800</v>
-      </c>
-      <c r="I53" s="255">
+        <v/>
+      </c>
+      <c r="I53" s="255" t="str">
         <f t="shared" si="7"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J53" s="255" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K53" s="256">
+      <c r="K53" s="256" t="str">
         <f t="shared" si="7"/>
-        <v>3981600</v>
+        <v/>
       </c>
       <c r="L53" s="238"/>
     </row>
@@ -42339,39 +42746,39 @@
       <c r="A54" s="247">
         <v>6</v>
       </c>
-      <c r="B54" s="248">
+      <c r="B54" s="248" t="str">
         <f t="shared" ref="B54:E54" si="8">B16</f>
-        <v>144</v>
+        <v/>
       </c>
       <c r="C54" s="249" t="str">
         <f t="shared" si="8"/>
-        <v>LSN</v>
-      </c>
-      <c r="D54" s="250">
+        <v/>
+      </c>
+      <c r="D54" s="250" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E54" s="251" t="str">
         <f t="shared" si="8"/>
-        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
+        <v/>
       </c>
       <c r="F54" s="252"/>
       <c r="G54" s="253"/>
-      <c r="H54" s="254">
+      <c r="H54" s="254" t="str">
         <f t="shared" ref="H54:K54" si="9">H16</f>
-        <v>39000</v>
-      </c>
-      <c r="I54" s="255">
+        <v/>
+      </c>
+      <c r="I54" s="255" t="str">
         <f t="shared" si="9"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J54" s="255" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K54" s="256">
+      <c r="K54" s="256" t="str">
         <f t="shared" si="9"/>
-        <v>4914000</v>
+        <v/>
       </c>
       <c r="L54" s="238"/>
     </row>
@@ -42379,39 +42786,39 @@
       <c r="A55" s="247">
         <v>7</v>
       </c>
-      <c r="B55" s="248">
+      <c r="B55" s="248" t="str">
         <f t="shared" ref="B55:E55" si="10">B17</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="C55" s="249" t="str">
         <f t="shared" si="10"/>
-        <v>SLOP</v>
-      </c>
-      <c r="D55" s="250">
+        <v/>
+      </c>
+      <c r="D55" s="250" t="str">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E55" s="251" t="str">
         <f t="shared" si="10"/>
-        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+        <v/>
       </c>
       <c r="F55" s="252"/>
       <c r="G55" s="253"/>
-      <c r="H55" s="254">
+      <c r="H55" s="254" t="str">
         <f t="shared" ref="H55:K55" si="11">H17</f>
-        <v>20500</v>
-      </c>
-      <c r="I55" s="255">
+        <v/>
+      </c>
+      <c r="I55" s="255" t="str">
         <f t="shared" si="11"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J55" s="255" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K55" s="256">
+      <c r="K55" s="256" t="str">
         <f t="shared" si="11"/>
-        <v>1793750</v>
+        <v/>
       </c>
       <c r="L55" s="238"/>
     </row>
@@ -42419,39 +42826,39 @@
       <c r="A56" s="247">
         <v>8</v>
       </c>
-      <c r="B56" s="248">
+      <c r="B56" s="248" t="str">
         <f t="shared" ref="B56:E56" si="12">B18</f>
-        <v>144</v>
+        <v/>
       </c>
       <c r="C56" s="249" t="str">
         <f t="shared" si="12"/>
-        <v>LSN</v>
-      </c>
-      <c r="D56" s="250">
+        <v/>
+      </c>
+      <c r="D56" s="250" t="str">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E56" s="251" t="str">
         <f t="shared" si="12"/>
-        <v>CORRECTION FLUID JOYKO JK-101</v>
+        <v/>
       </c>
       <c r="F56" s="252"/>
       <c r="G56" s="253"/>
-      <c r="H56" s="254">
+      <c r="H56" s="254" t="str">
         <f t="shared" ref="H56:K56" si="13">H18</f>
-        <v>36000</v>
-      </c>
-      <c r="I56" s="255">
+        <v/>
+      </c>
+      <c r="I56" s="255" t="str">
         <f t="shared" si="13"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J56" s="255" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K56" s="256">
+      <c r="K56" s="256" t="str">
         <f t="shared" si="13"/>
-        <v>4536000</v>
+        <v/>
       </c>
       <c r="L56" s="238"/>
     </row>
@@ -42459,39 +42866,39 @@
       <c r="A57" s="247">
         <v>9</v>
       </c>
-      <c r="B57" s="248">
+      <c r="B57" s="248" t="str">
         <f t="shared" ref="B57:E57" si="14">B19</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C57" s="249" t="str">
         <f t="shared" si="14"/>
-        <v>LSN</v>
-      </c>
-      <c r="D57" s="250">
+        <v/>
+      </c>
+      <c r="D57" s="250" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E57" s="251" t="str">
         <f t="shared" si="14"/>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v/>
       </c>
       <c r="F57" s="252"/>
       <c r="G57" s="253"/>
-      <c r="H57" s="254">
+      <c r="H57" s="254" t="str">
         <f t="shared" ref="H57:K57" si="15">H19</f>
-        <v>47100</v>
-      </c>
-      <c r="I57" s="255">
+        <v/>
+      </c>
+      <c r="I57" s="255" t="str">
         <f t="shared" si="15"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J57" s="255" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K57" s="256">
+      <c r="K57" s="256" t="str">
         <f t="shared" si="15"/>
-        <v>2967300</v>
+        <v/>
       </c>
       <c r="L57" s="238"/>
     </row>
@@ -42499,39 +42906,39 @@
       <c r="A58" s="247">
         <v>10</v>
       </c>
-      <c r="B58" s="248">
+      <c r="B58" s="248" t="str">
         <f t="shared" ref="B58:E58" si="16">B20</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C58" s="249" t="str">
         <f t="shared" si="16"/>
-        <v>LSN</v>
-      </c>
-      <c r="D58" s="250">
+        <v/>
+      </c>
+      <c r="D58" s="250" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E58" s="251" t="str">
         <f t="shared" si="16"/>
-        <v>CORRECTION FLUID KENKO KE-01</v>
+        <v/>
       </c>
       <c r="F58" s="252"/>
       <c r="G58" s="253"/>
-      <c r="H58" s="254">
+      <c r="H58" s="254" t="str">
         <f t="shared" ref="H58:K58" si="17">H20</f>
-        <v>54300</v>
-      </c>
-      <c r="I58" s="255">
+        <v/>
+      </c>
+      <c r="I58" s="255" t="str">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J58" s="255" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="K58" s="256">
+      <c r="K58" s="256" t="str">
         <f t="shared" si="17"/>
-        <v>3420900</v>
+        <v/>
       </c>
       <c r="L58" s="238"/>
     </row>
@@ -42817,7 +43224,7 @@
       </c>
       <c r="J67" s="324">
         <f>J29</f>
-        <v>48816950</v>
+        <v>2538720</v>
       </c>
       <c r="K67" s="325"/>
       <c r="L67" s="238"/>
@@ -42890,7 +43297,7 @@
       </c>
       <c r="J71" s="324">
         <f>J33</f>
-        <v>4837715.7657657648</v>
+        <v>251584.86486486488</v>
       </c>
       <c r="K71" s="325"/>
       <c r="L71" s="276"/>
@@ -42924,7 +43331,7 @@
       <c r="J73" s="279"/>
       <c r="K73" s="280">
         <f>K35</f>
-        <v>48816950</v>
+        <v>2538720</v>
       </c>
       <c r="L73" s="276"/>
     </row>
@@ -43021,7 +43428,7 @@
       </c>
       <c r="E79" s="109">
         <f>E41</f>
-        <v>23020015</v>
+        <v>23020017</v>
       </c>
       <c r="F79" s="110"/>
       <c r="G79" s="111" t="s">
@@ -43029,7 +43436,7 @@
       </c>
       <c r="H79" s="329" t="str">
         <f>H41</f>
-        <v>LILY JULIAWATI</v>
+        <v>HARNOYO</v>
       </c>
       <c r="I79" s="329"/>
       <c r="J79" s="329"/>
@@ -43058,16 +43465,16 @@
         <v>2</v>
       </c>
       <c r="C81" s="107"/>
-      <c r="D81" s="334">
+      <c r="D81" s="334" t="str">
         <f>D43</f>
-        <v>44965</v>
+        <v>09/02/203</v>
       </c>
       <c r="E81" s="335"/>
       <c r="F81" s="333"/>
       <c r="G81" s="118"/>
       <c r="H81" s="336" t="str">
         <f>H43</f>
-        <v>(REJO AGUNG)</v>
+        <v>(BENDAN)</v>
       </c>
       <c r="I81" s="336"/>
       <c r="J81" s="336"/>
@@ -43084,7 +43491,7 @@
       <c r="G82" s="118"/>
       <c r="H82" s="338" t="str">
         <f>H44</f>
-        <v>JOMBANG</v>
+        <v>PEKALONGAN</v>
       </c>
       <c r="I82" s="338"/>
       <c r="J82" s="338"/>
@@ -43099,7 +43506,7 @@
       <c r="C83" s="107"/>
       <c r="D83" s="121" t="str">
         <f>D45</f>
-        <v>G 0877</v>
+        <v>KO 0910</v>
       </c>
       <c r="E83" s="109"/>
       <c r="F83" s="122"/>
@@ -43174,7 +43581,7 @@
       </c>
       <c r="B87" s="148">
         <f>B49</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C87" s="149" t="str">
         <f>C49</f>
@@ -43186,17 +43593,17 @@
       </c>
       <c r="E87" s="151" t="str">
         <f>E49</f>
-        <v>JANGKA (MATH SET) JOYKO MS-55</v>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
       </c>
       <c r="F87" s="152"/>
       <c r="G87" s="153"/>
       <c r="H87" s="154">
         <f>H49</f>
-        <v>88200</v>
+        <v>147600</v>
       </c>
       <c r="I87" s="155">
         <f>I49</f>
-        <v>0.125</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J87" s="155" t="str">
         <f>J49</f>
@@ -43204,7 +43611,7 @@
       </c>
       <c r="K87" s="156">
         <f>K49</f>
-        <v>1852200</v>
+        <v>2538720</v>
       </c>
       <c r="L87" s="138"/>
     </row>
@@ -43212,39 +43619,39 @@
       <c r="A88" s="147">
         <v>2</v>
       </c>
-      <c r="B88" s="148">
+      <c r="B88" s="148" t="str">
         <f t="shared" ref="B88:E88" si="30">B50</f>
-        <v>720</v>
+        <v/>
       </c>
       <c r="C88" s="149" t="str">
         <f t="shared" si="30"/>
-        <v>PCS</v>
-      </c>
-      <c r="D88" s="150">
+        <v/>
+      </c>
+      <c r="D88" s="150" t="str">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E88" s="151" t="str">
         <f t="shared" si="30"/>
-        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
+        <v/>
       </c>
       <c r="F88" s="152"/>
       <c r="G88" s="153"/>
-      <c r="H88" s="154">
+      <c r="H88" s="154" t="str">
         <f t="shared" ref="H88:K88" si="31">H50</f>
-        <v>3700</v>
-      </c>
-      <c r="I88" s="155">
+        <v/>
+      </c>
+      <c r="I88" s="155" t="str">
         <f t="shared" si="31"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J88" s="155" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K88" s="156">
+      <c r="K88" s="156" t="str">
         <f t="shared" si="31"/>
-        <v>2331000</v>
+        <v/>
       </c>
       <c r="L88" s="138"/>
     </row>
@@ -43252,39 +43659,39 @@
       <c r="A89" s="147">
         <v>3</v>
       </c>
-      <c r="B89" s="148">
+      <c r="B89" s="148" t="str">
         <f t="shared" ref="B89:E89" si="32">B51</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="C89" s="149" t="str">
         <f t="shared" si="32"/>
-        <v>GRS</v>
-      </c>
-      <c r="D89" s="150">
+        <v/>
+      </c>
+      <c r="D89" s="150" t="str">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E89" s="151" t="str">
         <f t="shared" si="32"/>
-        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
+        <v/>
       </c>
       <c r="F89" s="152"/>
       <c r="G89" s="153"/>
-      <c r="H89" s="154">
+      <c r="H89" s="154" t="str">
         <f t="shared" ref="H89:K89" si="33">H51</f>
-        <v>176400</v>
-      </c>
-      <c r="I89" s="155">
+        <v/>
+      </c>
+      <c r="I89" s="155" t="str">
         <f t="shared" si="33"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J89" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K89" s="156">
+      <c r="K89" s="156" t="str">
         <f t="shared" si="33"/>
-        <v>1852200</v>
+        <v/>
       </c>
       <c r="L89" s="138"/>
     </row>
@@ -43292,39 +43699,39 @@
       <c r="A90" s="147">
         <v>4</v>
       </c>
-      <c r="B90" s="148">
+      <c r="B90" s="148" t="str">
         <f t="shared" ref="B90:E90" si="34">B52</f>
-        <v>420</v>
+        <v/>
       </c>
       <c r="C90" s="149" t="str">
         <f t="shared" si="34"/>
-        <v>LSN</v>
-      </c>
-      <c r="D90" s="150">
+        <v/>
+      </c>
+      <c r="D90" s="150" t="str">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="E90" s="151" t="str">
         <f t="shared" si="34"/>
-        <v>CORRECTION TAPE JOYKO CT-522</v>
+        <v/>
       </c>
       <c r="F90" s="152"/>
       <c r="G90" s="153"/>
-      <c r="H90" s="154">
+      <c r="H90" s="154" t="str">
         <f t="shared" ref="H90:K90" si="35">H52</f>
-        <v>57600</v>
-      </c>
-      <c r="I90" s="155">
+        <v/>
+      </c>
+      <c r="I90" s="155" t="str">
         <f t="shared" si="35"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J90" s="155" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K90" s="156">
+      <c r="K90" s="156" t="str">
         <f t="shared" si="35"/>
-        <v>21168000</v>
+        <v/>
       </c>
       <c r="L90" s="138"/>
     </row>
@@ -43332,39 +43739,39 @@
       <c r="A91" s="147">
         <v>5</v>
       </c>
-      <c r="B91" s="148">
+      <c r="B91" s="148" t="str">
         <f t="shared" ref="B91:E91" si="36">B53</f>
-        <v>288</v>
+        <v/>
       </c>
       <c r="C91" s="149" t="str">
         <f t="shared" si="36"/>
-        <v>PCS</v>
-      </c>
-      <c r="D91" s="150">
+        <v/>
+      </c>
+      <c r="D91" s="150" t="str">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="E91" s="151" t="str">
         <f t="shared" si="36"/>
-        <v>BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC) MIX</v>
+        <v/>
       </c>
       <c r="F91" s="152"/>
       <c r="G91" s="153"/>
-      <c r="H91" s="154">
+      <c r="H91" s="154" t="str">
         <f t="shared" ref="H91:K91" si="37">H53</f>
-        <v>15800</v>
-      </c>
-      <c r="I91" s="155">
+        <v/>
+      </c>
+      <c r="I91" s="155" t="str">
         <f t="shared" si="37"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J91" s="155" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K91" s="156">
+      <c r="K91" s="156" t="str">
         <f t="shared" si="37"/>
-        <v>3981600</v>
+        <v/>
       </c>
       <c r="L91" s="138"/>
     </row>
@@ -43372,39 +43779,39 @@
       <c r="A92" s="147">
         <v>6</v>
       </c>
-      <c r="B92" s="148">
+      <c r="B92" s="148" t="str">
         <f t="shared" ref="B92:E92" si="38">B54</f>
-        <v>144</v>
+        <v/>
       </c>
       <c r="C92" s="149" t="str">
         <f t="shared" si="38"/>
-        <v>LSN</v>
-      </c>
-      <c r="D92" s="150">
+        <v/>
+      </c>
+      <c r="D92" s="150" t="str">
         <f t="shared" si="38"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E92" s="151" t="str">
         <f t="shared" si="38"/>
-        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
+        <v/>
       </c>
       <c r="F92" s="152"/>
       <c r="G92" s="153"/>
-      <c r="H92" s="154">
+      <c r="H92" s="154" t="str">
         <f t="shared" ref="H92:K92" si="39">H54</f>
-        <v>39000</v>
-      </c>
-      <c r="I92" s="155">
+        <v/>
+      </c>
+      <c r="I92" s="155" t="str">
         <f t="shared" si="39"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J92" s="155" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K92" s="156">
+      <c r="K92" s="156" t="str">
         <f t="shared" si="39"/>
-        <v>4914000</v>
+        <v/>
       </c>
       <c r="L92" s="138"/>
     </row>
@@ -43412,39 +43819,39 @@
       <c r="A93" s="147">
         <v>7</v>
       </c>
-      <c r="B93" s="148">
+      <c r="B93" s="148" t="str">
         <f t="shared" ref="B93:E93" si="40">B55</f>
-        <v>100</v>
+        <v/>
       </c>
       <c r="C93" s="149" t="str">
         <f t="shared" si="40"/>
-        <v>SLOP</v>
-      </c>
-      <c r="D93" s="150">
+        <v/>
+      </c>
+      <c r="D93" s="150" t="str">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E93" s="151" t="str">
         <f t="shared" si="40"/>
-        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+        <v/>
       </c>
       <c r="F93" s="152"/>
       <c r="G93" s="153"/>
-      <c r="H93" s="154">
+      <c r="H93" s="154" t="str">
         <f t="shared" ref="H93:K93" si="41">H55</f>
-        <v>20500</v>
-      </c>
-      <c r="I93" s="155">
+        <v/>
+      </c>
+      <c r="I93" s="155" t="str">
         <f t="shared" si="41"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J93" s="155" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K93" s="156">
+      <c r="K93" s="156" t="str">
         <f t="shared" si="41"/>
-        <v>1793750</v>
+        <v/>
       </c>
       <c r="L93" s="138"/>
     </row>
@@ -43452,39 +43859,39 @@
       <c r="A94" s="147">
         <v>8</v>
       </c>
-      <c r="B94" s="148">
+      <c r="B94" s="148" t="str">
         <f t="shared" ref="B94:E94" si="42">B56</f>
-        <v>144</v>
+        <v/>
       </c>
       <c r="C94" s="149" t="str">
         <f t="shared" si="42"/>
-        <v>LSN</v>
-      </c>
-      <c r="D94" s="150">
+        <v/>
+      </c>
+      <c r="D94" s="150" t="str">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E94" s="151" t="str">
         <f t="shared" si="42"/>
-        <v>CORRECTION FLUID JOYKO JK-101</v>
+        <v/>
       </c>
       <c r="F94" s="152"/>
       <c r="G94" s="153"/>
-      <c r="H94" s="154">
+      <c r="H94" s="154" t="str">
         <f t="shared" ref="H94:K94" si="43">H56</f>
-        <v>36000</v>
-      </c>
-      <c r="I94" s="155">
+        <v/>
+      </c>
+      <c r="I94" s="155" t="str">
         <f t="shared" si="43"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J94" s="155" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K94" s="156">
+      <c r="K94" s="156" t="str">
         <f t="shared" si="43"/>
-        <v>4536000</v>
+        <v/>
       </c>
       <c r="L94" s="138"/>
     </row>
@@ -43492,39 +43899,39 @@
       <c r="A95" s="147">
         <v>9</v>
       </c>
-      <c r="B95" s="148">
+      <c r="B95" s="148" t="str">
         <f t="shared" ref="B95:E95" si="44">B57</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C95" s="149" t="str">
         <f t="shared" si="44"/>
-        <v>LSN</v>
-      </c>
-      <c r="D95" s="150">
+        <v/>
+      </c>
+      <c r="D95" s="150" t="str">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E95" s="151" t="str">
         <f t="shared" si="44"/>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v/>
       </c>
       <c r="F95" s="152"/>
       <c r="G95" s="153"/>
-      <c r="H95" s="154">
+      <c r="H95" s="154" t="str">
         <f t="shared" ref="H95:K95" si="45">H57</f>
-        <v>47100</v>
-      </c>
-      <c r="I95" s="155">
+        <v/>
+      </c>
+      <c r="I95" s="155" t="str">
         <f t="shared" si="45"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J95" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K95" s="156">
+      <c r="K95" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>2967300</v>
+        <v/>
       </c>
       <c r="L95" s="138"/>
     </row>
@@ -43532,39 +43939,39 @@
       <c r="A96" s="147">
         <v>10</v>
       </c>
-      <c r="B96" s="148">
+      <c r="B96" s="148" t="str">
         <f t="shared" ref="B96:E96" si="46">B58</f>
-        <v>72</v>
+        <v/>
       </c>
       <c r="C96" s="149" t="str">
         <f t="shared" si="46"/>
-        <v>LSN</v>
-      </c>
-      <c r="D96" s="150">
+        <v/>
+      </c>
+      <c r="D96" s="150" t="str">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="E96" s="151" t="str">
         <f t="shared" si="46"/>
-        <v>CORRECTION FLUID KENKO KE-01</v>
+        <v/>
       </c>
       <c r="F96" s="152"/>
       <c r="G96" s="153"/>
-      <c r="H96" s="154">
+      <c r="H96" s="154" t="str">
         <f t="shared" ref="H96:K96" si="47">H58</f>
-        <v>54300</v>
-      </c>
-      <c r="I96" s="155">
+        <v/>
+      </c>
+      <c r="I96" s="155" t="str">
         <f t="shared" si="47"/>
-        <v>0.125</v>
+        <v/>
       </c>
       <c r="J96" s="155" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K96" s="156">
+      <c r="K96" s="156" t="str">
         <f t="shared" si="47"/>
-        <v>3420900</v>
+        <v/>
       </c>
       <c r="L96" s="138"/>
     </row>
@@ -43850,7 +44257,7 @@
       </c>
       <c r="J105" s="343">
         <f>J67</f>
-        <v>48816950</v>
+        <v>2538720</v>
       </c>
       <c r="K105" s="344"/>
       <c r="L105" s="138"/>
@@ -43923,7 +44330,7 @@
       </c>
       <c r="J109" s="343">
         <f>J71</f>
-        <v>4837715.7657657648</v>
+        <v>251584.86486486488</v>
       </c>
       <c r="K109" s="344"/>
       <c r="L109" s="176"/>
@@ -43957,7 +44364,7 @@
       <c r="J111" s="179"/>
       <c r="K111" s="180">
         <f>K73</f>
-        <v>48816950</v>
+        <v>2538720</v>
       </c>
       <c r="L111" s="176"/>
     </row>
@@ -44082,8 +44489,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44558,21 +44965,21 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
       <c r="E10" s="194">
         <f>MATCH(A10,Table1[H_A1],0)</f>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F10" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G10" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>CORRECTION FLUID KENKO KE-108</v>
+        <v>CORRECTION FLUID KENKO KE-107M</v>
       </c>
       <c r="H10">
         <f>SUMIF(Table1[H_A1],Sheet5!A10,Table1[Qty])</f>
@@ -44588,7 +44995,7 @@
       </c>
       <c r="K10" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>47100</v>
+        <v>55800</v>
       </c>
       <c r="L10" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -44610,25 +45017,25 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
       <c r="E11" s="194">
         <f>MATCH(A11,Table1[H_A1],0)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F11" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>521</v>
+        <v>1103</v>
       </c>
       <c r="G11" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>CORRECTION TAPE JOYKO CT-522</v>
+        <v>CORRECTION FLUID KENKO KE-108</v>
       </c>
       <c r="H11">
         <f>SUMIF(Table1[H_A1],Sheet5!A11,Table1[Qty])</f>
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="I11" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -44636,15 +45043,15 @@
       </c>
       <c r="J11" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A11,Table1[C])</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K11" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>57600</v>
+        <v>47100</v>
       </c>
       <c r="L11" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>5040</v>
+        <v>864</v>
       </c>
       <c r="M11" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -44662,45 +45069,45 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
       <c r="E12" s="194">
         <f>MATCH(A12,Table1[H_A1],0)</f>
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F12" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1558</v>
+        <v>1104</v>
       </c>
       <c r="G12" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>CRAYON / OIL PASTEL JOYKO OP-12CR ROUND (MINI)</v>
+        <v>CORRECTION FLUID KENKO KE-301</v>
       </c>
       <c r="H12">
         <f>SUMIF(Table1[H_A1],Sheet5!A12,Table1[Qty])</f>
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="I12" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J12" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A12,Table1[C])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>9000</v>
-      </c>
-      <c r="L12" s="86" t="str">
+        <v>53400</v>
+      </c>
+      <c r="L12" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>864</v>
       </c>
       <c r="M12" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N12" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -44714,45 +45121,45 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="88" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="B13" s="88"/>
       <c r="C13" s="88"/>
       <c r="E13" s="194">
         <f>MATCH(A13,Table1[H_A1],0)</f>
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F13" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="G13" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>CRAYON / OIL PASTEL PUTAR JOYKO TWCR-12MINI (PENDEK)</v>
+        <v>CORRECTION TAPE JOYKO CT-522</v>
       </c>
       <c r="H13">
         <f>SUMIF(Table1[H_A1],Sheet5!A13,Table1[Qty])</f>
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="I13" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J13" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A13,Table1[C])</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K13" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>18600</v>
-      </c>
-      <c r="L13" s="86" t="str">
+        <v>57600</v>
+      </c>
+      <c r="L13" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>5040</v>
       </c>
       <c r="M13" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N13" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -44766,45 +45173,45 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B14" s="88"/>
       <c r="C14" s="88"/>
       <c r="E14" s="194">
         <f>MATCH(A14,Table1[H_A1],0)</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F14" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1136</v>
+        <v>1558</v>
       </c>
       <c r="G14" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>DATE STAMP KENKO D-3 (Cap Tanggal 5 Mm)</v>
+        <v>CRAYON / OIL PASTEL JOYKO OP-12CR ROUND (MINI)</v>
       </c>
       <c r="H14">
         <f>SUMIF(Table1[H_A1],Sheet5!A14,Table1[Qty])</f>
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="I14" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J14" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A14,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>77400</v>
-      </c>
-      <c r="L14" s="86">
+        <v>9000</v>
+      </c>
+      <c r="L14" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="M14" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N14" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -44818,45 +45225,45 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="88"/>
       <c r="C15" s="88"/>
       <c r="E15" s="194">
         <f>MATCH(A15,Table1[H_A1],0)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1137</v>
+        <v>551</v>
       </c>
       <c r="G15" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>DATE STAMP KENKO D-4 (Cap Tanggal 4 Mm)</v>
+        <v>CRAYON / OIL PASTEL PUTAR JOYKO TWCR-12MINI (PENDEK)</v>
       </c>
       <c r="H15">
         <f>SUMIF(Table1[H_A1],Sheet5!A15,Table1[Qty])</f>
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="I15" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J15" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A15,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>74400</v>
-      </c>
-      <c r="L15" s="86">
+        <v>18600</v>
+      </c>
+      <c r="L15" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="M15" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N15" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -44870,45 +45277,45 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
       <c r="E16" s="194">
         <f>MATCH(A16,Table1[H_A1],0)</f>
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F16" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G16" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>DESK SET KENKO K-8312 ORGANIZER</v>
+        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
       </c>
       <c r="H16">
         <f>SUMIF(Table1[H_A1],Sheet5!A16,Table1[Qty])</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I16" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J16" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A16,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>29000</v>
-      </c>
-      <c r="L16" s="86" t="str">
+        <v>147600</v>
+      </c>
+      <c r="L16" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>240</v>
       </c>
       <c r="M16" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N16" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -44922,25 +45329,25 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="88" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
       <c r="E17" s="194">
         <f>MATCH(A17,Table1[H_A1],0)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F17" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1278</v>
+        <v>1136</v>
       </c>
       <c r="G17" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GARISAN BESI (STAINLESS STEEL) KENKO 100 CM / 1 M</v>
+        <v>DATE STAMP KENKO D-3 (Cap Tanggal 5 Mm)</v>
       </c>
       <c r="H17">
         <f>SUMIF(Table1[H_A1],Sheet5!A17,Table1[Qty])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -44952,11 +45359,11 @@
       </c>
       <c r="K17" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>522000</v>
+        <v>77400</v>
       </c>
       <c r="L17" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M17" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -44974,25 +45381,25 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
       <c r="E18" s="194">
         <f>MATCH(A18,Table1[H_A1],0)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F18" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="G18" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
+        <v>DATE STAMP KENKO D-4 (Cap Tanggal 4 Mm)</v>
       </c>
       <c r="H18">
         <f>SUMIF(Table1[H_A1],Sheet5!A18,Table1[Qty])</f>
-        <v>1296</v>
+        <v>10</v>
       </c>
       <c r="I18" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45000,15 +45407,15 @@
       </c>
       <c r="J18" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A18,Table1[C])</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K18" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>39000</v>
+        <v>74400</v>
       </c>
       <c r="L18" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>15552</v>
+        <v>120</v>
       </c>
       <c r="M18" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45026,29 +45433,29 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="88" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="E19" s="194">
         <f>MATCH(A19,Table1[H_A1],0)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F19" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1164</v>
+        <v>1138</v>
       </c>
       <c r="G19" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GEL PEN KENKO K-1 HITAM</v>
+        <v>DESK SET KENKO K-8312 ORGANIZER</v>
       </c>
       <c r="H19">
         <f>SUMIF(Table1[H_A1],Sheet5!A19,Table1[Qty])</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I19" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J19" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A19,Table1[C])</f>
@@ -45056,15 +45463,15 @@
       </c>
       <c r="K19" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>39600</v>
-      </c>
-      <c r="L19" s="86">
+        <v>29000</v>
+      </c>
+      <c r="L19" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>96</v>
+        <v/>
       </c>
       <c r="M19" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N19" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45078,25 +45485,25 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="B20" s="88"/>
       <c r="C20" s="88"/>
       <c r="E20" s="194">
         <f>MATCH(A20,Table1[H_A1],0)</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F20" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1921</v>
+        <v>1278</v>
       </c>
       <c r="G20" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GUNTING JOYKO SC-828 SG</v>
+        <v>GARISAN BESI (STAINLESS STEEL) KENKO 100 CM / 1 M</v>
       </c>
       <c r="H20">
         <f>SUMIF(Table1[H_A1],Sheet5!A20,Table1[Qty])</f>
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="I20" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45104,15 +45511,15 @@
       </c>
       <c r="J20" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A20,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>6100</v>
+        <v>522000</v>
       </c>
       <c r="L20" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>1728</v>
+        <v>36</v>
       </c>
       <c r="M20" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45130,25 +45537,25 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="88" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
       <c r="E21" s="194">
         <f>MATCH(A21,Table1[H_A1],0)</f>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F21" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1923</v>
+        <v>1152</v>
       </c>
       <c r="G21" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GUNTING JOYKO SC-838 SG</v>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
       </c>
       <c r="H21">
         <f>SUMIF(Table1[H_A1],Sheet5!A21,Table1[Qty])</f>
-        <v>144</v>
+        <v>1296</v>
       </c>
       <c r="I21" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45156,15 +45563,15 @@
       </c>
       <c r="J21" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A21,Table1[C])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K21" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>7700</v>
+        <v>39000</v>
       </c>
       <c r="L21" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>1728</v>
+        <v>15552</v>
       </c>
       <c r="M21" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45182,45 +45589,45 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="E22" s="194">
         <f>MATCH(A22,Table1[H_A1],0)</f>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F22" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2151</v>
+        <v>1164</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
+        <v>GEL PEN KENKO K-1 HITAM</v>
       </c>
       <c r="H22">
         <f>SUMIF(Table1[H_A1],Sheet5!A22,Table1[Qty])</f>
-        <v>720</v>
+        <v>8</v>
       </c>
       <c r="I22" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J22" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A22,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>3700</v>
-      </c>
-      <c r="L22" s="86" t="str">
+        <v>39600</v>
+      </c>
+      <c r="L22" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>96</v>
       </c>
       <c r="M22" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N22" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45234,25 +45641,25 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B23" s="88"/>
       <c r="C23" s="88"/>
       <c r="E23" s="194">
         <f>MATCH(A23,Table1[H_A1],0)</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F23" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1132</v>
+        <v>1921</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
+        <v>GUNTING JOYKO SC-828 SG</v>
       </c>
       <c r="H23">
         <f>SUMIF(Table1[H_A1],Sheet5!A23,Table1[Qty])</f>
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="I23" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45260,15 +45667,15 @@
       </c>
       <c r="J23" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A23,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>64800</v>
+        <v>6100</v>
       </c>
       <c r="L23" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>120</v>
+        <v>1728</v>
       </c>
       <c r="M23" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45286,29 +45693,29 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
       <c r="E24" s="194">
         <f>MATCH(A24,Table1[H_A1],0)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F24" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1760</v>
+        <v>1923</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
+        <v>GUNTING JOYKO SC-838 SG</v>
       </c>
       <c r="H24">
         <f>SUMIF(Table1[H_A1],Sheet5!A24,Table1[Qty])</f>
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I24" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>GRS</v>
+        <v>LSN</v>
       </c>
       <c r="J24" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A24,Table1[C])</f>
@@ -45316,59 +45723,59 @@
       </c>
       <c r="K24" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>176400</v>
+        <v>7700</v>
       </c>
       <c r="L24" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>144</v>
+        <v>1728</v>
       </c>
       <c r="M24" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>LSN</v>
-      </c>
-      <c r="N24" s="86">
+        <v>PCS</v>
+      </c>
+      <c r="N24" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>1728</v>
+        <v/>
       </c>
       <c r="O24" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="P24" s="86"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="E25" s="194">
         <f>MATCH(A25,Table1[H_A1],0)</f>
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F25" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1302</v>
+        <v>2151</v>
       </c>
       <c r="G25" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)</v>
+        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
       </c>
       <c r="H25">
         <f>SUMIF(Table1[H_A1],Sheet5!A25,Table1[Qty])</f>
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="I25" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>BOX</v>
+        <v>PCS</v>
       </c>
       <c r="J25" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A25,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="L25" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -45390,25 +45797,25 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="B26" s="88"/>
       <c r="C26" s="88"/>
       <c r="E26" s="194">
         <f>MATCH(A26,Table1[H_A1],0)</f>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F26" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1483</v>
+        <v>1132</v>
       </c>
       <c r="G26" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>JANGKA (MATH SET) JOYKO MS-25</v>
+        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
       </c>
       <c r="H26">
         <f>SUMIF(Table1[H_A1],Sheet5!A26,Table1[Qty])</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="I26" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45416,15 +45823,15 @@
       </c>
       <c r="J26" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A26,Table1[C])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>88200</v>
+        <v>64800</v>
       </c>
       <c r="L26" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>576</v>
+        <v>120</v>
       </c>
       <c r="M26" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45442,89 +45849,89 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="B27" s="88"/>
       <c r="C27" s="88"/>
       <c r="E27" s="194">
         <f>MATCH(A27,Table1[H_A1],0)</f>
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F27" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1487</v>
+        <v>1760</v>
       </c>
       <c r="G27" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>JANGKA (MATH SET) JOYKO MS-55</v>
+        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
       </c>
       <c r="H27">
         <f>SUMIF(Table1[H_A1],Sheet5!A27,Table1[Qty])</f>
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I27" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>GRS</v>
       </c>
       <c r="J27" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A27,Table1[C])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>88200</v>
+        <v>176400</v>
       </c>
       <c r="L27" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>924</v>
+        <v>144</v>
       </c>
       <c r="M27" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
-      </c>
-      <c r="N27" s="86" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="N27" s="86">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v/>
+        <v>1728</v>
       </c>
       <c r="O27" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="P27" s="86"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="E28" s="194">
         <f>MATCH(A28,Table1[H_A1],0)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1349</v>
+        <v>1302</v>
       </c>
       <c r="G28" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+        <v>ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)</v>
       </c>
       <c r="H28">
         <f>SUMIF(Table1[H_A1],Sheet5!A28,Table1[Qty])</f>
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="I28" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>BOX</v>
       </c>
       <c r="J28" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A28,Table1[C])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>2050</v>
+        <v>4200</v>
       </c>
       <c r="L28" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -45546,45 +45953,45 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="B29" s="88"/>
       <c r="C29" s="88"/>
       <c r="E29" s="194">
         <f>MATCH(A29,Table1[H_A1],0)</f>
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="F29" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1349</v>
+        <v>1483</v>
       </c>
       <c r="G29" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+        <v>JANGKA (MATH SET) JOYKO MS-25</v>
       </c>
       <c r="H29">
         <f>SUMIF(Table1[H_A1],Sheet5!A29,Table1[Qty])</f>
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="I29" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>SLOP</v>
+        <v>LSN</v>
       </c>
       <c r="J29" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A29,Table1[C])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>20500</v>
-      </c>
-      <c r="L29" s="86" t="str">
+        <v>88200</v>
+      </c>
+      <c r="L29" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>576</v>
       </c>
       <c r="M29" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N29" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45598,25 +46005,25 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
       <c r="E30" s="194">
         <f>MATCH(A30,Table1[H_A1],0)</f>
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F30" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1212</v>
+        <v>1487</v>
       </c>
       <c r="G30" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LEM CAIR 35 ML KENKO LG-35</v>
+        <v>JANGKA (MATH SET) JOYKO MS-55</v>
       </c>
       <c r="H30">
         <f>SUMIF(Table1[H_A1],Sheet5!A30,Table1[Qty])</f>
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="I30" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45624,15 +46031,15 @@
       </c>
       <c r="J30" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A30,Table1[C])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>19800</v>
+        <v>88200</v>
       </c>
       <c r="L30" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>480</v>
+        <v>924</v>
       </c>
       <c r="M30" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45650,25 +46057,25 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="88"/>
       <c r="C31" s="88"/>
       <c r="E31" s="194">
         <f>MATCH(A31,Table1[H_A1],0)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F31" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1256</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>MESIN LABEL HARGA KENKO MX-5500 (8 DIGITS, 1 LINE)</v>
+        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
       </c>
       <c r="H31">
         <f>SUMIF(Table1[H_A1],Sheet5!A31,Table1[Qty])</f>
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="I31" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45676,11 +46083,11 @@
       </c>
       <c r="J31" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A31,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>45000</v>
+        <v>2050</v>
       </c>
       <c r="L31" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -45702,29 +46109,29 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
       <c r="E32" s="194">
         <f>MATCH(A32,Table1[H_A1],0)</f>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F32" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1625</v>
+        <v>1349</v>
       </c>
       <c r="G32" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PAPER CLIP WARNA JOYKO C-3100</v>
+        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
       </c>
       <c r="H32">
         <f>SUMIF(Table1[H_A1],Sheet5!A32,Table1[Qty])</f>
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I32" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>SLOP</v>
       </c>
       <c r="J32" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A32,Table1[C])</f>
@@ -45732,15 +46139,15 @@
       </c>
       <c r="K32" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>37200</v>
-      </c>
-      <c r="L32" s="86">
+        <v>20500</v>
+      </c>
+      <c r="L32" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>288</v>
+        <v/>
       </c>
       <c r="M32" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N32" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45754,29 +46161,29 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B33" s="88"/>
       <c r="C33" s="88"/>
       <c r="E33" s="194">
         <f>MATCH(A33,Table1[H_A1],0)</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F33" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>487</v>
+        <v>1212</v>
       </c>
       <c r="G33" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+        <v>LEM CAIR 35 ML KENKO LG-35</v>
       </c>
       <c r="H33">
         <f>SUMIF(Table1[H_A1],Sheet5!A33,Table1[Qty])</f>
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="I33" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J33" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A33,Table1[C])</f>
@@ -45784,15 +46191,15 @@
       </c>
       <c r="K33" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>10600</v>
-      </c>
-      <c r="L33" s="86" t="str">
+        <v>19800</v>
+      </c>
+      <c r="L33" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>480</v>
       </c>
       <c r="M33" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N33" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45806,45 +46213,45 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="88" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="B34" s="88"/>
       <c r="C34" s="88"/>
       <c r="E34" s="194">
         <f>MATCH(A34,Table1[H_A1],0)</f>
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F34" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1034</v>
+        <v>1188</v>
       </c>
       <c r="G34" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)</v>
+        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
       </c>
       <c r="H34">
         <f>SUMIF(Table1[H_A1],Sheet5!A34,Table1[Qty])</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I34" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>BOX</v>
       </c>
       <c r="J34" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A34,Table1[C])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>124200</v>
-      </c>
-      <c r="L34" s="86">
+        <v>72000</v>
+      </c>
+      <c r="L34" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>576</v>
+        <v/>
       </c>
       <c r="M34" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N34" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45858,37 +46265,37 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="88" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="B35" s="88"/>
       <c r="C35" s="88"/>
       <c r="E35" s="194">
         <f>MATCH(A35,Table1[H_A1],0)</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F35" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1091</v>
+        <v>1190</v>
       </c>
       <c r="G35" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)</v>
+        <v>LEM STICK KENKO 8 GR (KECIL) isi 30 pc</v>
       </c>
       <c r="H35">
         <f>SUMIF(Table1[H_A1],Sheet5!A35,Table1[Qty])</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I35" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>SET</v>
+        <v>BOX</v>
       </c>
       <c r="J35" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A35,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>6600</v>
+        <v>66000</v>
       </c>
       <c r="L35" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -45910,29 +46317,29 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="88" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="B36" s="88"/>
       <c r="C36" s="88"/>
       <c r="E36" s="194">
         <f>MATCH(A36,Table1[H_A1],0)</f>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F36" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1886</v>
+        <v>1256</v>
       </c>
       <c r="G36" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PUNCH JOYKO 30</v>
+        <v>MESIN LABEL HARGA KENKO MX-5500 (8 DIGITS, 1 LINE)</v>
       </c>
       <c r="H36">
         <f>SUMIF(Table1[H_A1],Sheet5!A36,Table1[Qty])</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I36" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J36" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A36,Table1[C])</f>
@@ -45940,15 +46347,15 @@
       </c>
       <c r="K36" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>139200</v>
-      </c>
-      <c r="L36" s="86">
+        <v>45000</v>
+      </c>
+      <c r="L36" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="M36" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N36" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45962,45 +46369,45 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="88" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B37" s="88"/>
       <c r="C37" s="88"/>
       <c r="E37" s="194">
         <f>MATCH(A37,Table1[H_A1],0)</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F37" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1263</v>
+        <v>1625</v>
       </c>
       <c r="G37" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PUNCH KENKO NO. 85</v>
+        <v>PAPER CLIP WARNA JOYKO C-3100</v>
       </c>
       <c r="H37">
         <f>SUMIF(Table1[H_A1],Sheet5!A37,Table1[Qty])</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I37" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J37" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A37,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>48500</v>
-      </c>
-      <c r="L37" s="86" t="str">
+        <v>37200</v>
+      </c>
+      <c r="L37" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>288</v>
       </c>
       <c r="M37" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N37" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46014,45 +46421,45 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="B38" s="88"/>
       <c r="C38" s="88"/>
       <c r="E38" s="194">
         <f>MATCH(A38,Table1[H_A1],0)</f>
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F38" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1267</v>
+        <v>1210</v>
       </c>
       <c r="G38" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PUSH PIN KENKO PN-30 TRANSPARAN</v>
+        <v>PAPER JUMBO CLIP KENKO NO. 5</v>
       </c>
       <c r="H38">
         <f>SUMIF(Table1[H_A1],Sheet5!A38,Table1[Qty])</f>
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="I38" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J38" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A38,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>33000</v>
-      </c>
-      <c r="L38" s="86">
+        <v>4300</v>
+      </c>
+      <c r="L38" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="M38" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N38" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46066,25 +46473,25 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="E39" s="194">
         <f>MATCH(A39,Table1[H_A1],0)</f>
-        <v>42</v>
-      </c>
-      <c r="F39" s="194" t="e">
+        <v>69</v>
+      </c>
+      <c r="F39" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
+        <v>1313</v>
       </c>
       <c r="G39" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>Stabillo Highlighter JK HL MIX BIRU/ HIJAU</v>
+        <v>PAPER TRIGONAL CLIP KENKO NO. 1</v>
       </c>
       <c r="H39">
         <f>SUMIF(Table1[H_A1],Sheet5!A39,Table1[Qty])</f>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I39" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -46092,11 +46499,11 @@
       </c>
       <c r="J39" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A39,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>3700</v>
+        <v>1700</v>
       </c>
       <c r="L39" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46118,45 +46525,45 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="88" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="B40" s="88"/>
       <c r="C40" s="88"/>
       <c r="E40" s="194">
         <f>MATCH(A40,Table1[H_A1],0)</f>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F40" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1287</v>
+        <v>1312</v>
       </c>
       <c r="G40" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAMP PAD KENKO NO. 0</v>
+        <v>PAPER TRIGONAL CLIP KENKO NO. 3</v>
       </c>
       <c r="H40">
         <f>SUMIF(Table1[H_A1],Sheet5!A40,Table1[Qty])</f>
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="I40" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J40" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A40,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>59400</v>
-      </c>
-      <c r="L40" s="86">
+        <v>1600</v>
+      </c>
+      <c r="L40" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="M40" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N40" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46170,45 +46577,45 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="88" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B41" s="88"/>
       <c r="C41" s="88"/>
       <c r="E41" s="194">
         <f>MATCH(A41,Table1[H_A1],0)</f>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F41" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1285</v>
+        <v>487</v>
       </c>
       <c r="G41" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAMP PLATE NUMBER KENKO N-38 (Cap Nomer)</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="H41">
         <f>SUMIF(Table1[H_A1],Sheet5!A41,Table1[Qty])</f>
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="I41" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J41" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A41,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>84000</v>
-      </c>
-      <c r="L41" s="86">
+        <v>10600</v>
+      </c>
+      <c r="L41" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>96</v>
+        <v/>
       </c>
       <c r="M41" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N41" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46222,45 +46629,45 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="88" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="E42" s="194">
         <f>MATCH(A42,Table1[H_A1],0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F42" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1293</v>
+        <v>1034</v>
       </c>
       <c r="G42" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER KENKO HD-10D</v>
+        <v>PENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)</v>
       </c>
       <c r="H42">
         <f>SUMIF(Table1[H_A1],Sheet5!A42,Table1[Qty])</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I42" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LS</v>
+        <v>LSN</v>
       </c>
       <c r="J42" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A42,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>117600</v>
-      </c>
-      <c r="L42" s="86" t="str">
+        <v>124200</v>
+      </c>
+      <c r="L42" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>576</v>
       </c>
       <c r="M42" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N42" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46274,29 +46681,29 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="88" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="B43" s="88"/>
       <c r="C43" s="88"/>
       <c r="E43" s="194">
         <f>MATCH(A43,Table1[H_A1],0)</f>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F43" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1292</v>
+        <v>1091</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER KENKO HD-10</v>
+        <v>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)</v>
       </c>
       <c r="H43">
         <f>SUMIF(Table1[H_A1],Sheet5!A43,Table1[Qty])</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I43" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LS</v>
+        <v>SET</v>
       </c>
       <c r="J43" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A43,Table1[C])</f>
@@ -46304,7 +46711,7 @@
       </c>
       <c r="K43" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>93000</v>
+        <v>6600</v>
       </c>
       <c r="L43" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46326,29 +46733,29 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="88" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="B44" s="88"/>
       <c r="C44" s="88"/>
       <c r="E44" s="194">
         <f>MATCH(A44,Table1[H_A1],0)</f>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F44" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1298</v>
+        <v>1886</v>
       </c>
       <c r="G44" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER KENKO HD-50</v>
+        <v>PUNCH JOYKO 30</v>
       </c>
       <c r="H44">
         <f>SUMIF(Table1[H_A1],Sheet5!A44,Table1[Qty])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I44" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LS</v>
+        <v>LSN</v>
       </c>
       <c r="J44" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A44,Table1[C])</f>
@@ -46356,15 +46763,15 @@
       </c>
       <c r="K44" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>228000</v>
-      </c>
-      <c r="L44" s="86" t="str">
+        <v>139200</v>
+      </c>
+      <c r="L44" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="M44" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N44" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46378,25 +46785,25 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="88" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B45" s="88"/>
       <c r="C45" s="88"/>
       <c r="E45" s="194">
         <f>MATCH(A45,Table1[H_A1],0)</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F45" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1398</v>
+        <v>1263</v>
       </c>
       <c r="G45" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER LONG REACH JOYKO HD-35LA</v>
+        <v>PUNCH KENKO NO. 85</v>
       </c>
       <c r="H45">
         <f>SUMIF(Table1[H_A1],Sheet5!A45,Table1[Qty])</f>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I45" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -46404,11 +46811,11 @@
       </c>
       <c r="J45" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A45,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>58000</v>
+        <v>48500</v>
       </c>
       <c r="L45" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46430,25 +46837,25 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="E46" s="194">
         <f>MATCH(A46,Table1[H_A1],0)</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F46" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2025</v>
+        <v>1267</v>
       </c>
       <c r="G46" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>TAPE CUTTER JOYKO TD-102</v>
+        <v>PUSH PIN KENKO PN-30 TRANSPARAN</v>
       </c>
       <c r="H46">
         <f>SUMIF(Table1[H_A1],Sheet5!A46,Table1[Qty])</f>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I46" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -46456,15 +46863,15 @@
       </c>
       <c r="J46" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A46,Table1[C])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>11100</v>
+        <v>33000</v>
       </c>
       <c r="L46" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>576</v>
+        <v>12</v>
       </c>
       <c r="M46" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -46482,498 +46889,528 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="B47" s="88"/>
       <c r="C47" s="88"/>
-      <c r="E47" s="194" t="e">
+      <c r="E47" s="194">
         <f>MATCH(A47,Table1[H_A1],0)</f>
-        <v>#N/A</v>
+        <v>42</v>
       </c>
       <c r="F47" s="194" t="e">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G47" t="e">
+      <c r="G47" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>Stabillo Highlighter JK HL MIX BIRU/ HIJAU</v>
       </c>
       <c r="H47">
         <f>SUMIF(Table1[H_A1],Sheet5!A47,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I47" t="e">
+        <v>100</v>
+      </c>
+      <c r="I47" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>PCS</v>
       </c>
       <c r="J47" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A47,Table1[C])</f>
         <v>0</v>
       </c>
-      <c r="K47" s="195" t="e">
+      <c r="K47" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L47" s="86" t="e">
+        <v>3700</v>
+      </c>
+      <c r="L47" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M47" s="86" t="e">
+        <v/>
+      </c>
+      <c r="M47" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N47" s="86" t="e">
+        <v/>
+      </c>
+      <c r="N47" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O47" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O47" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P47" s="86"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="88" t="s">
+        <v>218</v>
+      </c>
       <c r="B48" s="88"/>
       <c r="C48" s="88"/>
-      <c r="E48" s="194" t="e">
+      <c r="E48" s="194">
         <f>MATCH(A48,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F48" s="194" t="e">
+        <v>32</v>
+      </c>
+      <c r="F48" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G48" t="e">
+        <v>1287</v>
+      </c>
+      <c r="G48" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAMP PAD KENKO NO. 0</v>
       </c>
       <c r="H48">
         <f>SUMIF(Table1[H_A1],Sheet5!A48,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I48" t="e">
+        <v>10</v>
+      </c>
+      <c r="I48" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LSN</v>
       </c>
       <c r="J48" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A48,Table1[C])</f>
         <v>0</v>
       </c>
-      <c r="K48" s="195" t="e">
+      <c r="K48" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L48" s="86" t="e">
+        <v>59400</v>
+      </c>
+      <c r="L48" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M48" s="86" t="e">
+        <v>120</v>
+      </c>
+      <c r="M48" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N48" s="86" t="e">
+        <v>PCS</v>
+      </c>
+      <c r="N48" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O48" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O48" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P48" s="86"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="88" t="s">
+        <v>219</v>
+      </c>
       <c r="B49" s="88"/>
       <c r="C49" s="88"/>
-      <c r="E49" s="194" t="e">
+      <c r="E49" s="194">
         <f>MATCH(A49,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F49" s="194" t="e">
+        <v>33</v>
+      </c>
+      <c r="F49" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G49" t="e">
+        <v>1285</v>
+      </c>
+      <c r="G49" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAMP PLATE NUMBER KENKO N-38 (Cap Nomer)</v>
       </c>
       <c r="H49">
         <f>SUMIF(Table1[H_A1],Sheet5!A49,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I49" t="e">
+        <v>8</v>
+      </c>
+      <c r="I49" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LSN</v>
       </c>
       <c r="J49" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A49,Table1[C])</f>
         <v>0</v>
       </c>
-      <c r="K49" s="195" t="e">
+      <c r="K49" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L49" s="86" t="e">
+        <v>84000</v>
+      </c>
+      <c r="L49" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M49" s="86" t="e">
+        <v>96</v>
+      </c>
+      <c r="M49" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N49" s="86" t="e">
+        <v>PCS</v>
+      </c>
+      <c r="N49" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O49" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O49" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P49" s="86"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="88" t="s">
+        <v>147</v>
+      </c>
       <c r="B50" s="88"/>
       <c r="C50" s="88"/>
-      <c r="E50" s="194" t="e">
+      <c r="E50" s="194">
         <f>MATCH(A50,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="194" t="e">
+        <v>10</v>
+      </c>
+      <c r="F50" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" t="e">
+        <v>1293</v>
+      </c>
+      <c r="G50" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAPLER KENKO HD-10D</v>
       </c>
       <c r="H50">
         <f>SUMIF(Table1[H_A1],Sheet5!A50,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I50" t="e">
+        <v>40</v>
+      </c>
+      <c r="I50" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LS</v>
       </c>
       <c r="J50" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A50,Table1[C])</f>
         <v>0</v>
       </c>
-      <c r="K50" s="195" t="e">
+      <c r="K50" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L50" s="86" t="e">
+        <v>117600</v>
+      </c>
+      <c r="L50" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M50" s="86" t="e">
+        <v/>
+      </c>
+      <c r="M50" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" s="86" t="e">
+        <v/>
+      </c>
+      <c r="N50" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O50" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O50" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P50" s="86"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="88" t="s">
+        <v>148</v>
+      </c>
       <c r="B51" s="88"/>
       <c r="C51" s="88"/>
-      <c r="E51" s="194" t="e">
+      <c r="E51" s="194">
         <f>MATCH(A51,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="194" t="e">
+        <v>9</v>
+      </c>
+      <c r="F51" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G51" t="e">
+        <v>1292</v>
+      </c>
+      <c r="G51" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAPLER KENKO HD-10</v>
       </c>
       <c r="H51">
         <f>SUMIF(Table1[H_A1],Sheet5!A51,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I51" t="e">
+        <v>60</v>
+      </c>
+      <c r="I51" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LS</v>
       </c>
       <c r="J51" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A51,Table1[C])</f>
         <v>0</v>
       </c>
-      <c r="K51" s="195" t="e">
+      <c r="K51" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L51" s="86" t="e">
+        <v>93000</v>
+      </c>
+      <c r="L51" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M51" s="86" t="e">
+        <v/>
+      </c>
+      <c r="M51" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N51" s="86" t="e">
+        <v/>
+      </c>
+      <c r="N51" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O51" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O51" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P51" s="86"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="88" t="s">
+        <v>301</v>
+      </c>
       <c r="B52" s="88"/>
       <c r="C52" s="88"/>
-      <c r="E52" s="194" t="e">
+      <c r="E52" s="194">
         <f>MATCH(A52,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="194" t="e">
+        <v>76</v>
+      </c>
+      <c r="F52" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" t="e">
+        <v>1292</v>
+      </c>
+      <c r="G52" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAPLER KENKO HD-10</v>
       </c>
       <c r="H52">
         <f>SUMIF(Table1[H_A1],Sheet5!A52,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I52" t="e">
+        <v>20</v>
+      </c>
+      <c r="I52" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LSN</v>
       </c>
       <c r="J52" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A52,Table1[C])</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="195" t="e">
+        <v>1</v>
+      </c>
+      <c r="K52" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" s="86" t="e">
+        <v>93000</v>
+      </c>
+      <c r="L52" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M52" s="86" t="e">
+        <v>240</v>
+      </c>
+      <c r="M52" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N52" s="86" t="e">
+        <v>PCS</v>
+      </c>
+      <c r="N52" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O52" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O52" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P52" s="86"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="88" t="s">
+        <v>149</v>
+      </c>
       <c r="B53" s="88"/>
       <c r="C53" s="88"/>
-      <c r="E53" s="194" t="e">
+      <c r="E53" s="194">
         <f>MATCH(A53,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="194" t="e">
+        <v>8</v>
+      </c>
+      <c r="F53" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" t="e">
+        <v>1298</v>
+      </c>
+      <c r="G53" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAPLER KENKO HD-50</v>
       </c>
       <c r="H53">
         <f>SUMIF(Table1[H_A1],Sheet5!A53,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I53" t="e">
+        <v>10</v>
+      </c>
+      <c r="I53" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LS</v>
       </c>
       <c r="J53" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A53,Table1[C])</f>
         <v>0</v>
       </c>
-      <c r="K53" s="195" t="e">
+      <c r="K53" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L53" s="86" t="e">
+        <v>228000</v>
+      </c>
+      <c r="L53" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M53" s="86" t="e">
+        <v/>
+      </c>
+      <c r="M53" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N53" s="86" t="e">
+        <v/>
+      </c>
+      <c r="N53" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O53" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O53" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P53" s="86"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="88" t="s">
+        <v>302</v>
+      </c>
       <c r="B54" s="88"/>
       <c r="C54" s="88"/>
-      <c r="E54" s="194" t="e">
+      <c r="E54" s="194">
         <f>MATCH(A54,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="194" t="e">
+        <v>77</v>
+      </c>
+      <c r="F54" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G54" t="e">
+        <v>1298</v>
+      </c>
+      <c r="G54" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAPLER KENKO HD-50</v>
       </c>
       <c r="H54">
         <f>SUMIF(Table1[H_A1],Sheet5!A54,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I54" t="e">
+        <v>10</v>
+      </c>
+      <c r="I54" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LSN</v>
       </c>
       <c r="J54" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A54,Table1[C])</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="195" t="e">
+        <v>1</v>
+      </c>
+      <c r="K54" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L54" s="86" t="e">
+        <v>228000</v>
+      </c>
+      <c r="L54" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M54" s="86" t="e">
+        <v>120</v>
+      </c>
+      <c r="M54" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N54" s="86" t="e">
+        <v>PCS</v>
+      </c>
+      <c r="N54" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O54" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O54" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P54" s="86"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="88" t="s">
+        <v>194</v>
+      </c>
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
-      <c r="E55" s="194" t="e">
+      <c r="E55" s="194">
         <f>MATCH(A55,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="194" t="e">
+        <v>26</v>
+      </c>
+      <c r="F55" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G55" t="e">
+        <v>1398</v>
+      </c>
+      <c r="G55" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>STAPLER LONG REACH JOYKO HD-35LA</v>
       </c>
       <c r="H55">
         <f>SUMIF(Table1[H_A1],Sheet5!A55,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I55" t="e">
+        <v>36</v>
+      </c>
+      <c r="I55" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>PCS</v>
       </c>
       <c r="J55" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A55,Table1[C])</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="195" t="e">
+        <v>1</v>
+      </c>
+      <c r="K55" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L55" s="86" t="e">
+        <v>58000</v>
+      </c>
+      <c r="L55" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M55" s="86" t="e">
+        <v/>
+      </c>
+      <c r="M55" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N55" s="86" t="e">
+        <v/>
+      </c>
+      <c r="N55" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O55" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O55" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P55" s="86"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="88" t="s">
+        <v>195</v>
+      </c>
       <c r="B56" s="88"/>
       <c r="C56" s="88"/>
-      <c r="E56" s="194" t="e">
+      <c r="E56" s="194">
         <f>MATCH(A56,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F56" s="194" t="e">
+        <v>25</v>
+      </c>
+      <c r="F56" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G56" t="e">
+        <v>2025</v>
+      </c>
+      <c r="G56" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>TAPE CUTTER JOYKO TD-102</v>
       </c>
       <c r="H56">
         <f>SUMIF(Table1[H_A1],Sheet5!A56,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I56" t="e">
+        <v>48</v>
+      </c>
+      <c r="I56" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LSN</v>
       </c>
       <c r="J56" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A56,Table1[C])</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="195" t="e">
+        <v>2</v>
+      </c>
+      <c r="K56" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L56" s="86" t="e">
+        <v>11100</v>
+      </c>
+      <c r="L56" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M56" s="86" t="e">
+        <v>576</v>
+      </c>
+      <c r="M56" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N56" s="86" t="e">
+        <v>PCS</v>
+      </c>
+      <c r="N56" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O56" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O56" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P56" s="86"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="88" t="s">
+        <v>55</v>
+      </c>
       <c r="B57" s="88"/>
       <c r="C57" s="88"/>
       <c r="E57" s="194" t="e">
@@ -47022,7 +47459,7 @@
       </c>
       <c r="P57" s="86"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="E58" s="194" t="e">
@@ -47071,7 +47508,7 @@
       </c>
       <c r="P58" s="86"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="88"/>
       <c r="C59" s="88"/>
       <c r="E59" s="194" t="e">
@@ -47120,7 +47557,7 @@
       </c>
       <c r="P59" s="86"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="88"/>
       <c r="C60" s="88"/>
       <c r="E60" s="194" t="e">
@@ -47169,7 +47606,7 @@
       </c>
       <c r="P60" s="86"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="88"/>
       <c r="C61" s="88"/>
       <c r="E61" s="194" t="e">
@@ -47218,7 +47655,7 @@
       </c>
       <c r="P61" s="86"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="88"/>
       <c r="C62" s="88"/>
       <c r="E62" s="194" t="e">
@@ -47267,7 +47704,7 @@
       </c>
       <c r="P62" s="86"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B63" s="88"/>
       <c r="C63" s="88"/>
       <c r="E63" s="194" t="e">
@@ -47316,7 +47753,7 @@
       </c>
       <c r="P63" s="86"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B64" s="88"/>
       <c r="C64" s="88"/>
       <c r="E64" s="194" t="e">

--- a/BARU/2023/02 FEB/KELUAR.xlsx
+++ b/BARU/2023/02 FEB/KELUAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOTA" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId8"/>
+    <pivotCache cacheId="29" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="311">
   <si>
     <t>Column1</t>
   </si>
@@ -943,9 +943,6 @@
     <t>STAPLER KENKO HD-50LSN228000</t>
   </si>
   <si>
-    <t>09/02/203</t>
-  </si>
-  <si>
     <t>0910</t>
   </si>
   <si>
@@ -956,6 +953,18 @@
   </si>
   <si>
     <t>CUTTER 18 MM KENKO L-500 (BESAR)LSN147600</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>PENKENHITECH028BIRU</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO HI-TECH-H 0.28 MM BIRU</t>
+  </si>
+  <si>
+    <t>GEL PEN KENKO HI-TECH-H 0.28 MM BIRULSN39000</t>
   </si>
 </sst>
 </file>
@@ -2102,38 +2111,80 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,80 +2252,38 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2282,6 +2291,31 @@
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2594,31 +2628,6 @@
       <font>
         <b val="0"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -10892,8 +10901,8 @@
           </cell>
         </row>
         <row r="1828">
-          <cell r="D1828" t="str">
-            <v>09/02/203</v>
+          <cell r="D1828">
+            <v>44966</v>
           </cell>
         </row>
         <row r="1830">
@@ -11008,8 +11017,8 @@
           </cell>
         </row>
         <row r="1866">
-          <cell r="D1866" t="str">
-            <v>09/02/203</v>
+          <cell r="D1866">
+            <v>44966</v>
           </cell>
         </row>
         <row r="1868">
@@ -11169,8 +11178,8 @@
           </cell>
         </row>
         <row r="1904">
-          <cell r="D1904" t="str">
-            <v>09/02/203</v>
+          <cell r="D1904">
+            <v>44966</v>
           </cell>
         </row>
         <row r="1906">
@@ -11329,6 +11338,16 @@
             <v>AM</v>
           </cell>
         </row>
+        <row r="1942">
+          <cell r="D1942">
+            <v>44968</v>
+          </cell>
+        </row>
+        <row r="1944">
+          <cell r="D1944" t="str">
+            <v>KO 0716</v>
+          </cell>
+        </row>
         <row r="1946">
           <cell r="D1946" t="str">
             <v>C</v>
@@ -11338,13 +11357,19 @@
           </cell>
         </row>
         <row r="1948">
+          <cell r="D1948">
+            <v>3</v>
+          </cell>
           <cell r="K1948">
-            <v>0</v>
+            <v>14742000</v>
           </cell>
         </row>
         <row r="1949">
+          <cell r="D1949">
+            <v>1</v>
+          </cell>
           <cell r="K1949">
-            <v>0</v>
+            <v>4914000</v>
           </cell>
         </row>
         <row r="1950">
@@ -11424,7 +11449,7 @@
         </row>
         <row r="1972">
           <cell r="K1972">
-            <v>0</v>
+            <v>19656000</v>
           </cell>
         </row>
         <row r="1978">
@@ -11434,12 +11459,12 @@
         </row>
         <row r="1980">
           <cell r="D1980">
-            <v>0</v>
+            <v>44968</v>
           </cell>
         </row>
         <row r="1982">
-          <cell r="D1982">
-            <v>0</v>
+          <cell r="D1982" t="str">
+            <v>KO 0716</v>
           </cell>
         </row>
         <row r="1984">
@@ -11452,18 +11477,18 @@
         </row>
         <row r="1986">
           <cell r="D1986">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="K1986">
-            <v>0</v>
+            <v>14742000</v>
           </cell>
         </row>
         <row r="1987">
           <cell r="D1987">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K1987">
-            <v>0</v>
+            <v>4914000</v>
           </cell>
         </row>
         <row r="1988">
@@ -11585,7 +11610,7 @@
         </row>
         <row r="2010">
           <cell r="K2010">
-            <v>0</v>
+            <v>19656000</v>
           </cell>
         </row>
         <row r="2016">
@@ -11595,12 +11620,12 @@
         </row>
         <row r="2018">
           <cell r="D2018">
-            <v>0</v>
+            <v>44968</v>
           </cell>
         </row>
         <row r="2020">
-          <cell r="D2020">
-            <v>0</v>
+          <cell r="D2020" t="str">
+            <v>KO 0716</v>
           </cell>
         </row>
         <row r="2022">
@@ -11613,18 +11638,18 @@
         </row>
         <row r="2024">
           <cell r="D2024">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="K2024">
-            <v>0</v>
+            <v>14742000</v>
           </cell>
         </row>
         <row r="2025">
           <cell r="D2025">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="K2025">
-            <v>0</v>
+            <v>4914000</v>
           </cell>
         </row>
         <row r="2026">
@@ -11746,7 +11771,7 @@
         </row>
         <row r="2048">
           <cell r="K2048">
-            <v>0</v>
+            <v>19656000</v>
           </cell>
         </row>
         <row r="2054">
@@ -25357,13 +25382,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44966.682105902779" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="104">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44968.497610532409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="104">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="29">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="81" count="18">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="84" count="19">
         <n v="3"/>
         <s v=""/>
         <n v="6"/>
@@ -25382,13 +25407,14 @@
         <n v="60"/>
         <n v="71"/>
         <n v="81"/>
+        <n v="84"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23020001" maxValue="23020017"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23020001" maxValue="23020018"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2023-02-02T00:00:00" maxDate="2023-02-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-02-02T00:00:00" maxDate="2023-02-12T00:00:00"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -25445,7 +25471,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="81"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="84"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
@@ -25466,7 +25492,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="H_A1" numFmtId="43">
-      <sharedItems count="63">
+      <sharedItems count="64">
         <s v="GUNTING JOYKO SC-828 SGLSN6100"/>
         <s v="GUNTING JOYKO SC-838 SGLSN7700"/>
         <s v=""/>
@@ -25522,6 +25548,7 @@
         <s v="STAPLER KENKO HD-10LSN93000"/>
         <s v="STAPLER KENKO HD-50LSN228000"/>
         <s v="CUTTER 18 MM KENKO L-500 (BESAR)LSN147600"/>
+        <s v="GEL PEN KENKO HI-TECH-H 0.28 MM BIRULSN39000"/>
         <s v="ISI PENSIL 2B 0.5 MM JOYKO PL-05GRS146400" u="1"/>
         <s v="LS93000" u="1"/>
         <s v="LS117600" u="1"/>
@@ -27448,7 +27475,7 @@
     <s v="PCS"/>
     <n v="4"/>
     <s v="BNJKA5CAMPUSMIX"/>
-    <s v="BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC) MIX"/>
+    <e v="#N/A"/>
     <s v="BINDER NOTE JOYKO A5 (CAMPUS/CLASSIC) MIX"/>
     <n v="15800"/>
     <n v="0.125"/>
@@ -27964,7 +27991,7 @@
   <r>
     <x v="17"/>
     <n v="23020017"/>
-    <s v="09/02/203"/>
+    <d v="2023-02-09T00:00:00"/>
     <s v="ko"/>
     <s v="0910"/>
     <s v="bendan"/>
@@ -28055,35 +28082,35 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
+    <x v="18"/>
+    <n v="23020018"/>
+    <d v="2023-02-11T00:00:00"/>
+    <s v="ko"/>
+    <s v="0716"/>
+    <s v="LANCAR"/>
+    <s v="AM 23020018"/>
+    <s v="KO 0716"/>
+    <s v="SOEYANTO ( LANCAR ) MALANG"/>
+    <n v="432"/>
+    <s v="LSN"/>
+    <n v="3"/>
+    <s v="PENKENHITECH028HITAM"/>
+    <s v="GEL PEN KENKO HI-TECH-H 0.28 MM HITAM"/>
+    <s v="GEL PEN KENKO HI-TECH-H 0.28 MM HITAM"/>
+    <n v="39000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="14742000"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="84"/>
+    <n v="2"/>
+    <n v="16848000"/>
+    <n v="2106000"/>
+    <n v="14742000"/>
+    <n v="19656000"/>
+    <m/>
+    <x v="20"/>
   </r>
   <r>
     <x v="1"/>
@@ -28095,26 +28122,26 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="2"/>
+    <n v="144"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="PENKENHITECH028BIRU"/>
+    <s v="GEL PEN KENKO HI-TECH-H 0.28 MM BIRU"/>
+    <s v="GEL PEN KENKO HI-TECH-H 0.28 MM BIRU"/>
+    <n v="39000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="4914000"/>
+    <m/>
+    <m/>
+    <n v="84"/>
+    <n v="2"/>
+    <n v="5616000"/>
+    <n v="702000"/>
+    <n v="4914000"/>
+    <s v=""/>
+    <m/>
+    <x v="55"/>
   </r>
   <r>
     <x v="1"/>
@@ -28771,11 +28798,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A2:A21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="19">
+      <items count="20">
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
@@ -28793,6 +28820,7 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -28829,7 +28857,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -28884,6 +28912,9 @@
     <i>
       <x v="17"/>
     </i>
+    <i>
+      <x v="18"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -28901,8 +28932,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:A57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -28933,13 +28964,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="63">
+      <items count="64">
         <item x="2"/>
         <item x="34"/>
         <item x="4"/>
         <item x="3"/>
         <item x="40"/>
-        <item m="1" x="59"/>
+        <item m="1" x="60"/>
         <item x="42"/>
         <item x="5"/>
         <item x="44"/>
@@ -28954,14 +28985,15 @@
         <item x="15"/>
         <item x="28"/>
         <item x="22"/>
+        <item x="55"/>
         <item x="20"/>
         <item x="33"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="60"/>
+        <item m="1" x="61"/>
         <item x="37"/>
         <item x="31"/>
-        <item m="1" x="55"/>
+        <item m="1" x="56"/>
         <item x="38"/>
         <item x="9"/>
         <item x="17"/>
@@ -28971,10 +29003,10 @@
         <item x="36"/>
         <item x="49"/>
         <item x="48"/>
+        <item m="1" x="58"/>
+        <item m="1" x="63"/>
+        <item m="1" x="62"/>
         <item m="1" x="57"/>
-        <item m="1" x="62"/>
-        <item m="1" x="61"/>
-        <item m="1" x="56"/>
         <item x="14"/>
         <item x="21"/>
         <item x="47"/>
@@ -28986,7 +29018,7 @@
         <item x="29"/>
         <item x="30"/>
         <item x="23"/>
-        <item m="1" x="58"/>
+        <item m="1" x="59"/>
         <item x="32"/>
         <item x="24"/>
         <item x="25"/>
@@ -29003,7 +29035,7 @@
   <rowFields count="1">
     <field x="28"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="57">
     <i>
       <x/>
     </i>
@@ -29074,13 +29106,13 @@
       <x v="23"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="24"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="27"/>
     </i>
     <i>
       <x v="29"/>
@@ -29107,7 +29139,7 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="37"/>
     </i>
     <i>
       <x v="42"/>
@@ -29140,7 +29172,7 @@
       <x v="51"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="52"/>
     </i>
     <i>
       <x v="54"/>
@@ -29168,6 +29200,9 @@
     </i>
     <i>
       <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i t="grand">
       <x/>
@@ -29212,38 +29247,38 @@
     <tableColumn id="6" name="Unit" dataDxfId="53"/>
     <tableColumn id="7" name="C" dataDxfId="52"/>
     <tableColumn id="8" name="h_Item Description" dataDxfId="51"/>
-    <tableColumn id="10" name="Column1" dataDxfId="50">
+    <tableColumn id="10" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="49"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="48"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="47"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="46"/>
-    <tableColumn id="23" name="Amount" dataDxfId="45">
+    <tableColumn id="9" name="Item Description" dataDxfId="50"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="49"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="48"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="47"/>
+    <tableColumn id="23" name="Amount" dataDxfId="46">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="44"/>
-    <tableColumn id="15" name="edited :" dataDxfId="43"/>
-    <tableColumn id="21" name="h_id" dataDxfId="42">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="45"/>
+    <tableColumn id="15" name="edited :" dataDxfId="44"/>
+    <tableColumn id="21" name="h_id" dataDxfId="43">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V2,Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="41">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="42">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="40">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="41">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="39">
+    <tableColumn id="25" name="h_diskon" dataDxfId="40">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="38">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="39">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="37">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="38">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="36"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="35">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="37"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="36">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -29255,40 +29290,40 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D2:O56" totalsRowCount="1">
   <autoFilter ref="D2:O55"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="33">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="34">
       <calculatedColumnFormula>IF(ROW()-2&lt;=jNota,A3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="32">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="33">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="31">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="32">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="30">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="31">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="29">
+    <tableColumn id="5" name="Toko" dataDxfId="30">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="18">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="19">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="17">
+    <tableColumn id="15" name="edited" dataDxfId="18">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -29300,13 +29335,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R2:T55" totalsRowShown="0">
   <autoFilter ref="R2:T55"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="cek_ppn" dataDxfId="16">
+    <tableColumn id="1" name="cek_ppn" dataDxfId="17">
       <calculatedColumnFormula>IF(pajak[[#This Row],[Kode Sales :]]="","",MATCH(pajak[[#This Row],[Kode Sales :]],[2]Invoice!$D:$D,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cek_rekap(share)" dataDxfId="15">
+    <tableColumn id="2" name="cek_rekap(share)" dataDxfId="16">
       <calculatedColumnFormula>Table4[[#This Row],[cek_ppn]]+28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="cek_rekap(network)" dataDxfId="14">
+    <tableColumn id="3" name="cek_rekap(network)" dataDxfId="15">
       <calculatedColumnFormula>IF(INDEX([2]Invoice!$K:$K,Table4[[#This Row],[cek_rekap(share)]])=pajak[[#This Row],[Total Invoice]],"-",FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -29318,40 +29353,40 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="E1:P139" totalsRowShown="0">
   <autoFilter ref="E1:P139"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="//NOTA" dataDxfId="12">
+    <tableColumn id="1" name="//NOTA" dataDxfId="13">
       <calculatedColumnFormula>MATCH(A2,Table1[H_A1],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="//DB" dataDxfId="11">
+    <tableColumn id="7" name="//DB" dataDxfId="12">
       <calculatedColumnFormula>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="NAMA" dataDxfId="10">
+    <tableColumn id="2" name="NAMA" dataDxfId="11">
       <calculatedColumnFormula>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="QTY" dataDxfId="9">
+    <tableColumn id="3" name="QTY" dataDxfId="10">
       <calculatedColumnFormula>SUMIF(Table1[H_A1],Sheet5!A2,Table1[Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="UNIT" dataDxfId="8">
+    <tableColumn id="4" name="UNIT" dataDxfId="9">
       <calculatedColumnFormula>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="C" dataDxfId="7">
+    <tableColumn id="5" name="C" dataDxfId="8">
       <calculatedColumnFormula>SUMIF(Table1[H_A1],Sheet5!A2,Table1[C])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Unit Price" dataDxfId="6">
+    <tableColumn id="6" name="Unit Price" dataDxfId="7">
       <calculatedColumnFormula>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="a1" dataDxfId="5">
+    <tableColumn id="8" name="a1" dataDxfId="6">
       <calculatedColumnFormula>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="a2" dataDxfId="4">
+    <tableColumn id="9" name="a2" dataDxfId="5">
       <calculatedColumnFormula>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="b1" dataDxfId="3">
+    <tableColumn id="10" name="b1" dataDxfId="4">
       <calculatedColumnFormula>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="b2" dataDxfId="2">
+    <tableColumn id="11" name="b2" dataDxfId="3">
       <calculatedColumnFormula>IF(Table5[[#This Row],[b1]]="","","PCS")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="c1" dataDxfId="1"/>
+    <tableColumn id="12" name="c1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29365,7 +29400,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="0">
+    <tableColumn id="5" name="e" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -29663,8 +29698,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U81" sqref="U81"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34763,8 +34798,9 @@
       <c r="M64" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="N64" s="95" t="s">
-        <v>264</v>
+      <c r="N64" s="95" t="e">
+        <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
+        <v>#N/A</v>
       </c>
       <c r="O64" s="92" t="s">
         <v>264</v>
@@ -36122,14 +36158,14 @@
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B80))</f>
         <v>23020017</v>
       </c>
-      <c r="C81" s="98" t="s">
-        <v>303</v>
+      <c r="C81" s="98">
+        <v>44966</v>
       </c>
       <c r="D81" s="92" t="s">
         <v>143</v>
       </c>
       <c r="E81" s="97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F81" s="92" t="s">
         <v>129</v>
@@ -36156,14 +36192,14 @@
         <v>1</v>
       </c>
       <c r="M81" s="92" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N81" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
         <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
       </c>
       <c r="O81" s="92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P81" s="93">
         <v>147600</v>
@@ -36339,68 +36375,98 @@
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="95" t="str">
+      <c r="A84" s="95">
         <f>IF(Table1[No. Invoice :]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B84" s="196" t="str">
+        <v>84</v>
+      </c>
+      <c r="B84" s="196">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B83))</f>
-        <v/>
-      </c>
-      <c r="D84" s="197"/>
-      <c r="E84" s="198"/>
-      <c r="F84" s="197"/>
+        <v>23020018</v>
+      </c>
+      <c r="C84" s="98">
+        <v>44968</v>
+      </c>
+      <c r="D84" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="F84" s="92" t="s">
+        <v>104</v>
+      </c>
       <c r="G84" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23020018</v>
       </c>
       <c r="H84" s="96" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 0716</v>
       </c>
       <c r="I84" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
-      </c>
-      <c r="M84" s="197"/>
+        <v>SOEYANTO ( LANCAR ) MALANG</v>
+      </c>
+      <c r="J84" s="92">
+        <v>432</v>
+      </c>
+      <c r="K84" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L84" s="92">
+        <v>3</v>
+      </c>
+      <c r="M84" s="92" t="s">
+        <v>189</v>
+      </c>
       <c r="N84" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P84" s="93"/>
-      <c r="Q84" s="94"/>
-      <c r="S84" s="199" t="str">
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
+      </c>
+      <c r="O84" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="P84" s="93">
+        <v>39000</v>
+      </c>
+      <c r="Q84" s="94">
+        <v>0.125</v>
+      </c>
+      <c r="S84" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V84" s="95" t="str">
+        <v>14742000</v>
+      </c>
+      <c r="T84" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="V84" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V83,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W84" s="95" t="str">
+        <v>84</v>
+      </c>
+      <c r="W84" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X84" s="93" t="str">
+        <v>2</v>
+      </c>
+      <c r="X84" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y84" s="93" t="str">
+        <v>16848000</v>
+      </c>
+      <c r="Y84" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z84" s="93" t="str">
+        <v>2106000</v>
+      </c>
+      <c r="Z84" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AA84" s="93" t="str">
+        <v>14742000</v>
+      </c>
+      <c r="AA84" s="93">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>19656000</v>
       </c>
       <c r="AB84" s="93"/>
       <c r="AC84" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAMLSN39000</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -36427,36 +36493,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
-      <c r="M85" s="197"/>
+      <c r="J85" s="92">
+        <v>144</v>
+      </c>
+      <c r="K85" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L85" s="92">
+        <v>1</v>
+      </c>
+      <c r="M85" s="92" t="s">
+        <v>308</v>
+      </c>
       <c r="N85" s="196" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P85" s="93"/>
-      <c r="Q85" s="94"/>
-      <c r="S85" s="199" t="str">
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM BIRU</v>
+      </c>
+      <c r="O85" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="P85" s="93">
+        <v>39000</v>
+      </c>
+      <c r="Q85" s="94">
+        <v>0.125</v>
+      </c>
+      <c r="S85" s="199">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V85" s="95" t="str">
+        <v>4914000</v>
+      </c>
+      <c r="V85" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V84,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W85" s="95" t="str">
+        <v>84</v>
+      </c>
+      <c r="W85" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X85" s="93" t="str">
+        <v>2</v>
+      </c>
+      <c r="X85" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y85" s="93" t="str">
+        <v>5616000</v>
+      </c>
+      <c r="Y85" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z85" s="93" t="str">
+        <v>702000</v>
+      </c>
+      <c r="Z85" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>4914000</v>
       </c>
       <c r="AA85" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -36465,7 +36549,7 @@
       <c r="AB85" s="93"/>
       <c r="AC85" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM BIRULSN39000</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
@@ -37847,8 +37931,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37878,7 +37962,7 @@
       </c>
       <c r="E1">
         <f>COUNT(Table1[//])</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -37935,7 +38019,7 @@
       </c>
       <c r="W2" s="89">
         <f>SUM(pajak[Total Invoice])</f>
-        <v>180441760</v>
+        <v>200097760</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -38007,7 +38091,7 @@
       </c>
       <c r="W3" s="89">
         <f>SUM(pajak[PPN 11%])</f>
-        <v>17881615.855855852</v>
+        <v>19829507.747747745</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -38076,7 +38160,7 @@
       </c>
       <c r="W4" s="89">
         <f>(W2/1.11)*11%</f>
-        <v>17881615.855855852</v>
+        <v>19829507.747747749</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -39001,9 +39085,9 @@
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
         <v>AM 23020017</v>
       </c>
-      <c r="F19" s="90" t="str">
+      <c r="F19" s="90">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v>09/02/203</v>
+        <v>44966</v>
       </c>
       <c r="G19" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
@@ -39055,73 +39139,73 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="88">
+        <v>84</v>
+      </c>
       <c r="B20" s="88"/>
-      <c r="D20" s="86" t="str">
+      <c r="D20" s="86">
         <f t="shared" si="1"/>
-        <v/>
+        <v>84</v>
       </c>
       <c r="E20" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F20" s="90" t="str">
+        <v>AM 23020018</v>
+      </c>
+      <c r="F20" s="90">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>44968</v>
       </c>
       <c r="G20" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 0716</v>
       </c>
       <c r="H20" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I20" s="89" t="str">
+        <v>SOEYANTO ( LANCAR ) MALANG</v>
+      </c>
+      <c r="I20" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J20" s="89" t="str">
+        <v>22464000</v>
+      </c>
+      <c r="J20" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K20" s="89" t="str">
+        <v>2808000</v>
+      </c>
+      <c r="K20" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L20" s="89" t="str">
+        <v>19656000</v>
+      </c>
+      <c r="L20" s="89">
         <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M20" s="89" t="str">
+        <v>1947891.8918918918</v>
+      </c>
+      <c r="M20" s="89">
         <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>19656000</v>
       </c>
       <c r="N20" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O20" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
         <v/>
       </c>
-      <c r="R20" t="str">
+      <c r="R20">
         <f>IF(pajak[[#This Row],[Kode Sales :]]="","",MATCH(pajak[[#This Row],[Kode Sales :]],[2]Invoice!$D:$D,0))</f>
-        <v/>
-      </c>
-      <c r="S20" t="e">
+        <v>1944</v>
+      </c>
+      <c r="S20">
         <f>Table4[[#This Row],[cek_ppn]]+28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T20" s="86" t="e">
+        <v>1972</v>
+      </c>
+      <c r="T20" s="86" t="str">
         <f>IF(INDEX([2]Invoice!$K:$K,Table4[[#This Row],[cek_rekap(share)]])=pajak[[#This Row],[Total Invoice]],"-",FALSE)</f>
-        <v>#VALUE!</v>
+        <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="88"/>
       <c r="B21" s="88"/>
       <c r="D21" s="86" t="str">
         <f t="shared" si="1"/>
@@ -39185,6 +39269,9 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
+        <v>55</v>
+      </c>
       <c r="B22" s="88"/>
       <c r="D22" s="86" t="str">
         <f t="shared" si="1"/>
@@ -41305,30 +41392,30 @@
       <c r="F56"/>
       <c r="I56" s="89">
         <f>SUBTOTAL(109,pajak[Total])</f>
-        <v>207605200</v>
+        <v>230069200</v>
       </c>
       <c r="J56" s="89">
         <f>SUBTOTAL(109,pajak[Diskon])</f>
-        <v>27163440</v>
+        <v>29971440</v>
       </c>
       <c r="K56" s="89">
         <f>SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>180441760</v>
+        <v>200097760</v>
       </c>
       <c r="L56" s="89">
         <f>SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>17881615.855855852</v>
+        <v>19829507.747747745</v>
       </c>
       <c r="M56" s="89">
         <f>SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>180441760</v>
+        <v>200097760</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G57:G1048576 G1:G55">
-    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -41365,7 +41452,7 @@
     <row r="1" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>IF(K1="",MAX(Table1[//]),INDEX(Table1[//],MATCH(K1,Table1[//],0)))</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -41379,19 +41466,19 @@
       </c>
       <c r="E1" t="str">
         <f>INDEX(Table1[h_toko],newestIdRow-offset)</f>
-        <v>bendan</v>
+        <v>LANCAR</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
       </c>
       <c r="G1">
         <f>INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
-        <v>1</v>
-      </c>
-      <c r="I1" s="290" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="290"/>
+      <c r="J1" s="337"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -41413,18 +41500,18 @@
       </c>
       <c r="E3" s="9">
         <f>INDEX(Table1[h_No. Invoice :],newestIdRow-offset)</f>
-        <v>23020017</v>
+        <v>23020018</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="297" t="str">
+      <c r="H3" s="344" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
-        <v>HARNOYO</v>
-      </c>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="298"/>
+        <v>SOEYANTO</v>
+      </c>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="345"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41433,14 +41520,14 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="301" t="s">
+      <c r="F4" s="315" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="300"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="347"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41449,20 +41536,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="302" t="str">
+      <c r="D5" s="316">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
-        <v>09/02/203</v>
-      </c>
-      <c r="E5" s="303"/>
-      <c r="F5" s="301"/>
+        <v>44968</v>
+      </c>
+      <c r="E5" s="317"/>
+      <c r="F5" s="315"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="304" t="str">
+      <c r="H5" s="318" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
-        <v>(BENDAN)</v>
-      </c>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="305"/>
+        <v>( LANCAR )</v>
+      </c>
+      <c r="I5" s="318"/>
+      <c r="J5" s="318"/>
+      <c r="K5" s="319"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41471,15 +41558,15 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="301"/>
+      <c r="F6" s="315"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="306" t="str">
+      <c r="H6" s="320" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
-        <v>PEKALONGAN</v>
-      </c>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="307"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I6" s="320"/>
+      <c r="J6" s="320"/>
+      <c r="K6" s="321"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -41490,15 +41577,15 @@
       <c r="C7" s="8"/>
       <c r="D7" s="20" t="str">
         <f>INDEX(Table1[Kode Sales :],newestIdRow-offset)</f>
-        <v>KO 0910</v>
+        <v>KO 0716</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="309"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="322"/>
+      <c r="J7" s="322"/>
+      <c r="K7" s="323"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -41561,7 +41648,7 @@
       </c>
       <c r="B11" s="46">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A11-1))</f>
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C11" s="46" t="str">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A11-1))</f>
@@ -41569,21 +41656,21 @@
       </c>
       <c r="D11" s="47">
         <f>IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A11-1)="","",INDEX(Table1[C],newestIdRow-offset+A11-1)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="48" t="str">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A11-1))</f>
-        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
       <c r="H11" s="51">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A11-1))</f>
-        <v>147600</v>
+        <v>39000</v>
       </c>
       <c r="I11" s="52">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1))</f>
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J11" s="52" t="str">
         <f>IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -41591,7 +41678,7 @@
       </c>
       <c r="K11" s="53">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>2538720</v>
+        <v>14742000</v>
       </c>
       <c r="L11" s="36"/>
     </row>
@@ -41599,39 +41686,39 @@
       <c r="A12" s="45">
         <v>2</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="46">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Qty],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C12" s="46" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit],newestIdRow-offset+A12-1))</f>
-        <v/>
-      </c>
-      <c r="D12" s="47" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D12" s="47">
         <f>IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[C],newestIdRow-offset+A12-1)="","",INDEX(Table1[C],newestIdRow-offset+A12-1)))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E12" s="48" t="str">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Item Description],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM BIRU</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="51" t="str">
+      <c r="H12" s="51">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Unit Price],newestIdRow-offset+A12-1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="52" t="str">
+        <v>39000</v>
+      </c>
+      <c r="I12" s="52">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J12" s="52" t="str">
         <f>IF(A12&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A12-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="53" t="str">
+      <c r="K12" s="53">
         <f>IF(A12&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A12-1))</f>
-        <v/>
+        <v>4914000</v>
       </c>
       <c r="L12" s="36"/>
     </row>
@@ -42219,8 +42306,8 @@
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="296"/>
-      <c r="K28" s="296"/>
+      <c r="J28" s="343"/>
+      <c r="K28" s="343"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -42230,11 +42317,11 @@
       <c r="I29" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="293">
+      <c r="J29" s="340">
         <f>INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>2538720</v>
-      </c>
-      <c r="K29" s="294"/>
+        <v>19656000</v>
+      </c>
+      <c r="K29" s="341"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42243,8 +42330,8 @@
       <c r="C30" s="66"/>
       <c r="D30" s="25"/>
       <c r="I30" s="68"/>
-      <c r="J30" s="295"/>
-      <c r="K30" s="295"/>
+      <c r="J30" s="342"/>
+      <c r="K30" s="342"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -42267,8 +42354,8 @@
       <c r="C32" s="66"/>
       <c r="D32" s="25"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="296"/>
-      <c r="K32" s="296"/>
+      <c r="J32" s="343"/>
+      <c r="K32" s="343"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -42283,11 +42370,11 @@
       <c r="I33" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="293">
+      <c r="J33" s="340">
         <f>INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>251584.86486486488</v>
-      </c>
-      <c r="K33" s="294"/>
+        <v>1947891.8918918918</v>
+      </c>
+      <c r="K33" s="341"/>
       <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -42296,8 +42383,8 @@
       <c r="C34" s="66"/>
       <c r="D34" s="25"/>
       <c r="I34" s="68"/>
-      <c r="J34" s="296"/>
-      <c r="K34" s="296"/>
+      <c r="J34" s="343"/>
+      <c r="K34" s="343"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -42311,7 +42398,7 @@
       <c r="J35" s="76"/>
       <c r="K35" s="77">
         <f>INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>2538720</v>
+        <v>19656000</v>
       </c>
       <c r="L35" s="73"/>
     </row>
@@ -42338,11 +42425,11 @@
       <c r="I37" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="291" t="str">
+      <c r="J37" s="338" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="292"/>
+      <c r="K37" s="339"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
@@ -42352,11 +42439,11 @@
       <c r="I38" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="291" t="str">
+      <c r="J38" s="338" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="292"/>
+      <c r="K38" s="339"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -42395,19 +42482,19 @@
       </c>
       <c r="E41" s="209">
         <f>E3</f>
-        <v>23020017</v>
+        <v>23020018</v>
       </c>
       <c r="F41" s="210"/>
       <c r="G41" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="310" t="str">
+      <c r="H41" s="324" t="str">
         <f>H3</f>
-        <v>HARNOYO</v>
-      </c>
-      <c r="I41" s="310"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="311"/>
+        <v>SOEYANTO</v>
+      </c>
+      <c r="I41" s="324"/>
+      <c r="J41" s="324"/>
+      <c r="K41" s="325"/>
       <c r="L41" s="212"/>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42416,14 +42503,14 @@
       <c r="C42" s="214"/>
       <c r="D42" s="215"/>
       <c r="E42" s="216"/>
-      <c r="F42" s="314" t="s">
+      <c r="F42" s="328" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="217"/>
-      <c r="H42" s="312"/>
-      <c r="I42" s="312"/>
-      <c r="J42" s="312"/>
-      <c r="K42" s="313"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="327"/>
       <c r="L42" s="212"/>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42432,20 +42519,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="207"/>
-      <c r="D43" s="315" t="str">
+      <c r="D43" s="329">
         <f>D5</f>
-        <v>09/02/203</v>
-      </c>
-      <c r="E43" s="316"/>
-      <c r="F43" s="314"/>
+        <v>44968</v>
+      </c>
+      <c r="E43" s="330"/>
+      <c r="F43" s="328"/>
       <c r="G43" s="218"/>
-      <c r="H43" s="317" t="str">
+      <c r="H43" s="331" t="str">
         <f>H5</f>
-        <v>(BENDAN)</v>
-      </c>
-      <c r="I43" s="317"/>
-      <c r="J43" s="317"/>
-      <c r="K43" s="318"/>
+        <v>( LANCAR )</v>
+      </c>
+      <c r="I43" s="331"/>
+      <c r="J43" s="331"/>
+      <c r="K43" s="332"/>
       <c r="L43" s="219"/>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42454,15 +42541,15 @@
       <c r="C44" s="214"/>
       <c r="D44" s="215"/>
       <c r="E44" s="216"/>
-      <c r="F44" s="314"/>
+      <c r="F44" s="328"/>
       <c r="G44" s="218"/>
-      <c r="H44" s="319" t="str">
+      <c r="H44" s="333" t="str">
         <f>H6</f>
-        <v>PEKALONGAN</v>
-      </c>
-      <c r="I44" s="319"/>
-      <c r="J44" s="319"/>
-      <c r="K44" s="320"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="334"/>
       <c r="L44" s="220"/>
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -42473,15 +42560,15 @@
       <c r="C45" s="207"/>
       <c r="D45" s="221" t="str">
         <f>D7</f>
-        <v>KO 0910</v>
+        <v>KO 0716</v>
       </c>
       <c r="E45" s="209"/>
       <c r="F45" s="222"/>
       <c r="G45" s="223"/>
-      <c r="H45" s="321"/>
-      <c r="I45" s="321"/>
-      <c r="J45" s="321"/>
-      <c r="K45" s="322"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="335"/>
+      <c r="K45" s="336"/>
       <c r="L45" s="220"/>
     </row>
     <row r="46" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -42548,7 +42635,7 @@
       </c>
       <c r="B49" s="248">
         <f>B11</f>
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C49" s="249" t="str">
         <f>C11</f>
@@ -42556,21 +42643,21 @@
       </c>
       <c r="D49" s="250">
         <f>D11</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" s="251" t="str">
         <f>E11</f>
-        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
       </c>
       <c r="F49" s="252"/>
       <c r="G49" s="253"/>
       <c r="H49" s="254">
         <f>H11</f>
-        <v>147600</v>
+        <v>39000</v>
       </c>
       <c r="I49" s="255">
         <f>I11</f>
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J49" s="255" t="str">
         <f>J11</f>
@@ -42578,7 +42665,7 @@
       </c>
       <c r="K49" s="256">
         <f>K11</f>
-        <v>2538720</v>
+        <v>14742000</v>
       </c>
       <c r="L49" s="238"/>
     </row>
@@ -42586,39 +42673,39 @@
       <c r="A50" s="247">
         <v>2</v>
       </c>
-      <c r="B50" s="248" t="str">
+      <c r="B50" s="248">
         <f t="shared" ref="B50:E50" si="0">B12</f>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C50" s="249" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D50" s="250" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D50" s="250">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E50" s="251" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM BIRU</v>
       </c>
       <c r="F50" s="252"/>
       <c r="G50" s="253"/>
-      <c r="H50" s="254" t="str">
+      <c r="H50" s="254">
         <f t="shared" ref="H50:K50" si="1">H12</f>
-        <v/>
-      </c>
-      <c r="I50" s="255" t="str">
+        <v>39000</v>
+      </c>
+      <c r="I50" s="255">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J50" s="255" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K50" s="256" t="str">
+      <c r="K50" s="256">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4914000</v>
       </c>
       <c r="L50" s="238"/>
     </row>
@@ -43206,8 +43293,8 @@
       <c r="G66" s="267"/>
       <c r="H66" s="267"/>
       <c r="I66" s="268"/>
-      <c r="J66" s="323"/>
-      <c r="K66" s="323"/>
+      <c r="J66" s="304"/>
+      <c r="K66" s="304"/>
       <c r="L66" s="230"/>
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43222,11 +43309,11 @@
       <c r="I67" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="324">
+      <c r="J67" s="312">
         <f>J29</f>
-        <v>2538720</v>
-      </c>
-      <c r="K67" s="325"/>
+        <v>19656000</v>
+      </c>
+      <c r="K67" s="313"/>
       <c r="L67" s="238"/>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43239,8 +43326,8 @@
       <c r="G68" s="227"/>
       <c r="H68" s="227"/>
       <c r="I68" s="271"/>
-      <c r="J68" s="326"/>
-      <c r="K68" s="326"/>
+      <c r="J68" s="314"/>
+      <c r="K68" s="314"/>
       <c r="L68" s="230"/>
     </row>
     <row r="69" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43275,8 +43362,8 @@
       <c r="G70" s="227"/>
       <c r="H70" s="227"/>
       <c r="I70" s="271"/>
-      <c r="J70" s="323"/>
-      <c r="K70" s="323"/>
+      <c r="J70" s="304"/>
+      <c r="K70" s="304"/>
       <c r="L70" s="230"/>
     </row>
     <row r="71" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43295,11 +43382,11 @@
       <c r="I71" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="324">
+      <c r="J71" s="312">
         <f>J33</f>
-        <v>251584.86486486488</v>
-      </c>
-      <c r="K71" s="325"/>
+        <v>1947891.8918918918</v>
+      </c>
+      <c r="K71" s="313"/>
       <c r="L71" s="276"/>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -43312,8 +43399,8 @@
       <c r="G72" s="227"/>
       <c r="H72" s="227"/>
       <c r="I72" s="271"/>
-      <c r="J72" s="323"/>
-      <c r="K72" s="323"/>
+      <c r="J72" s="304"/>
+      <c r="K72" s="304"/>
       <c r="L72" s="230"/>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43331,7 +43418,7 @@
       <c r="J73" s="279"/>
       <c r="K73" s="280">
         <f>K35</f>
-        <v>2538720</v>
+        <v>19656000</v>
       </c>
       <c r="L73" s="276"/>
     </row>
@@ -43363,11 +43450,11 @@
       <c r="I75" s="286" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="327" t="str">
+      <c r="J75" s="305" t="str">
         <f>J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="328"/>
+      <c r="K75" s="306"/>
       <c r="L75" s="230"/>
     </row>
     <row r="76" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43382,10 +43469,10 @@
       <c r="I76" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="327">
+      <c r="J76" s="305">
         <v>0</v>
       </c>
-      <c r="K76" s="328"/>
+      <c r="K76" s="306"/>
       <c r="L76" s="284"/>
     </row>
     <row r="77" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -43428,19 +43515,19 @@
       </c>
       <c r="E79" s="109">
         <f>E41</f>
-        <v>23020017</v>
+        <v>23020018</v>
       </c>
       <c r="F79" s="110"/>
       <c r="G79" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="329" t="str">
+      <c r="H79" s="307" t="str">
         <f>H41</f>
-        <v>HARNOYO</v>
-      </c>
-      <c r="I79" s="329"/>
-      <c r="J79" s="329"/>
-      <c r="K79" s="330"/>
+        <v>SOEYANTO</v>
+      </c>
+      <c r="I79" s="307"/>
+      <c r="J79" s="307"/>
+      <c r="K79" s="308"/>
       <c r="L79" s="112"/>
     </row>
     <row r="80" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43449,14 +43536,14 @@
       <c r="C80" s="114"/>
       <c r="D80" s="115"/>
       <c r="E80" s="116"/>
-      <c r="F80" s="333" t="s">
+      <c r="F80" s="311" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="117"/>
-      <c r="H80" s="331"/>
-      <c r="I80" s="331"/>
-      <c r="J80" s="331"/>
-      <c r="K80" s="332"/>
+      <c r="H80" s="309"/>
+      <c r="I80" s="309"/>
+      <c r="J80" s="309"/>
+      <c r="K80" s="310"/>
       <c r="L80" s="112"/>
     </row>
     <row r="81" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43465,20 +43552,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="107"/>
-      <c r="D81" s="334" t="str">
+      <c r="D81" s="296">
         <f>D43</f>
-        <v>09/02/203</v>
-      </c>
-      <c r="E81" s="335"/>
-      <c r="F81" s="333"/>
+        <v>44968</v>
+      </c>
+      <c r="E81" s="297"/>
+      <c r="F81" s="311"/>
       <c r="G81" s="118"/>
-      <c r="H81" s="336" t="str">
+      <c r="H81" s="298" t="str">
         <f>H43</f>
-        <v>(BENDAN)</v>
-      </c>
-      <c r="I81" s="336"/>
-      <c r="J81" s="336"/>
-      <c r="K81" s="337"/>
+        <v>( LANCAR )</v>
+      </c>
+      <c r="I81" s="298"/>
+      <c r="J81" s="298"/>
+      <c r="K81" s="299"/>
       <c r="L81" s="119"/>
     </row>
     <row r="82" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -43487,15 +43574,15 @@
       <c r="C82" s="114"/>
       <c r="D82" s="115"/>
       <c r="E82" s="116"/>
-      <c r="F82" s="333"/>
+      <c r="F82" s="311"/>
       <c r="G82" s="118"/>
-      <c r="H82" s="338" t="str">
+      <c r="H82" s="300" t="str">
         <f>H44</f>
-        <v>PEKALONGAN</v>
-      </c>
-      <c r="I82" s="338"/>
-      <c r="J82" s="338"/>
-      <c r="K82" s="339"/>
+        <v>MALANG</v>
+      </c>
+      <c r="I82" s="300"/>
+      <c r="J82" s="300"/>
+      <c r="K82" s="301"/>
       <c r="L82" s="120"/>
     </row>
     <row r="83" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -43506,15 +43593,15 @@
       <c r="C83" s="107"/>
       <c r="D83" s="121" t="str">
         <f>D45</f>
-        <v>KO 0910</v>
+        <v>KO 0716</v>
       </c>
       <c r="E83" s="109"/>
       <c r="F83" s="122"/>
       <c r="G83" s="123"/>
-      <c r="H83" s="340"/>
-      <c r="I83" s="340"/>
-      <c r="J83" s="340"/>
-      <c r="K83" s="341"/>
+      <c r="H83" s="302"/>
+      <c r="I83" s="302"/>
+      <c r="J83" s="302"/>
+      <c r="K83" s="303"/>
       <c r="L83" s="120"/>
     </row>
     <row r="84" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -43581,7 +43668,7 @@
       </c>
       <c r="B87" s="148">
         <f>B49</f>
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="C87" s="149" t="str">
         <f>C49</f>
@@ -43589,21 +43676,21 @@
       </c>
       <c r="D87" s="150">
         <f>D49</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="151" t="str">
         <f>E49</f>
-        <v>CUTTER 18 MM KENKO L-500 (BESAR)</v>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
       </c>
       <c r="F87" s="152"/>
       <c r="G87" s="153"/>
       <c r="H87" s="154">
         <f>H49</f>
-        <v>147600</v>
+        <v>39000</v>
       </c>
       <c r="I87" s="155">
         <f>I49</f>
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J87" s="155" t="str">
         <f>J49</f>
@@ -43611,7 +43698,7 @@
       </c>
       <c r="K87" s="156">
         <f>K49</f>
-        <v>2538720</v>
+        <v>14742000</v>
       </c>
       <c r="L87" s="138"/>
     </row>
@@ -43619,39 +43706,39 @@
       <c r="A88" s="147">
         <v>2</v>
       </c>
-      <c r="B88" s="148" t="str">
+      <c r="B88" s="148">
         <f t="shared" ref="B88:E88" si="30">B50</f>
-        <v/>
+        <v>144</v>
       </c>
       <c r="C88" s="149" t="str">
         <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="D88" s="150" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="D88" s="150">
         <f t="shared" si="30"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E88" s="151" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM BIRU</v>
       </c>
       <c r="F88" s="152"/>
       <c r="G88" s="153"/>
-      <c r="H88" s="154" t="str">
+      <c r="H88" s="154">
         <f t="shared" ref="H88:K88" si="31">H50</f>
-        <v/>
-      </c>
-      <c r="I88" s="155" t="str">
+        <v>39000</v>
+      </c>
+      <c r="I88" s="155">
         <f t="shared" si="31"/>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="J88" s="155" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K88" s="156" t="str">
+      <c r="K88" s="156">
         <f t="shared" si="31"/>
-        <v/>
+        <v>4914000</v>
       </c>
       <c r="L88" s="138"/>
     </row>
@@ -44239,8 +44326,8 @@
       <c r="G104" s="167"/>
       <c r="H104" s="167"/>
       <c r="I104" s="168"/>
-      <c r="J104" s="342"/>
-      <c r="K104" s="342"/>
+      <c r="J104" s="293"/>
+      <c r="K104" s="293"/>
       <c r="L104" s="130"/>
     </row>
     <row r="105" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44255,11 +44342,11 @@
       <c r="I105" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="343">
+      <c r="J105" s="294">
         <f>J67</f>
-        <v>2538720</v>
-      </c>
-      <c r="K105" s="344"/>
+        <v>19656000</v>
+      </c>
+      <c r="K105" s="295"/>
       <c r="L105" s="138"/>
     </row>
     <row r="106" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44272,8 +44359,8 @@
       <c r="G106" s="127"/>
       <c r="H106" s="127"/>
       <c r="I106" s="171"/>
-      <c r="J106" s="347"/>
-      <c r="K106" s="347"/>
+      <c r="J106" s="292"/>
+      <c r="K106" s="292"/>
       <c r="L106" s="130"/>
     </row>
     <row r="107" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44308,8 +44395,8 @@
       <c r="G108" s="127"/>
       <c r="H108" s="127"/>
       <c r="I108" s="171"/>
-      <c r="J108" s="342"/>
-      <c r="K108" s="342"/>
+      <c r="J108" s="293"/>
+      <c r="K108" s="293"/>
       <c r="L108" s="130"/>
     </row>
     <row r="109" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44328,11 +44415,11 @@
       <c r="I109" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="343">
+      <c r="J109" s="294">
         <f>J71</f>
-        <v>251584.86486486488</v>
-      </c>
-      <c r="K109" s="344"/>
+        <v>1947891.8918918918</v>
+      </c>
+      <c r="K109" s="295"/>
       <c r="L109" s="176"/>
     </row>
     <row r="110" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -44345,8 +44432,8 @@
       <c r="G110" s="127"/>
       <c r="H110" s="127"/>
       <c r="I110" s="171"/>
-      <c r="J110" s="342"/>
-      <c r="K110" s="342"/>
+      <c r="J110" s="293"/>
+      <c r="K110" s="293"/>
       <c r="L110" s="130"/>
     </row>
     <row r="111" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -44364,7 +44451,7 @@
       <c r="J111" s="179"/>
       <c r="K111" s="180">
         <f>K73</f>
-        <v>2538720</v>
+        <v>19656000</v>
       </c>
       <c r="L111" s="176"/>
     </row>
@@ -44396,11 +44483,11 @@
       <c r="I113" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="345" t="str">
+      <c r="J113" s="290" t="str">
         <f>J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="346"/>
+      <c r="K113" s="291"/>
       <c r="L113" s="130"/>
     </row>
     <row r="114" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44415,10 +44502,10 @@
       <c r="I114" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="345">
+      <c r="J114" s="290">
         <v>0</v>
       </c>
-      <c r="K114" s="346"/>
+      <c r="K114" s="291"/>
       <c r="L114" s="184"/>
     </row>
     <row r="115" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -44437,36 +44524,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -44477,6 +44534,36 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="20001" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44489,8 +44576,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45277,7 +45364,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B16" s="88"/>
       <c r="C16" s="88"/>
@@ -45537,25 +45624,25 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="88" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
       <c r="E21" s="194">
         <f>MATCH(A21,Table1[H_A1],0)</f>
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F21" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G21" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM BIRU</v>
       </c>
       <c r="H21">
         <f>SUMIF(Table1[H_A1],Sheet5!A21,Table1[Qty])</f>
-        <v>1296</v>
+        <v>144</v>
       </c>
       <c r="I21" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45563,7 +45650,7 @@
       </c>
       <c r="J21" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A21,Table1[C])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K21" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
@@ -45571,7 +45658,7 @@
       </c>
       <c r="L21" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>15552</v>
+        <v>1728</v>
       </c>
       <c r="M21" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45589,25 +45676,25 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="88" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="E22" s="194">
         <f>MATCH(A22,Table1[H_A1],0)</f>
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F22" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GEL PEN KENKO K-1 HITAM</v>
+        <v>GEL PEN KENKO HI-TECH-H 0.28 MM HITAM</v>
       </c>
       <c r="H22">
         <f>SUMIF(Table1[H_A1],Sheet5!A22,Table1[Qty])</f>
-        <v>8</v>
+        <v>1728</v>
       </c>
       <c r="I22" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45615,15 +45702,15 @@
       </c>
       <c r="J22" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A22,Table1[C])</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K22" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>39600</v>
+        <v>39000</v>
       </c>
       <c r="L22" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>96</v>
+        <v>20736</v>
       </c>
       <c r="M22" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45641,25 +45728,25 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="B23" s="88"/>
       <c r="C23" s="88"/>
       <c r="E23" s="194">
         <f>MATCH(A23,Table1[H_A1],0)</f>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F23" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1921</v>
+        <v>1164</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GUNTING JOYKO SC-828 SG</v>
+        <v>GEL PEN KENKO K-1 HITAM</v>
       </c>
       <c r="H23">
         <f>SUMIF(Table1[H_A1],Sheet5!A23,Table1[Qty])</f>
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="I23" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -45667,15 +45754,15 @@
       </c>
       <c r="J23" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A23,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>6100</v>
+        <v>39600</v>
       </c>
       <c r="L23" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>1728</v>
+        <v>96</v>
       </c>
       <c r="M23" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -45693,21 +45780,21 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="88" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B24" s="88"/>
       <c r="C24" s="88"/>
       <c r="E24" s="194">
         <f>MATCH(A24,Table1[H_A1],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>GUNTING JOYKO SC-838 SG</v>
+        <v>GUNTING JOYKO SC-828 SG</v>
       </c>
       <c r="H24">
         <f>SUMIF(Table1[H_A1],Sheet5!A24,Table1[Qty])</f>
@@ -45723,7 +45810,7 @@
       </c>
       <c r="K24" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="L24" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -45745,29 +45832,29 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="88" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="E25" s="194">
         <f>MATCH(A25,Table1[H_A1],0)</f>
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F25" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2151</v>
+        <v>1923</v>
       </c>
       <c r="G25" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
+        <v>GUNTING JOYKO SC-838 SG</v>
       </c>
       <c r="H25">
         <f>SUMIF(Table1[H_A1],Sheet5!A25,Table1[Qty])</f>
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="I25" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J25" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A25,Table1[C])</f>
@@ -45775,15 +45862,15 @@
       </c>
       <c r="K25" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>3700</v>
-      </c>
-      <c r="L25" s="86" t="str">
+        <v>7700</v>
+      </c>
+      <c r="L25" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>1728</v>
       </c>
       <c r="M25" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N25" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45797,45 +45884,45 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="88" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B26" s="88"/>
       <c r="C26" s="88"/>
       <c r="E26" s="194">
         <f>MATCH(A26,Table1[H_A1],0)</f>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F26" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1132</v>
+        <v>2151</v>
       </c>
       <c r="G26" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
+        <v>HIGHLIGHTER / STABILLO JOYKO HL-MIX (5 WARNA)</v>
       </c>
       <c r="H26">
         <f>SUMIF(Table1[H_A1],Sheet5!A26,Table1[Qty])</f>
-        <v>10</v>
+        <v>720</v>
       </c>
       <c r="I26" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J26" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A26,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>64800</v>
-      </c>
-      <c r="L26" s="86">
+        <v>3700</v>
+      </c>
+      <c r="L26" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="M26" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N26" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -45849,149 +45936,149 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="B27" s="88"/>
       <c r="C27" s="88"/>
       <c r="E27" s="194">
         <f>MATCH(A27,Table1[H_A1],0)</f>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F27" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1760</v>
+        <v>1132</v>
       </c>
       <c r="G27" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
+        <v>ISI CUTTER 18 MM KENKO L-150 (BESAR)</v>
       </c>
       <c r="H27">
         <f>SUMIF(Table1[H_A1],Sheet5!A27,Table1[Qty])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I27" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>GRS</v>
+        <v>LSN</v>
       </c>
       <c r="J27" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A27,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>176400</v>
+        <v>64800</v>
       </c>
       <c r="L27" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="M27" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>LSN</v>
-      </c>
-      <c r="N27" s="86">
+        <v>PCS</v>
+      </c>
+      <c r="N27" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>1728</v>
+        <v/>
       </c>
       <c r="O27" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="P27" s="86"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="B28" s="88"/>
       <c r="C28" s="88"/>
       <c r="E28" s="194">
         <f>MATCH(A28,Table1[H_A1],0)</f>
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F28" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1302</v>
+        <v>1760</v>
       </c>
       <c r="G28" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)</v>
+        <v>ISI PENSIL 2B 0.5 MM JOYKO PL-05</v>
       </c>
       <c r="H28">
         <f>SUMIF(Table1[H_A1],Sheet5!A28,Table1[Qty])</f>
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="I28" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>BOX</v>
+        <v>GRS</v>
       </c>
       <c r="J28" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A28,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>4200</v>
-      </c>
-      <c r="L28" s="86" t="str">
+        <v>176400</v>
+      </c>
+      <c r="L28" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>144</v>
       </c>
       <c r="M28" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
-      </c>
-      <c r="N28" s="86" t="str">
+        <v>LSN</v>
+      </c>
+      <c r="N28" s="86">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v/>
+        <v>1728</v>
       </c>
       <c r="O28" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="P28" s="86"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B29" s="88"/>
       <c r="C29" s="88"/>
       <c r="E29" s="194">
         <f>MATCH(A29,Table1[H_A1],0)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1483</v>
+        <v>1302</v>
       </c>
       <c r="G29" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>JANGKA (MATH SET) JOYKO MS-25</v>
+        <v>ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)</v>
       </c>
       <c r="H29">
         <f>SUMIF(Table1[H_A1],Sheet5!A29,Table1[Qty])</f>
-        <v>48</v>
+        <v>600</v>
       </c>
       <c r="I29" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>BOX</v>
       </c>
       <c r="J29" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A29,Table1[C])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>88200</v>
-      </c>
-      <c r="L29" s="86">
+        <v>4200</v>
+      </c>
+      <c r="L29" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>576</v>
+        <v/>
       </c>
       <c r="M29" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N29" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46005,25 +46092,25 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
       <c r="E30" s="194">
         <f>MATCH(A30,Table1[H_A1],0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F30" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="G30" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>JANGKA (MATH SET) JOYKO MS-55</v>
+        <v>JANGKA (MATH SET) JOYKO MS-25</v>
       </c>
       <c r="H30">
         <f>SUMIF(Table1[H_A1],Sheet5!A30,Table1[Qty])</f>
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I30" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -46031,7 +46118,7 @@
       </c>
       <c r="J30" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A30,Table1[C])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
@@ -46039,7 +46126,7 @@
       </c>
       <c r="L30" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>924</v>
+        <v>576</v>
       </c>
       <c r="M30" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -46057,45 +46144,45 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="88"/>
       <c r="C31" s="88"/>
       <c r="E31" s="194">
         <f>MATCH(A31,Table1[H_A1],0)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F31" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1349</v>
+        <v>1487</v>
       </c>
       <c r="G31" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
+        <v>JANGKA (MATH SET) JOYKO MS-55</v>
       </c>
       <c r="H31">
         <f>SUMIF(Table1[H_A1],Sheet5!A31,Table1[Qty])</f>
-        <v>2000</v>
+        <v>77</v>
       </c>
       <c r="I31" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J31" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A31,Table1[C])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>2050</v>
-      </c>
-      <c r="L31" s="86" t="str">
+        <v>88200</v>
+      </c>
+      <c r="L31" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>924</v>
       </c>
       <c r="M31" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N31" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46109,13 +46196,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="88" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="B32" s="88"/>
       <c r="C32" s="88"/>
       <c r="E32" s="194">
         <f>MATCH(A32,Table1[H_A1],0)</f>
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F32" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
@@ -46127,19 +46214,19 @@
       </c>
       <c r="H32">
         <f>SUMIF(Table1[H_A1],Sheet5!A32,Table1[Qty])</f>
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I32" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>SLOP</v>
+        <v>PCS</v>
       </c>
       <c r="J32" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A32,Table1[C])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>20500</v>
+        <v>2050</v>
       </c>
       <c r="L32" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46161,29 +46248,29 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="88" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B33" s="88"/>
       <c r="C33" s="88"/>
       <c r="E33" s="194">
         <f>MATCH(A33,Table1[H_A1],0)</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F33" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1212</v>
+        <v>1349</v>
       </c>
       <c r="G33" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LEM CAIR 35 ML KENKO LG-35</v>
+        <v>LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)</v>
       </c>
       <c r="H33">
         <f>SUMIF(Table1[H_A1],Sheet5!A33,Table1[Qty])</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I33" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>SLOP</v>
       </c>
       <c r="J33" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A33,Table1[C])</f>
@@ -46191,15 +46278,15 @@
       </c>
       <c r="K33" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>19800</v>
-      </c>
-      <c r="L33" s="86">
+        <v>20500</v>
+      </c>
+      <c r="L33" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>480</v>
+        <v/>
       </c>
       <c r="M33" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N33" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46213,29 +46300,29 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="88" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B34" s="88"/>
       <c r="C34" s="88"/>
       <c r="E34" s="194">
         <f>MATCH(A34,Table1[H_A1],0)</f>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F34" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1188</v>
+        <v>1212</v>
       </c>
       <c r="G34" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
+        <v>LEM CAIR 35 ML KENKO LG-35</v>
       </c>
       <c r="H34">
         <f>SUMIF(Table1[H_A1],Sheet5!A34,Table1[Qty])</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I34" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>BOX</v>
+        <v>LSN</v>
       </c>
       <c r="J34" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A34,Table1[C])</f>
@@ -46243,15 +46330,15 @@
       </c>
       <c r="K34" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>72000</v>
-      </c>
-      <c r="L34" s="86" t="str">
+        <v>19800</v>
+      </c>
+      <c r="L34" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>480</v>
       </c>
       <c r="M34" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N34" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46265,21 +46352,21 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B35" s="88"/>
       <c r="C35" s="88"/>
       <c r="E35" s="194">
         <f>MATCH(A35,Table1[H_A1],0)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G35" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>LEM STICK KENKO 8 GR (KECIL) isi 30 pc</v>
+        <v>LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc</v>
       </c>
       <c r="H35">
         <f>SUMIF(Table1[H_A1],Sheet5!A35,Table1[Qty])</f>
@@ -46295,7 +46382,7 @@
       </c>
       <c r="K35" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>66000</v>
+        <v>72000</v>
       </c>
       <c r="L35" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46317,37 +46404,37 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="88" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="B36" s="88"/>
       <c r="C36" s="88"/>
       <c r="E36" s="194">
         <f>MATCH(A36,Table1[H_A1],0)</f>
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F36" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1256</v>
+        <v>1190</v>
       </c>
       <c r="G36" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>MESIN LABEL HARGA KENKO MX-5500 (8 DIGITS, 1 LINE)</v>
+        <v>LEM STICK KENKO 8 GR (KECIL) isi 30 pc</v>
       </c>
       <c r="H36">
         <f>SUMIF(Table1[H_A1],Sheet5!A36,Table1[Qty])</f>
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I36" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>BOX</v>
       </c>
       <c r="J36" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A36,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>45000</v>
+        <v>66000</v>
       </c>
       <c r="L36" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46369,45 +46456,45 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="88" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B37" s="88"/>
       <c r="C37" s="88"/>
       <c r="E37" s="194">
         <f>MATCH(A37,Table1[H_A1],0)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F37" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1625</v>
+        <v>1256</v>
       </c>
       <c r="G37" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PAPER CLIP WARNA JOYKO C-3100</v>
+        <v>MESIN LABEL HARGA KENKO MX-5500 (8 DIGITS, 1 LINE)</v>
       </c>
       <c r="H37">
         <f>SUMIF(Table1[H_A1],Sheet5!A37,Table1[Qty])</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I37" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J37" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A37,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>37200</v>
-      </c>
-      <c r="L37" s="86">
+        <v>45000</v>
+      </c>
+      <c r="L37" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>288</v>
+        <v/>
       </c>
       <c r="M37" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N37" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46421,45 +46508,45 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="B38" s="88"/>
       <c r="C38" s="88"/>
       <c r="E38" s="194">
         <f>MATCH(A38,Table1[H_A1],0)</f>
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F38" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1210</v>
+        <v>1625</v>
       </c>
       <c r="G38" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PAPER JUMBO CLIP KENKO NO. 5</v>
+        <v>PAPER CLIP WARNA JOYKO C-3100</v>
       </c>
       <c r="H38">
         <f>SUMIF(Table1[H_A1],Sheet5!A38,Table1[Qty])</f>
-        <v>400</v>
+        <v>24</v>
       </c>
       <c r="I38" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J38" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A38,Table1[C])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>4300</v>
-      </c>
-      <c r="L38" s="86" t="str">
+        <v>37200</v>
+      </c>
+      <c r="L38" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>288</v>
       </c>
       <c r="M38" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N38" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46473,25 +46560,25 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="88"/>
       <c r="C39" s="88"/>
       <c r="E39" s="194">
         <f>MATCH(A39,Table1[H_A1],0)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F39" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1313</v>
+        <v>1210</v>
       </c>
       <c r="G39" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PAPER TRIGONAL CLIP KENKO NO. 1</v>
+        <v>PAPER JUMBO CLIP KENKO NO. 5</v>
       </c>
       <c r="H39">
         <f>SUMIF(Table1[H_A1],Sheet5!A39,Table1[Qty])</f>
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="I39" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -46503,7 +46590,7 @@
       </c>
       <c r="K39" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>1700</v>
+        <v>4300</v>
       </c>
       <c r="L39" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46525,21 +46612,21 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40" s="88"/>
       <c r="C40" s="88"/>
       <c r="E40" s="194">
         <f>MATCH(A40,Table1[H_A1],0)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G40" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PAPER TRIGONAL CLIP KENKO NO. 3</v>
+        <v>PAPER TRIGONAL CLIP KENKO NO. 1</v>
       </c>
       <c r="H40">
         <f>SUMIF(Table1[H_A1],Sheet5!A40,Table1[Qty])</f>
@@ -46555,7 +46642,7 @@
       </c>
       <c r="K40" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L40" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46577,25 +46664,25 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="88" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B41" s="88"/>
       <c r="C41" s="88"/>
       <c r="E41" s="194">
         <f>MATCH(A41,Table1[H_A1],0)</f>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F41" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>487</v>
+        <v>1312</v>
       </c>
       <c r="G41" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
+        <v>PAPER TRIGONAL CLIP KENKO NO. 3</v>
       </c>
       <c r="H41">
         <f>SUMIF(Table1[H_A1],Sheet5!A41,Table1[Qty])</f>
-        <v>144</v>
+        <v>1000</v>
       </c>
       <c r="I41" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -46603,11 +46690,11 @@
       </c>
       <c r="J41" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A41,Table1[C])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>10600</v>
+        <v>1600</v>
       </c>
       <c r="L41" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -46629,45 +46716,45 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="88" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="B42" s="88"/>
       <c r="C42" s="88"/>
       <c r="E42" s="194">
         <f>MATCH(A42,Table1[H_A1],0)</f>
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F42" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1034</v>
+        <v>487</v>
       </c>
       <c r="G42" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)</v>
+        <v>PENSIL WARNA JOYKO CP-12PB (PANJANG)</v>
       </c>
       <c r="H42">
         <f>SUMIF(Table1[H_A1],Sheet5!A42,Table1[Qty])</f>
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="I42" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J42" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A42,Table1[C])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>124200</v>
-      </c>
-      <c r="L42" s="86">
+        <v>10600</v>
+      </c>
+      <c r="L42" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>576</v>
+        <v/>
       </c>
       <c r="M42" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N42" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46681,21 +46768,21 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="88" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B43" s="88"/>
       <c r="C43" s="88"/>
       <c r="E43" s="194">
         <f>MATCH(A43,Table1[H_A1],0)</f>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F43" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1091</v>
+        <v>1034</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)</v>
+        <v>PENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)</v>
       </c>
       <c r="H43">
         <f>SUMIF(Table1[H_A1],Sheet5!A43,Table1[Qty])</f>
@@ -46703,23 +46790,23 @@
       </c>
       <c r="I43" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>SET</v>
+        <v>LSN</v>
       </c>
       <c r="J43" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A43,Table1[C])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>6600</v>
-      </c>
-      <c r="L43" s="86" t="str">
+        <v>124200</v>
+      </c>
+      <c r="L43" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>576</v>
       </c>
       <c r="M43" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N43" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46733,29 +46820,29 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="88" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B44" s="88"/>
       <c r="C44" s="88"/>
       <c r="E44" s="194">
         <f>MATCH(A44,Table1[H_A1],0)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1886</v>
+        <v>1091</v>
       </c>
       <c r="G44" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PUNCH JOYKO 30</v>
+        <v>PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)</v>
       </c>
       <c r="H44">
         <f>SUMIF(Table1[H_A1],Sheet5!A44,Table1[Qty])</f>
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I44" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>SET</v>
       </c>
       <c r="J44" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A44,Table1[C])</f>
@@ -46763,15 +46850,15 @@
       </c>
       <c r="K44" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>139200</v>
-      </c>
-      <c r="L44" s="86">
+        <v>6600</v>
+      </c>
+      <c r="L44" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="M44" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N44" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46785,29 +46872,29 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="88"/>
       <c r="C45" s="88"/>
       <c r="E45" s="194">
         <f>MATCH(A45,Table1[H_A1],0)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1263</v>
+        <v>1886</v>
       </c>
       <c r="G45" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PUNCH KENKO NO. 85</v>
+        <v>PUNCH JOYKO 30</v>
       </c>
       <c r="H45">
         <f>SUMIF(Table1[H_A1],Sheet5!A45,Table1[Qty])</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I45" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J45" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A45,Table1[C])</f>
@@ -46815,15 +46902,15 @@
       </c>
       <c r="K45" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>48500</v>
-      </c>
-      <c r="L45" s="86" t="str">
+        <v>139200</v>
+      </c>
+      <c r="L45" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="M45" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N45" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46837,29 +46924,29 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B46" s="88"/>
       <c r="C46" s="88"/>
       <c r="E46" s="194">
         <f>MATCH(A46,Table1[H_A1],0)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F46" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="G46" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>PUSH PIN KENKO PN-30 TRANSPARAN</v>
+        <v>PUNCH KENKO NO. 85</v>
       </c>
       <c r="H46">
         <f>SUMIF(Table1[H_A1],Sheet5!A46,Table1[Qty])</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I46" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J46" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A46,Table1[C])</f>
@@ -46867,15 +46954,15 @@
       </c>
       <c r="K46" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>33000</v>
-      </c>
-      <c r="L46" s="86">
+        <v>48500</v>
+      </c>
+      <c r="L46" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="M46" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N46" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46889,29 +46976,29 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="88" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B47" s="88"/>
       <c r="C47" s="88"/>
       <c r="E47" s="194">
         <f>MATCH(A47,Table1[H_A1],0)</f>
-        <v>42</v>
-      </c>
-      <c r="F47" s="194" t="e">
+        <v>31</v>
+      </c>
+      <c r="F47" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
+        <v>1267</v>
       </c>
       <c r="G47" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>Stabillo Highlighter JK HL MIX BIRU/ HIJAU</v>
+        <v>PUSH PIN KENKO PN-30 TRANSPARAN</v>
       </c>
       <c r="H47">
         <f>SUMIF(Table1[H_A1],Sheet5!A47,Table1[Qty])</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I47" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J47" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A47,Table1[C])</f>
@@ -46919,15 +47006,15 @@
       </c>
       <c r="K47" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>3700</v>
-      </c>
-      <c r="L47" s="86" t="str">
+        <v>33000</v>
+      </c>
+      <c r="L47" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="M47" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N47" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46941,29 +47028,29 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="88" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B48" s="88"/>
       <c r="C48" s="88"/>
       <c r="E48" s="194">
         <f>MATCH(A48,Table1[H_A1],0)</f>
-        <v>32</v>
-      </c>
-      <c r="F48" s="194">
+        <v>42</v>
+      </c>
+      <c r="F48" s="194" t="e">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1287</v>
+        <v>#N/A</v>
       </c>
       <c r="G48" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAMP PAD KENKO NO. 0</v>
+        <v>Stabillo Highlighter JK HL MIX BIRU/ HIJAU</v>
       </c>
       <c r="H48">
         <f>SUMIF(Table1[H_A1],Sheet5!A48,Table1[Qty])</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I48" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J48" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A48,Table1[C])</f>
@@ -46971,15 +47058,15 @@
       </c>
       <c r="K48" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>59400</v>
-      </c>
-      <c r="L48" s="86">
+        <v>3700</v>
+      </c>
+      <c r="L48" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="M48" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N48" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -46993,25 +47080,25 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="88"/>
       <c r="C49" s="88"/>
       <c r="E49" s="194">
         <f>MATCH(A49,Table1[H_A1],0)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="G49" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAMP PLATE NUMBER KENKO N-38 (Cap Nomer)</v>
+        <v>STAMP PAD KENKO NO. 0</v>
       </c>
       <c r="H49">
         <f>SUMIF(Table1[H_A1],Sheet5!A49,Table1[Qty])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I49" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -47023,11 +47110,11 @@
       </c>
       <c r="K49" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>84000</v>
+        <v>59400</v>
       </c>
       <c r="L49" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="M49" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -47045,29 +47132,29 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="88" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="B50" s="88"/>
       <c r="C50" s="88"/>
       <c r="E50" s="194">
         <f>MATCH(A50,Table1[H_A1],0)</f>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F50" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="G50" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER KENKO HD-10D</v>
+        <v>STAMP PLATE NUMBER KENKO N-38 (Cap Nomer)</v>
       </c>
       <c r="H50">
         <f>SUMIF(Table1[H_A1],Sheet5!A50,Table1[Qty])</f>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I50" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LS</v>
+        <v>LSN</v>
       </c>
       <c r="J50" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A50,Table1[C])</f>
@@ -47075,15 +47162,15 @@
       </c>
       <c r="K50" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>117600</v>
-      </c>
-      <c r="L50" s="86" t="str">
+        <v>84000</v>
+      </c>
+      <c r="L50" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>96</v>
       </c>
       <c r="M50" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N50" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -47097,25 +47184,25 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51" s="88"/>
       <c r="C51" s="88"/>
       <c r="E51" s="194">
         <f>MATCH(A51,Table1[H_A1],0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G51" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER KENKO HD-10</v>
+        <v>STAPLER KENKO HD-10D</v>
       </c>
       <c r="H51">
         <f>SUMIF(Table1[H_A1],Sheet5!A51,Table1[Qty])</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I51" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -47127,7 +47214,7 @@
       </c>
       <c r="K51" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>93000</v>
+        <v>117600</v>
       </c>
       <c r="L51" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -47149,13 +47236,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="88" t="s">
-        <v>301</v>
+        <v>148</v>
       </c>
       <c r="B52" s="88"/>
       <c r="C52" s="88"/>
       <c r="E52" s="194">
         <f>MATCH(A52,Table1[H_A1],0)</f>
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F52" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
@@ -47167,27 +47254,27 @@
       </c>
       <c r="H52">
         <f>SUMIF(Table1[H_A1],Sheet5!A52,Table1[Qty])</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I52" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>LS</v>
       </c>
       <c r="J52" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A52,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
         <v>93000</v>
       </c>
-      <c r="L52" s="86">
+      <c r="L52" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>240</v>
+        <v/>
       </c>
       <c r="M52" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N52" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -47201,45 +47288,45 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="88" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="B53" s="88"/>
       <c r="C53" s="88"/>
       <c r="E53" s="194">
         <f>MATCH(A53,Table1[H_A1],0)</f>
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F53" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="G53" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER KENKO HD-50</v>
+        <v>STAPLER KENKO HD-10</v>
       </c>
       <c r="H53">
         <f>SUMIF(Table1[H_A1],Sheet5!A53,Table1[Qty])</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I53" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LS</v>
+        <v>LSN</v>
       </c>
       <c r="J53" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A53,Table1[C])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>228000</v>
-      </c>
-      <c r="L53" s="86" t="str">
+        <v>93000</v>
+      </c>
+      <c r="L53" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>240</v>
       </c>
       <c r="M53" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N53" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -47253,13 +47340,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="88" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="B54" s="88"/>
       <c r="C54" s="88"/>
       <c r="E54" s="194">
         <f>MATCH(A54,Table1[H_A1],0)</f>
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F54" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
@@ -47275,23 +47362,23 @@
       </c>
       <c r="I54" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>LS</v>
       </c>
       <c r="J54" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A54,Table1[C])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
         <v>228000</v>
       </c>
-      <c r="L54" s="86">
+      <c r="L54" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>120</v>
+        <v/>
       </c>
       <c r="M54" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N54" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -47305,29 +47392,29 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="88" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
       <c r="E55" s="194">
         <f>MATCH(A55,Table1[H_A1],0)</f>
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F55" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1398</v>
+        <v>1298</v>
       </c>
       <c r="G55" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STAPLER LONG REACH JOYKO HD-35LA</v>
+        <v>STAPLER KENKO HD-50</v>
       </c>
       <c r="H55">
         <f>SUMIF(Table1[H_A1],Sheet5!A55,Table1[Qty])</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I55" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>PCS</v>
+        <v>LSN</v>
       </c>
       <c r="J55" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A55,Table1[C])</f>
@@ -47335,15 +47422,15 @@
       </c>
       <c r="K55" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>58000</v>
-      </c>
-      <c r="L55" s="86" t="str">
+        <v>228000</v>
+      </c>
+      <c r="L55" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="M55" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N55" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -47357,45 +47444,45 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="88"/>
       <c r="C56" s="88"/>
       <c r="E56" s="194">
         <f>MATCH(A56,Table1[H_A1],0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2025</v>
+        <v>1398</v>
       </c>
       <c r="G56" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>TAPE CUTTER JOYKO TD-102</v>
+        <v>STAPLER LONG REACH JOYKO HD-35LA</v>
       </c>
       <c r="H56">
         <f>SUMIF(Table1[H_A1],Sheet5!A56,Table1[Qty])</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I56" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>LSN</v>
+        <v>PCS</v>
       </c>
       <c r="J56" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A56,Table1[C])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>11100</v>
-      </c>
-      <c r="L56" s="86">
+        <v>58000</v>
+      </c>
+      <c r="L56" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>576</v>
+        <v/>
       </c>
       <c r="M56" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>PCS</v>
+        <v/>
       </c>
       <c r="N56" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -47409,57 +47496,60 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="88" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B57" s="88"/>
       <c r="C57" s="88"/>
-      <c r="E57" s="194" t="e">
+      <c r="E57" s="194">
         <f>MATCH(A57,Table1[H_A1],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F57" s="194" t="e">
+        <v>25</v>
+      </c>
+      <c r="F57" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G57" t="e">
+        <v>2025</v>
+      </c>
+      <c r="G57" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>TAPE CUTTER JOYKO TD-102</v>
       </c>
       <c r="H57">
         <f>SUMIF(Table1[H_A1],Sheet5!A57,Table1[Qty])</f>
-        <v>0</v>
-      </c>
-      <c r="I57" t="e">
+        <v>48</v>
+      </c>
+      <c r="I57" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
+        <v>LSN</v>
       </c>
       <c r="J57" s="195">
         <f>SUMIF(Table1[H_A1],Sheet5!A57,Table1[C])</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="195" t="e">
+        <v>2</v>
+      </c>
+      <c r="K57" s="195">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L57" s="86" t="e">
+        <v>11100</v>
+      </c>
+      <c r="L57" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M57" s="86" t="e">
+        <v>576</v>
+      </c>
+      <c r="M57" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N57" s="86" t="e">
+        <v>PCS</v>
+      </c>
+      <c r="N57" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O57" s="86" t="e">
+        <v/>
+      </c>
+      <c r="O57" s="86" t="str">
         <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="P57" s="86"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="88" t="s">
+        <v>55</v>
+      </c>
       <c r="B58" s="88"/>
       <c r="C58" s="88"/>
       <c r="E58" s="194" t="e">
@@ -51395,7 +51485,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G139">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/BARU/2023/02 FEB/KELUAR.xlsx
+++ b/BARU/2023/02 FEB/KELUAR.xlsx
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId8"/>
+    <pivotCache cacheId="86" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1804,6 +1804,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2744,38 +2745,80 @@
     <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2843,80 +2886,38 @@
     <xf numFmtId="166" fontId="24" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -27344,7 +27345,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44988.648011111109" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="211">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44992.576398032405" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="211">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
@@ -34163,7 +34164,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:A43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -34382,7 +34383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A119" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0"/>
@@ -52286,8 +52287,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55893,10 +55894,10 @@
         <f ca="1">INDEX(Table1[h_jumlahbarang],newestIdRow-offset)</f>
         <v>2</v>
       </c>
-      <c r="I1" s="302" t="s">
+      <c r="I1" s="349" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="302"/>
+      <c r="J1" s="349"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -55923,13 +55924,13 @@
       <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="309" t="str">
+      <c r="H3" s="356" t="str">
         <f>INDEX(Table2[b],MATCH(kToko,Table2[a],0))</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="310"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
+      <c r="K3" s="357"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -55938,14 +55939,14 @@
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="313" t="s">
+      <c r="F4" s="327" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="312"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="358"/>
+      <c r="J4" s="358"/>
+      <c r="K4" s="359"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -55954,20 +55955,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="314">
+      <c r="D5" s="328">
         <f>INDEX(Table1[Tgl Invoice :],newestIdRow-offset)</f>
         <v>44985</v>
       </c>
-      <c r="E5" s="315"/>
-      <c r="F5" s="313"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="327"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="316" t="str">
+      <c r="H5" s="330" t="str">
         <f>IF(INDEX(Table2[c],MATCH(kToko,Table2[a],0))="","",INDEX(Table2[c],MATCH(kToko,Table2[a],0)))</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="317"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="331"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -55976,15 +55977,15 @@
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="313"/>
+      <c r="F6" s="327"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="318" t="str">
+      <c r="H6" s="332" t="str">
         <f>INDEX(Table2[d],MATCH(kToko,Table2[a],0))</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="319"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="333"/>
       <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -56000,10 +56001,10 @@
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="320"/>
-      <c r="J7" s="320"/>
-      <c r="K7" s="321"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
+      <c r="J7" s="334"/>
+      <c r="K7" s="335"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -56724,8 +56725,8 @@
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="308"/>
-      <c r="K28" s="308"/>
+      <c r="J28" s="355"/>
+      <c r="K28" s="355"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
@@ -56735,11 +56736,11 @@
       <c r="I29" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="305">
+      <c r="J29" s="352">
         <f ca="1">INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
         <v>1513600</v>
       </c>
-      <c r="K29" s="306"/>
+      <c r="K29" s="353"/>
       <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -56748,8 +56749,8 @@
       <c r="C30" s="66"/>
       <c r="D30" s="25"/>
       <c r="I30" s="68"/>
-      <c r="J30" s="307"/>
-      <c r="K30" s="307"/>
+      <c r="J30" s="354"/>
+      <c r="K30" s="354"/>
     </row>
     <row r="31" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
@@ -56772,8 +56773,8 @@
       <c r="C32" s="66"/>
       <c r="D32" s="25"/>
       <c r="I32" s="68"/>
-      <c r="J32" s="308"/>
-      <c r="K32" s="308"/>
+      <c r="J32" s="355"/>
+      <c r="K32" s="355"/>
     </row>
     <row r="33" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
@@ -56788,11 +56789,11 @@
       <c r="I33" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="305">
+      <c r="J33" s="352">
         <f ca="1">INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
         <v>149996.39639639639</v>
       </c>
-      <c r="K33" s="306"/>
+      <c r="K33" s="353"/>
       <c r="L33" s="73"/>
     </row>
     <row r="34" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -56801,8 +56802,8 @@
       <c r="C34" s="66"/>
       <c r="D34" s="25"/>
       <c r="I34" s="68"/>
-      <c r="J34" s="308"/>
-      <c r="K34" s="308"/>
+      <c r="J34" s="355"/>
+      <c r="K34" s="355"/>
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -56843,11 +56844,11 @@
       <c r="I37" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="303" t="str">
+      <c r="J37" s="350" t="str">
         <f>INDEX(pajak[pembuat nota],MATCH(newestIdRow,pajak[//],0))</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K37" s="304"/>
+      <c r="K37" s="351"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="78"/>
@@ -56857,11 +56858,11 @@
       <c r="I38" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="303" t="str">
+      <c r="J38" s="350" t="str">
         <f>INDEX(pajak[edited],MATCH(newestIdRow,pajak[//],0))</f>
         <v/>
       </c>
-      <c r="K38" s="304"/>
+      <c r="K38" s="351"/>
       <c r="L38" s="64"/>
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -56906,13 +56907,13 @@
       <c r="G41" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="322" t="str">
+      <c r="H41" s="336" t="str">
         <f>H3</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I41" s="322"/>
-      <c r="J41" s="322"/>
-      <c r="K41" s="323"/>
+      <c r="I41" s="336"/>
+      <c r="J41" s="336"/>
+      <c r="K41" s="337"/>
       <c r="L41" s="212"/>
     </row>
     <row r="42" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -56921,14 +56922,14 @@
       <c r="C42" s="214"/>
       <c r="D42" s="215"/>
       <c r="E42" s="216"/>
-      <c r="F42" s="326" t="s">
+      <c r="F42" s="340" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="217"/>
-      <c r="H42" s="324"/>
-      <c r="I42" s="324"/>
-      <c r="J42" s="324"/>
-      <c r="K42" s="325"/>
+      <c r="H42" s="338"/>
+      <c r="I42" s="338"/>
+      <c r="J42" s="338"/>
+      <c r="K42" s="339"/>
       <c r="L42" s="212"/>
     </row>
     <row r="43" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -56937,20 +56938,20 @@
         <v>2</v>
       </c>
       <c r="C43" s="207"/>
-      <c r="D43" s="327">
+      <c r="D43" s="341">
         <f>D5</f>
         <v>44985</v>
       </c>
-      <c r="E43" s="328"/>
-      <c r="F43" s="326"/>
+      <c r="E43" s="342"/>
+      <c r="F43" s="340"/>
       <c r="G43" s="218"/>
-      <c r="H43" s="329" t="str">
+      <c r="H43" s="343" t="str">
         <f>H5</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I43" s="329"/>
-      <c r="J43" s="329"/>
-      <c r="K43" s="330"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
+      <c r="K43" s="344"/>
       <c r="L43" s="219"/>
     </row>
     <row r="44" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -56959,15 +56960,15 @@
       <c r="C44" s="214"/>
       <c r="D44" s="215"/>
       <c r="E44" s="216"/>
-      <c r="F44" s="326"/>
+      <c r="F44" s="340"/>
       <c r="G44" s="218"/>
-      <c r="H44" s="331" t="str">
+      <c r="H44" s="345" t="str">
         <f>H6</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I44" s="331"/>
-      <c r="J44" s="331"/>
-      <c r="K44" s="332"/>
+      <c r="I44" s="345"/>
+      <c r="J44" s="345"/>
+      <c r="K44" s="346"/>
       <c r="L44" s="220"/>
     </row>
     <row r="45" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -56983,10 +56984,10 @@
       <c r="E45" s="209"/>
       <c r="F45" s="222"/>
       <c r="G45" s="223"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="334"/>
+      <c r="H45" s="347"/>
+      <c r="I45" s="347"/>
+      <c r="J45" s="347"/>
+      <c r="K45" s="348"/>
       <c r="L45" s="220"/>
     </row>
     <row r="46" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -57711,8 +57712,8 @@
       <c r="G66" s="267"/>
       <c r="H66" s="267"/>
       <c r="I66" s="268"/>
-      <c r="J66" s="335"/>
-      <c r="K66" s="335"/>
+      <c r="J66" s="316"/>
+      <c r="K66" s="316"/>
       <c r="L66" s="230"/>
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57727,11 +57728,11 @@
       <c r="I67" s="270" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="336">
+      <c r="J67" s="324">
         <f ca="1">J29</f>
         <v>1513600</v>
       </c>
-      <c r="K67" s="337"/>
+      <c r="K67" s="325"/>
       <c r="L67" s="238"/>
     </row>
     <row r="68" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -57744,8 +57745,8 @@
       <c r="G68" s="227"/>
       <c r="H68" s="227"/>
       <c r="I68" s="271"/>
-      <c r="J68" s="338"/>
-      <c r="K68" s="338"/>
+      <c r="J68" s="326"/>
+      <c r="K68" s="326"/>
       <c r="L68" s="230"/>
     </row>
     <row r="69" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57780,8 +57781,8 @@
       <c r="G70" s="227"/>
       <c r="H70" s="227"/>
       <c r="I70" s="271"/>
-      <c r="J70" s="335"/>
-      <c r="K70" s="335"/>
+      <c r="J70" s="316"/>
+      <c r="K70" s="316"/>
       <c r="L70" s="230"/>
     </row>
     <row r="71" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57800,11 +57801,11 @@
       <c r="I71" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="336">
+      <c r="J71" s="324">
         <f ca="1">J33</f>
         <v>149996.39639639639</v>
       </c>
-      <c r="K71" s="337"/>
+      <c r="K71" s="325"/>
       <c r="L71" s="276"/>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -57817,8 +57818,8 @@
       <c r="G72" s="227"/>
       <c r="H72" s="227"/>
       <c r="I72" s="271"/>
-      <c r="J72" s="335"/>
-      <c r="K72" s="335"/>
+      <c r="J72" s="316"/>
+      <c r="K72" s="316"/>
       <c r="L72" s="230"/>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57868,11 +57869,11 @@
       <c r="I75" s="286" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="339" t="str">
+      <c r="J75" s="317" t="str">
         <f>J37</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K75" s="340"/>
+      <c r="K75" s="318"/>
       <c r="L75" s="230"/>
     </row>
     <row r="76" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -57887,10 +57888,10 @@
       <c r="I76" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="339">
+      <c r="J76" s="317">
         <v>0</v>
       </c>
-      <c r="K76" s="340"/>
+      <c r="K76" s="318"/>
       <c r="L76" s="284"/>
     </row>
     <row r="77" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -57939,13 +57940,13 @@
       <c r="G79" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H79" s="341" t="str">
+      <c r="H79" s="319" t="str">
         <f>H41</f>
         <v>HARNOYO</v>
       </c>
-      <c r="I79" s="341"/>
-      <c r="J79" s="341"/>
-      <c r="K79" s="342"/>
+      <c r="I79" s="319"/>
+      <c r="J79" s="319"/>
+      <c r="K79" s="320"/>
       <c r="L79" s="112"/>
     </row>
     <row r="80" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57954,14 +57955,14 @@
       <c r="C80" s="114"/>
       <c r="D80" s="115"/>
       <c r="E80" s="116"/>
-      <c r="F80" s="345" t="s">
+      <c r="F80" s="323" t="s">
         <v>18</v>
       </c>
       <c r="G80" s="117"/>
-      <c r="H80" s="343"/>
-      <c r="I80" s="343"/>
-      <c r="J80" s="343"/>
-      <c r="K80" s="344"/>
+      <c r="H80" s="321"/>
+      <c r="I80" s="321"/>
+      <c r="J80" s="321"/>
+      <c r="K80" s="322"/>
       <c r="L80" s="112"/>
     </row>
     <row r="81" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57970,20 +57971,20 @@
         <v>2</v>
       </c>
       <c r="C81" s="107"/>
-      <c r="D81" s="346">
+      <c r="D81" s="308">
         <f>D43</f>
         <v>44985</v>
       </c>
-      <c r="E81" s="347"/>
-      <c r="F81" s="345"/>
+      <c r="E81" s="309"/>
+      <c r="F81" s="323"/>
       <c r="G81" s="118"/>
-      <c r="H81" s="348" t="str">
+      <c r="H81" s="310" t="str">
         <f>H43</f>
         <v>(BENDAN)</v>
       </c>
-      <c r="I81" s="348"/>
-      <c r="J81" s="348"/>
-      <c r="K81" s="349"/>
+      <c r="I81" s="310"/>
+      <c r="J81" s="310"/>
+      <c r="K81" s="311"/>
       <c r="L81" s="119"/>
     </row>
     <row r="82" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -57992,15 +57993,15 @@
       <c r="C82" s="114"/>
       <c r="D82" s="115"/>
       <c r="E82" s="116"/>
-      <c r="F82" s="345"/>
+      <c r="F82" s="323"/>
       <c r="G82" s="118"/>
-      <c r="H82" s="350" t="str">
+      <c r="H82" s="312" t="str">
         <f>H44</f>
         <v>PEKALONGAN</v>
       </c>
-      <c r="I82" s="350"/>
-      <c r="J82" s="350"/>
-      <c r="K82" s="351"/>
+      <c r="I82" s="312"/>
+      <c r="J82" s="312"/>
+      <c r="K82" s="313"/>
       <c r="L82" s="120"/>
     </row>
     <row r="83" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -58016,10 +58017,10 @@
       <c r="E83" s="109"/>
       <c r="F83" s="122"/>
       <c r="G83" s="123"/>
-      <c r="H83" s="352"/>
-      <c r="I83" s="352"/>
-      <c r="J83" s="352"/>
-      <c r="K83" s="353"/>
+      <c r="H83" s="314"/>
+      <c r="I83" s="314"/>
+      <c r="J83" s="314"/>
+      <c r="K83" s="315"/>
       <c r="L83" s="120"/>
     </row>
     <row r="84" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -58744,8 +58745,8 @@
       <c r="G104" s="167"/>
       <c r="H104" s="167"/>
       <c r="I104" s="168"/>
-      <c r="J104" s="354"/>
-      <c r="K104" s="354"/>
+      <c r="J104" s="305"/>
+      <c r="K104" s="305"/>
       <c r="L104" s="130"/>
     </row>
     <row r="105" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -58760,11 +58761,11 @@
       <c r="I105" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="355">
+      <c r="J105" s="306">
         <f ca="1">J67</f>
         <v>1513600</v>
       </c>
-      <c r="K105" s="356"/>
+      <c r="K105" s="307"/>
       <c r="L105" s="138"/>
     </row>
     <row r="106" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -58777,8 +58778,8 @@
       <c r="G106" s="127"/>
       <c r="H106" s="127"/>
       <c r="I106" s="171"/>
-      <c r="J106" s="359"/>
-      <c r="K106" s="359"/>
+      <c r="J106" s="304"/>
+      <c r="K106" s="304"/>
       <c r="L106" s="130"/>
     </row>
     <row r="107" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -58813,8 +58814,8 @@
       <c r="G108" s="127"/>
       <c r="H108" s="127"/>
       <c r="I108" s="171"/>
-      <c r="J108" s="354"/>
-      <c r="K108" s="354"/>
+      <c r="J108" s="305"/>
+      <c r="K108" s="305"/>
       <c r="L108" s="130"/>
     </row>
     <row r="109" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -58833,11 +58834,11 @@
       <c r="I109" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="J109" s="355">
+      <c r="J109" s="306">
         <f ca="1">J71</f>
         <v>149996.39639639639</v>
       </c>
-      <c r="K109" s="356"/>
+      <c r="K109" s="307"/>
       <c r="L109" s="176"/>
     </row>
     <row r="110" spans="1:12" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -58850,8 +58851,8 @@
       <c r="G110" s="127"/>
       <c r="H110" s="127"/>
       <c r="I110" s="171"/>
-      <c r="J110" s="354"/>
-      <c r="K110" s="354"/>
+      <c r="J110" s="305"/>
+      <c r="K110" s="305"/>
       <c r="L110" s="130"/>
     </row>
     <row r="111" spans="1:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -58901,11 +58902,11 @@
       <c r="I113" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="357" t="str">
+      <c r="J113" s="302" t="str">
         <f>J75</f>
         <v>NOVI / CONDRO</v>
       </c>
-      <c r="K113" s="358"/>
+      <c r="K113" s="303"/>
       <c r="L113" s="130"/>
     </row>
     <row r="114" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -58920,10 +58921,10 @@
       <c r="I114" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="357">
+      <c r="J114" s="302">
         <v>0</v>
       </c>
-      <c r="K114" s="358"/>
+      <c r="K114" s="303"/>
       <c r="L114" s="184"/>
     </row>
     <row r="115" spans="1:12" s="10" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -58942,36 +58943,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K83"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="H79:K80"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H41:K42"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K45"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="J29:K29"/>
@@ -58982,6 +58953,36 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="H3:K4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H41:K42"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="H79:K80"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K83"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J113:K113"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="6.59375" header="0" footer="0"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59220,7 +59221,7 @@
       </c>
       <c r="F5" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G5" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59272,7 +59273,7 @@
       </c>
       <c r="F6" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G6" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59324,7 +59325,7 @@
       </c>
       <c r="F7" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G7" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59480,7 +59481,7 @@
       </c>
       <c r="F10" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G10" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59532,7 +59533,7 @@
       </c>
       <c r="F11" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G11" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59584,7 +59585,7 @@
       </c>
       <c r="F12" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G12" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59636,7 +59637,7 @@
       </c>
       <c r="F13" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G13" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59688,7 +59689,7 @@
       </c>
       <c r="F14" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G14" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59740,7 +59741,7 @@
       </c>
       <c r="F15" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G15" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59792,7 +59793,7 @@
       </c>
       <c r="F16" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G16" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59844,7 +59845,7 @@
       </c>
       <c r="F17" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G17" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59896,7 +59897,7 @@
       </c>
       <c r="F18" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G18" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -59948,7 +59949,7 @@
       </c>
       <c r="F19" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G19" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60000,7 +60001,7 @@
       </c>
       <c r="F20" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G20" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60052,7 +60053,7 @@
       </c>
       <c r="F21" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G21" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60104,7 +60105,7 @@
       </c>
       <c r="F22" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60156,7 +60157,7 @@
       </c>
       <c r="F23" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60208,7 +60209,7 @@
       </c>
       <c r="F24" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60260,7 +60261,7 @@
       </c>
       <c r="F25" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G25" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60312,7 +60313,7 @@
       </c>
       <c r="F26" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G26" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60364,7 +60365,7 @@
       </c>
       <c r="F27" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G27" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60416,7 +60417,7 @@
       </c>
       <c r="F28" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G28" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60468,7 +60469,7 @@
       </c>
       <c r="F29" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="G29" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60520,7 +60521,7 @@
       </c>
       <c r="F30" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="G30" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60572,7 +60573,7 @@
       </c>
       <c r="F31" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="G31" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60624,7 +60625,7 @@
       </c>
       <c r="F32" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="G32" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60676,7 +60677,7 @@
       </c>
       <c r="F33" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G33" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60728,7 +60729,7 @@
       </c>
       <c r="F34" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G34" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60780,7 +60781,7 @@
       </c>
       <c r="F35" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G35" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60884,7 +60885,7 @@
       </c>
       <c r="F37" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G37" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60936,7 +60937,7 @@
       </c>
       <c r="F38" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G38" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -60988,7 +60989,7 @@
       </c>
       <c r="F39" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G39" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61040,7 +61041,7 @@
       </c>
       <c r="F40" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G40" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61092,7 +61093,7 @@
       </c>
       <c r="F41" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G41" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61144,7 +61145,7 @@
       </c>
       <c r="F42" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G42" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61196,7 +61197,7 @@
       </c>
       <c r="F43" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61300,7 +61301,7 @@
       </c>
       <c r="F45" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G45" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61352,7 +61353,7 @@
       </c>
       <c r="F46" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="G46" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61404,7 +61405,7 @@
       </c>
       <c r="F47" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G47" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61456,7 +61457,7 @@
       </c>
       <c r="F48" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="G48" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61508,7 +61509,7 @@
       </c>
       <c r="F49" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G49" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61560,7 +61561,7 @@
       </c>
       <c r="F50" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="G50" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61612,7 +61613,7 @@
       </c>
       <c r="F51" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="G51" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61664,7 +61665,7 @@
       </c>
       <c r="F52" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G52" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61716,7 +61717,7 @@
       </c>
       <c r="F53" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G53" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61768,7 +61769,7 @@
       </c>
       <c r="F54" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="G54" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61820,7 +61821,7 @@
       </c>
       <c r="F55" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G55" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61872,7 +61873,7 @@
       </c>
       <c r="F56" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G56" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61924,7 +61925,7 @@
       </c>
       <c r="F57" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="G57" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -61976,7 +61977,7 @@
       </c>
       <c r="F58" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="G58" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62028,7 +62029,7 @@
       </c>
       <c r="F59" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="G59" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62080,7 +62081,7 @@
       </c>
       <c r="F60" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G60" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62132,7 +62133,7 @@
       </c>
       <c r="F61" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G61" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62184,7 +62185,7 @@
       </c>
       <c r="F62" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G62" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62236,7 +62237,7 @@
       </c>
       <c r="F63" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G63" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62288,7 +62289,7 @@
       </c>
       <c r="F64" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G64" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62340,7 +62341,7 @@
       </c>
       <c r="F65" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G65" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62392,7 +62393,7 @@
       </c>
       <c r="F66" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G66" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62496,7 +62497,7 @@
       </c>
       <c r="F68" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G68" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62548,7 +62549,7 @@
       </c>
       <c r="F69" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G69" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62600,7 +62601,7 @@
       </c>
       <c r="F70" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="G70" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62652,7 +62653,7 @@
       </c>
       <c r="F71" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G71" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62704,7 +62705,7 @@
       </c>
       <c r="F72" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G72" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62756,7 +62757,7 @@
       </c>
       <c r="F73" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62808,7 +62809,7 @@
       </c>
       <c r="F74" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="G74" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62860,7 +62861,7 @@
       </c>
       <c r="F75" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="G75" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62912,7 +62913,7 @@
       </c>
       <c r="F76" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G76" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -62964,7 +62965,7 @@
       </c>
       <c r="F77" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G77" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63016,7 +63017,7 @@
       </c>
       <c r="F78" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="G78" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63068,7 +63069,7 @@
       </c>
       <c r="F79" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G79" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63120,7 +63121,7 @@
       </c>
       <c r="F80" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G80" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63172,7 +63173,7 @@
       </c>
       <c r="F81" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G81" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63224,7 +63225,7 @@
       </c>
       <c r="F82" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G82" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63276,7 +63277,7 @@
       </c>
       <c r="F83" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G83" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63328,7 +63329,7 @@
       </c>
       <c r="F84" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G84" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63380,7 +63381,7 @@
       </c>
       <c r="F85" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G85" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63536,7 +63537,7 @@
       </c>
       <c r="F88" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="G88" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63588,7 +63589,7 @@
       </c>
       <c r="F89" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G89" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63640,7 +63641,7 @@
       </c>
       <c r="F90" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G90" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63692,7 +63693,7 @@
       </c>
       <c r="F91" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G91" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63744,7 +63745,7 @@
       </c>
       <c r="F92" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G92" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63796,7 +63797,7 @@
       </c>
       <c r="F93" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G93" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63848,7 +63849,7 @@
       </c>
       <c r="F94" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G94" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63900,7 +63901,7 @@
       </c>
       <c r="F95" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G95" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -63952,7 +63953,7 @@
       </c>
       <c r="F96" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G96" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64004,7 +64005,7 @@
       </c>
       <c r="F97" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="G97" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64054,7 +64055,7 @@
       </c>
       <c r="F98" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G98" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64104,7 +64105,7 @@
       </c>
       <c r="F99" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="G99" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64204,7 +64205,7 @@
       </c>
       <c r="F101" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G101" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64254,7 +64255,7 @@
       </c>
       <c r="F102" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G102" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64304,7 +64305,7 @@
       </c>
       <c r="F103" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G103" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64354,7 +64355,7 @@
       </c>
       <c r="F104" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G104" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64404,7 +64405,7 @@
       </c>
       <c r="F105" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G105" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64454,7 +64455,7 @@
       </c>
       <c r="F106" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="G106" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64504,7 +64505,7 @@
       </c>
       <c r="F107" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G107" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64554,7 +64555,7 @@
       </c>
       <c r="F108" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="G108" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64604,7 +64605,7 @@
       </c>
       <c r="F109" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="G109" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64654,7 +64655,7 @@
       </c>
       <c r="F110" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G110" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64704,7 +64705,7 @@
       </c>
       <c r="F111" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G111" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64804,7 +64805,7 @@
       </c>
       <c r="F113" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="G113" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64854,7 +64855,7 @@
       </c>
       <c r="F114" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="G114" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64904,7 +64905,7 @@
       </c>
       <c r="F115" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G115" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -64954,7 +64955,7 @@
       </c>
       <c r="F116" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G116" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -65004,7 +65005,7 @@
       </c>
       <c r="F117" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="G117" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
@@ -65054,7 +65055,7 @@
       </c>
       <c r="F118" s="194">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="G118" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
